--- a/Abitur Englisch 2015 Woelker.xlsx
+++ b/Abitur Englisch 2015 Woelker.xlsx
@@ -21,7 +21,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Eingabe Abitur'!$1:$10</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">Gesamtübersicht!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="145621" fullCalcOnLoad="1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>Englisch</t>
   </si>
@@ -363,17 +363,14 @@
   <si>
     <t>Lehrer</t>
   </si>
-  <si>
-    <t xml:space="preserve">Siegel, Markus </t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="174" formatCode="0.0000"/>
-    <numFmt numFmtId="191" formatCode="dd/\ mmmm\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="dd/\ mmmm\ yyyy"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -1738,7 +1735,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="191" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1907,7 +1904,7 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="44" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1917,7 +1914,7 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2260,184 +2257,202 @@
     <xf numFmtId="2" fontId="5" fillId="2" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="3" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="3" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="3" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="3" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="5" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="5" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="5" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="5" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="9" fillId="3" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="3" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="3" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="5" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="9" fillId="5" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="5" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="5" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="3" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="2" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="2" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="9" fillId="2" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2445,10 +2460,46 @@
     <xf numFmtId="2" fontId="9" fillId="2" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="2" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="2" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="5" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="5" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="5" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="5" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2488,59 +2539,45 @@
     <xf numFmtId="2" fontId="5" fillId="4" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="5" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="5" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="5" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="5" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2555,47 +2592,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="191" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -3684,13 +3681,11 @@
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" s="173">
+      <c r="A8" s="173" t="str">
         <f>IF(B8="","",1)</f>
-        <v>1</v>
-      </c>
-      <c r="B8" s="246" t="s">
-        <v>92</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B8" s="246"/>
       <c r="C8" s="220"/>
       <c r="D8" s="219"/>
       <c r="E8" s="221"/>
@@ -3713,16 +3708,14 @@
         <f>IF(B8="","",IF(C8="","",IF(F8="",AVERAGE(G8:P8),(AVERAGE(G8:P8)*2+F8)/3)))</f>
         <v/>
       </c>
-      <c r="S8" s="237">
-        <v>13.33</v>
-      </c>
-      <c r="T8" s="174" t="e">
+      <c r="S8" s="237"/>
+      <c r="T8" s="174" t="str">
         <f>IF(B8="","",ROUNDUP((Q8*2+R8)/3,2))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U8" s="176">
+        <v/>
+      </c>
+      <c r="U8" s="176" t="str">
         <f t="shared" ref="U8:U42" si="0">IF(B8="","",IF(LEFT(S8,1)="0",0,ROUND(S8,0)))</f>
-        <v>13</v>
+        <v/>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
@@ -5186,21 +5179,21 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="S43" s="179">
+      <c r="S43" s="179" t="str">
         <f t="shared" si="5"/>
-        <v>13.33</v>
-      </c>
-      <c r="T43" s="179" t="e">
+        <v/>
+      </c>
+      <c r="T43" s="179" t="str">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U43" s="238">
+        <v/>
+      </c>
+      <c r="U43" s="238" t="str">
         <f t="shared" si="5"/>
-        <v>13</v>
+        <v/>
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="" sheet="1" selectLockedCells="1"/>
+  <sheetProtection sheet="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="F6:P6"/>
@@ -5425,41 +5418,41 @@
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="262" t="s">
+      <c r="C6" s="309" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="264"/>
-      <c r="E6" s="264"/>
-      <c r="F6" s="259" t="s">
+      <c r="D6" s="311"/>
+      <c r="E6" s="311"/>
+      <c r="F6" s="306" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="260"/>
-      <c r="H6" s="260"/>
-      <c r="I6" s="260"/>
-      <c r="J6" s="260"/>
-      <c r="K6" s="260"/>
-      <c r="L6" s="260"/>
-      <c r="M6" s="260"/>
-      <c r="N6" s="260"/>
-      <c r="O6" s="260"/>
-      <c r="P6" s="260"/>
-      <c r="Q6" s="260"/>
-      <c r="R6" s="260"/>
-      <c r="S6" s="260"/>
-      <c r="T6" s="260"/>
-      <c r="U6" s="261"/>
-      <c r="V6" s="259" t="s">
+      <c r="G6" s="307"/>
+      <c r="H6" s="307"/>
+      <c r="I6" s="307"/>
+      <c r="J6" s="307"/>
+      <c r="K6" s="307"/>
+      <c r="L6" s="307"/>
+      <c r="M6" s="307"/>
+      <c r="N6" s="307"/>
+      <c r="O6" s="307"/>
+      <c r="P6" s="307"/>
+      <c r="Q6" s="307"/>
+      <c r="R6" s="307"/>
+      <c r="S6" s="307"/>
+      <c r="T6" s="307"/>
+      <c r="U6" s="308"/>
+      <c r="V6" s="306" t="s">
         <v>15</v>
       </c>
-      <c r="W6" s="260"/>
-      <c r="X6" s="260"/>
-      <c r="Y6" s="260"/>
-      <c r="Z6" s="260"/>
-      <c r="AA6" s="261"/>
-      <c r="AB6" s="262" t="s">
+      <c r="W6" s="307"/>
+      <c r="X6" s="307"/>
+      <c r="Y6" s="307"/>
+      <c r="Z6" s="307"/>
+      <c r="AA6" s="308"/>
+      <c r="AB6" s="309" t="s">
         <v>44</v>
       </c>
-      <c r="AC6" s="263"/>
+      <c r="AC6" s="310"/>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
@@ -5467,32 +5460,32 @@
       <c r="C7" s="130"/>
       <c r="D7" s="131"/>
       <c r="E7" s="131"/>
-      <c r="F7" s="265" t="s">
+      <c r="F7" s="312" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="266"/>
-      <c r="H7" s="266"/>
-      <c r="I7" s="266"/>
-      <c r="J7" s="266"/>
-      <c r="K7" s="266"/>
-      <c r="L7" s="266"/>
-      <c r="M7" s="267"/>
-      <c r="N7" s="268" t="s">
+      <c r="G7" s="303"/>
+      <c r="H7" s="303"/>
+      <c r="I7" s="303"/>
+      <c r="J7" s="303"/>
+      <c r="K7" s="303"/>
+      <c r="L7" s="303"/>
+      <c r="M7" s="313"/>
+      <c r="N7" s="302" t="s">
         <v>17</v>
       </c>
-      <c r="O7" s="266"/>
-      <c r="P7" s="266"/>
-      <c r="Q7" s="266"/>
-      <c r="R7" s="266"/>
-      <c r="S7" s="267"/>
+      <c r="O7" s="303"/>
+      <c r="P7" s="303"/>
+      <c r="Q7" s="303"/>
+      <c r="R7" s="303"/>
+      <c r="S7" s="313"/>
       <c r="T7" s="35"/>
       <c r="U7" s="31"/>
-      <c r="V7" s="269" t="s">
+      <c r="V7" s="314" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="270"/>
-      <c r="X7" s="270"/>
-      <c r="Y7" s="271"/>
+      <c r="W7" s="300"/>
+      <c r="X7" s="300"/>
+      <c r="Y7" s="301"/>
       <c r="Z7" s="5"/>
       <c r="AA7" s="31"/>
       <c r="AB7" s="32"/>
@@ -5526,15 +5519,15 @@
         <v>85</v>
       </c>
       <c r="M8" s="9"/>
-      <c r="N8" s="268" t="s">
+      <c r="N8" s="302" t="s">
         <v>20</v>
       </c>
-      <c r="O8" s="266"/>
-      <c r="P8" s="280" t="s">
+      <c r="O8" s="303"/>
+      <c r="P8" s="299" t="s">
         <v>21</v>
       </c>
-      <c r="Q8" s="270"/>
-      <c r="R8" s="271"/>
+      <c r="Q8" s="300"/>
+      <c r="R8" s="301"/>
       <c r="S8" s="9"/>
       <c r="T8" s="36"/>
       <c r="U8" s="31"/>
@@ -5700,25 +5693,25 @@
       </c>
     </row>
     <row r="11" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="274">
+      <c r="A11" s="297" t="str">
         <f>IF('Eingabe Jahresfortgang'!B8="","",1)</f>
-        <v>1</v>
-      </c>
-      <c r="B11" s="272" t="str">
+        <v/>
+      </c>
+      <c r="B11" s="289" t="str">
         <f>IF('Eingabe Jahresfortgang'!B8="","",'Eingabe Jahresfortgang'!B8)</f>
-        <v xml:space="preserve">Siegel, Markus </v>
-      </c>
-      <c r="C11" s="281" t="str">
+        <v/>
+      </c>
+      <c r="C11" s="275" t="str">
         <f>'Eingabe Jahresfortgang'!Q8</f>
         <v/>
       </c>
-      <c r="D11" s="283" t="str">
+      <c r="D11" s="277" t="str">
         <f>'Eingabe Jahresfortgang'!R8</f>
         <v/>
       </c>
-      <c r="E11" s="285">
+      <c r="E11" s="304">
         <f>'Eingabe Jahresfortgang'!S8</f>
-        <v>13.33</v>
+        <v>0</v>
       </c>
       <c r="F11" s="116"/>
       <c r="G11" s="116"/>
@@ -5727,58 +5720,58 @@
       <c r="J11" s="116"/>
       <c r="K11" s="116"/>
       <c r="L11" s="118"/>
-      <c r="M11" s="165">
+      <c r="M11" s="165" t="str">
         <f>IF(B11="","",SUM(F11:L11))</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="N11" s="119"/>
       <c r="O11" s="120"/>
       <c r="P11" s="119"/>
       <c r="Q11" s="121"/>
       <c r="R11" s="120"/>
-      <c r="S11" s="198">
+      <c r="S11" s="198" t="str">
         <f>IF(B11="","",SUM(N11:R11))</f>
-        <v>0</v>
-      </c>
-      <c r="T11" s="199">
+        <v/>
+      </c>
+      <c r="T11" s="199" t="str">
         <f>IF(B11="","",ROUND(SUM(S11,M11),0))</f>
-        <v>0</v>
-      </c>
-      <c r="U11" s="200">
+        <v/>
+      </c>
+      <c r="U11" s="200" t="str">
         <f>IF(B11="","",VLOOKUP(T11,'Notenschlüssel SAP'!$A$1:$B$61,2,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="V11" s="299"/>
-      <c r="W11" s="303"/>
-      <c r="X11" s="301"/>
-      <c r="Y11" s="305">
+        <v/>
+      </c>
+      <c r="V11" s="272"/>
+      <c r="W11" s="268"/>
+      <c r="X11" s="266"/>
+      <c r="Y11" s="263" t="str">
         <f>IF(B11="","",SUM(V11:X11))</f>
-        <v>0</v>
-      </c>
-      <c r="Z11" s="311" t="str">
+        <v/>
+      </c>
+      <c r="Z11" s="259" t="str">
         <f>IF(B11="","",IF(ISBLANK(V11),"",IF(AVERAGE(V11:X11)&lt;10,LEFT(AVERAGE(V11:X11),4),LEFT(AVERAGE(V11:X11),5))))</f>
         <v/>
       </c>
-      <c r="AA11" s="313" t="str">
+      <c r="AA11" s="261" t="str">
         <f>IF(B11="","",IF(Z11="","",IF(LEFT(Z11,1)="0",0,ROUND(Z11,0))))</f>
         <v/>
       </c>
-      <c r="AB11" s="148">
+      <c r="AB11" s="148" t="str">
         <f>IF(B11="","",ROUNDUP(AVERAGE(U11,U11,AA11),2))</f>
-        <v>0</v>
-      </c>
-      <c r="AC11" s="147">
+        <v/>
+      </c>
+      <c r="AC11" s="147" t="str">
         <f>IF(B11="","",IF(TRUNC(AB11,0)=0,0,ROUND(AB11,0)))</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="AE11" s="149"/>
     </row>
     <row r="12" spans="1:31" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="275"/>
-      <c r="B12" s="273"/>
-      <c r="C12" s="282"/>
-      <c r="D12" s="284"/>
-      <c r="E12" s="286"/>
+      <c r="A12" s="298"/>
+      <c r="B12" s="290"/>
+      <c r="C12" s="276"/>
+      <c r="D12" s="278"/>
+      <c r="E12" s="305"/>
       <c r="F12" s="117"/>
       <c r="G12" s="117"/>
       <c r="H12" s="117"/>
@@ -5786,60 +5779,60 @@
       <c r="J12" s="117"/>
       <c r="K12" s="117"/>
       <c r="L12" s="117"/>
-      <c r="M12" s="164">
+      <c r="M12" s="164" t="str">
         <f>IF(B11="","",SUM(F12:L12))</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="N12" s="117"/>
       <c r="O12" s="117"/>
       <c r="P12" s="117"/>
       <c r="Q12" s="117"/>
       <c r="R12" s="117"/>
-      <c r="S12" s="189">
+      <c r="S12" s="189" t="str">
         <f>IF(B11="","",SUM(N12:R12))</f>
-        <v>0</v>
-      </c>
-      <c r="T12" s="150">
+        <v/>
+      </c>
+      <c r="T12" s="150" t="str">
         <f>IF(B11="","",ROUND(SUM(S12,M12),0))</f>
-        <v>0</v>
-      </c>
-      <c r="U12" s="151">
+        <v/>
+      </c>
+      <c r="U12" s="151" t="str">
         <f>IF(B11="","",VLOOKUP(T12,'Notenschlüssel SAP'!$A$1:$B$61,2,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="V12" s="300"/>
-      <c r="W12" s="304"/>
-      <c r="X12" s="302"/>
-      <c r="Y12" s="306"/>
-      <c r="Z12" s="312"/>
-      <c r="AA12" s="314"/>
-      <c r="AB12" s="152">
+        <v/>
+      </c>
+      <c r="V12" s="274"/>
+      <c r="W12" s="271"/>
+      <c r="X12" s="270"/>
+      <c r="Y12" s="265"/>
+      <c r="Z12" s="260"/>
+      <c r="AA12" s="262"/>
+      <c r="AB12" s="152" t="str">
         <f>IF(B11="","",ROUNDUP(AVERAGE(U12,U12,AA11),2))</f>
-        <v>0</v>
-      </c>
-      <c r="AC12" s="151">
+        <v/>
+      </c>
+      <c r="AC12" s="151" t="str">
         <f>IF(B11="","",IF(TRUNC(AB12,0)=0,0,ROUND(AB12,0)))</f>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="13" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="278" t="str">
+      <c r="A13" s="292" t="str">
         <f>IF('Eingabe Jahresfortgang'!B9="","",MAX('Eingabe Abitur'!A11)+1)</f>
         <v/>
       </c>
-      <c r="B13" s="276" t="str">
+      <c r="B13" s="287" t="str">
         <f>IF('Eingabe Jahresfortgang'!B9="","",'Eingabe Jahresfortgang'!B9)</f>
         <v/>
       </c>
-      <c r="C13" s="287" t="str">
+      <c r="C13" s="279" t="str">
         <f>'Eingabe Jahresfortgang'!Q9</f>
         <v/>
       </c>
-      <c r="D13" s="293" t="str">
+      <c r="D13" s="281" t="str">
         <f>'Eingabe Jahresfortgang'!R9</f>
         <v/>
       </c>
-      <c r="E13" s="293" t="str">
+      <c r="E13" s="281" t="str">
         <f>'Eingabe Jahresfortgang'!S9</f>
         <v/>
       </c>
@@ -5871,18 +5864,18 @@
         <f>IF(B13="","",VLOOKUP(T13,'Notenschlüssel SAP'!$A$1:$B$61,2,FALSE))</f>
         <v/>
       </c>
-      <c r="V13" s="299"/>
-      <c r="W13" s="303"/>
-      <c r="X13" s="301"/>
-      <c r="Y13" s="305" t="str">
+      <c r="V13" s="272"/>
+      <c r="W13" s="268"/>
+      <c r="X13" s="266"/>
+      <c r="Y13" s="263" t="str">
         <f>IF(B13="","",SUM(V13:X13))</f>
         <v/>
       </c>
-      <c r="Z13" s="311" t="str">
+      <c r="Z13" s="259" t="str">
         <f>IF(B13="","",IF(ISBLANK(V13),"",IF(AVERAGE(V13:X13)&lt;10,LEFT(AVERAGE(V13:X13),4),LEFT(AVERAGE(V13:X13),5))))</f>
         <v/>
       </c>
-      <c r="AA13" s="313" t="str">
+      <c r="AA13" s="261" t="str">
         <f>IF(B13="","",IF(Z13="","",IF(LEFT(Z13,1)="0",0,ROUND(Z13,0))))</f>
         <v/>
       </c>
@@ -5897,11 +5890,11 @@
       <c r="AD13" s="153"/>
     </row>
     <row r="14" spans="1:31" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="279"/>
-      <c r="B14" s="277"/>
-      <c r="C14" s="288"/>
-      <c r="D14" s="294"/>
-      <c r="E14" s="294"/>
+      <c r="A14" s="293"/>
+      <c r="B14" s="288"/>
+      <c r="C14" s="283"/>
+      <c r="D14" s="284"/>
+      <c r="E14" s="284"/>
       <c r="F14" s="195"/>
       <c r="G14" s="117"/>
       <c r="H14" s="117"/>
@@ -5930,12 +5923,12 @@
         <f>IF(B13="","",VLOOKUP(T14,'Notenschlüssel SAP'!$A$1:$B$61,2,FALSE))</f>
         <v/>
       </c>
-      <c r="V14" s="300"/>
-      <c r="W14" s="304"/>
-      <c r="X14" s="302"/>
-      <c r="Y14" s="306"/>
-      <c r="Z14" s="312"/>
-      <c r="AA14" s="314"/>
+      <c r="V14" s="274"/>
+      <c r="W14" s="271"/>
+      <c r="X14" s="270"/>
+      <c r="Y14" s="265"/>
+      <c r="Z14" s="260"/>
+      <c r="AA14" s="262"/>
       <c r="AB14" s="152" t="str">
         <f>IF(B13="","",ROUNDUP(AVERAGE(U14,U14,AA13),2))</f>
         <v/>
@@ -5946,23 +5939,23 @@
       </c>
     </row>
     <row r="15" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="274" t="str">
+      <c r="A15" s="297" t="str">
         <f>IF('Eingabe Jahresfortgang'!B10="","",MAX('Eingabe Abitur'!$A$11:'Eingabe Abitur'!A13)+1)</f>
         <v/>
       </c>
-      <c r="B15" s="272" t="str">
+      <c r="B15" s="289" t="str">
         <f>IF('Eingabe Jahresfortgang'!B10="","",'Eingabe Jahresfortgang'!B10)</f>
         <v/>
       </c>
-      <c r="C15" s="281" t="str">
+      <c r="C15" s="275" t="str">
         <f>'Eingabe Jahresfortgang'!Q10</f>
         <v/>
       </c>
-      <c r="D15" s="283" t="str">
+      <c r="D15" s="277" t="str">
         <f>'Eingabe Jahresfortgang'!R10</f>
         <v/>
       </c>
-      <c r="E15" s="283" t="str">
+      <c r="E15" s="277" t="str">
         <f>'Eingabe Jahresfortgang'!S10</f>
         <v/>
       </c>
@@ -5994,18 +5987,18 @@
         <f>IF(B15="","",VLOOKUP(T15,'Notenschlüssel SAP'!$A$1:$B$61,2,FALSE))</f>
         <v/>
       </c>
-      <c r="V15" s="299"/>
-      <c r="W15" s="303"/>
-      <c r="X15" s="301"/>
-      <c r="Y15" s="305" t="str">
+      <c r="V15" s="272"/>
+      <c r="W15" s="268"/>
+      <c r="X15" s="266"/>
+      <c r="Y15" s="263" t="str">
         <f>IF(B15="","",SUM(V15:X15))</f>
         <v/>
       </c>
-      <c r="Z15" s="311" t="str">
+      <c r="Z15" s="259" t="str">
         <f>IF(B15="","",IF(ISBLANK(V15),"",IF(AVERAGE(V15:X15)&lt;10,LEFT(AVERAGE(V15:X15),4),LEFT(AVERAGE(V15:X15),5))))</f>
         <v/>
       </c>
-      <c r="AA15" s="313" t="str">
+      <c r="AA15" s="261" t="str">
         <f>IF(B15="","",IF(Z15="","",IF(LEFT(Z15,1)="0",0,ROUND(Z15,0))))</f>
         <v/>
       </c>
@@ -6019,11 +6012,11 @@
       </c>
     </row>
     <row r="16" spans="1:31" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="275"/>
-      <c r="B16" s="273"/>
-      <c r="C16" s="282"/>
-      <c r="D16" s="284"/>
-      <c r="E16" s="284"/>
+      <c r="A16" s="298"/>
+      <c r="B16" s="290"/>
+      <c r="C16" s="276"/>
+      <c r="D16" s="278"/>
+      <c r="E16" s="278"/>
       <c r="F16" s="195"/>
       <c r="G16" s="117"/>
       <c r="H16" s="117"/>
@@ -6052,12 +6045,12 @@
         <f>IF(B15="","",VLOOKUP(T16,'Notenschlüssel SAP'!$A$1:$B$61,2,FALSE))</f>
         <v/>
       </c>
-      <c r="V16" s="300"/>
-      <c r="W16" s="304"/>
-      <c r="X16" s="302"/>
-      <c r="Y16" s="306"/>
-      <c r="Z16" s="312"/>
-      <c r="AA16" s="314"/>
+      <c r="V16" s="274"/>
+      <c r="W16" s="271"/>
+      <c r="X16" s="270"/>
+      <c r="Y16" s="265"/>
+      <c r="Z16" s="260"/>
+      <c r="AA16" s="262"/>
       <c r="AB16" s="152" t="str">
         <f>IF(B15="","",ROUNDUP(AVERAGE(U16,U16,AA15),2))</f>
         <v/>
@@ -6068,23 +6061,23 @@
       </c>
     </row>
     <row r="17" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="278" t="str">
+      <c r="A17" s="292" t="str">
         <f>IF('Eingabe Jahresfortgang'!B11="","",MAX('Eingabe Abitur'!$A$11:'Eingabe Abitur'!A15)+1)</f>
         <v/>
       </c>
-      <c r="B17" s="276" t="str">
+      <c r="B17" s="287" t="str">
         <f>IF('Eingabe Jahresfortgang'!B11="","",'Eingabe Jahresfortgang'!B11)</f>
         <v/>
       </c>
-      <c r="C17" s="287" t="str">
+      <c r="C17" s="279" t="str">
         <f>'Eingabe Jahresfortgang'!Q11</f>
         <v/>
       </c>
-      <c r="D17" s="293" t="str">
+      <c r="D17" s="281" t="str">
         <f>'Eingabe Jahresfortgang'!R11</f>
         <v/>
       </c>
-      <c r="E17" s="293" t="str">
+      <c r="E17" s="281" t="str">
         <f>'Eingabe Jahresfortgang'!S11</f>
         <v/>
       </c>
@@ -6116,18 +6109,18 @@
         <f>IF(B17="","",VLOOKUP(T17,'Notenschlüssel SAP'!$A$1:$B$61,2,FALSE))</f>
         <v/>
       </c>
-      <c r="V17" s="299"/>
-      <c r="W17" s="303"/>
-      <c r="X17" s="301"/>
-      <c r="Y17" s="305" t="str">
+      <c r="V17" s="272"/>
+      <c r="W17" s="268"/>
+      <c r="X17" s="266"/>
+      <c r="Y17" s="263" t="str">
         <f>IF(B17="","",SUM(V17:X17))</f>
         <v/>
       </c>
-      <c r="Z17" s="311" t="str">
+      <c r="Z17" s="259" t="str">
         <f>IF(B17="","",IF(ISBLANK(V17),"",IF(AVERAGE(V17:X17)&lt;10,LEFT(AVERAGE(V17:X17),4),LEFT(AVERAGE(V17:X17),5))))</f>
         <v/>
       </c>
-      <c r="AA17" s="313" t="str">
+      <c r="AA17" s="261" t="str">
         <f>IF(B17="","",IF(Z17="","",IF(LEFT(Z17,1)="0",0,ROUND(Z17,0))))</f>
         <v/>
       </c>
@@ -6141,11 +6134,11 @@
       </c>
     </row>
     <row r="18" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="279"/>
-      <c r="B18" s="277"/>
-      <c r="C18" s="288"/>
-      <c r="D18" s="294"/>
-      <c r="E18" s="294"/>
+      <c r="A18" s="293"/>
+      <c r="B18" s="288"/>
+      <c r="C18" s="283"/>
+      <c r="D18" s="284"/>
+      <c r="E18" s="284"/>
       <c r="F18" s="195"/>
       <c r="G18" s="117"/>
       <c r="H18" s="117"/>
@@ -6174,12 +6167,12 @@
         <f>IF(B17="","",VLOOKUP(T18,'Notenschlüssel SAP'!$A$1:$B$61,2,FALSE))</f>
         <v/>
       </c>
-      <c r="V18" s="300"/>
-      <c r="W18" s="304"/>
-      <c r="X18" s="302"/>
-      <c r="Y18" s="306"/>
-      <c r="Z18" s="312"/>
-      <c r="AA18" s="314"/>
+      <c r="V18" s="274"/>
+      <c r="W18" s="271"/>
+      <c r="X18" s="270"/>
+      <c r="Y18" s="265"/>
+      <c r="Z18" s="260"/>
+      <c r="AA18" s="262"/>
       <c r="AB18" s="152" t="str">
         <f>IF(B17="","",ROUNDUP(AVERAGE(U18,U18,AA17),2))</f>
         <v/>
@@ -6190,23 +6183,23 @@
       </c>
     </row>
     <row r="19" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="289" t="str">
+      <c r="A19" s="294" t="str">
         <f>IF('Eingabe Jahresfortgang'!B12="","",MAX('Eingabe Abitur'!$A$11:'Eingabe Abitur'!A17)+1)</f>
         <v/>
       </c>
-      <c r="B19" s="272" t="str">
+      <c r="B19" s="289" t="str">
         <f>IF('Eingabe Jahresfortgang'!B12="","",'Eingabe Jahresfortgang'!B12)</f>
         <v/>
       </c>
-      <c r="C19" s="281" t="str">
+      <c r="C19" s="275" t="str">
         <f>'Eingabe Jahresfortgang'!Q12</f>
         <v/>
       </c>
-      <c r="D19" s="283" t="str">
+      <c r="D19" s="277" t="str">
         <f>'Eingabe Jahresfortgang'!R12</f>
         <v/>
       </c>
-      <c r="E19" s="283" t="str">
+      <c r="E19" s="277" t="str">
         <f>'Eingabe Jahresfortgang'!S12</f>
         <v/>
       </c>
@@ -6238,18 +6231,18 @@
         <f>IF(B19="","",VLOOKUP(T19,'Notenschlüssel SAP'!$A$1:$B$61,2,FALSE))</f>
         <v/>
       </c>
-      <c r="V19" s="299"/>
-      <c r="W19" s="303"/>
-      <c r="X19" s="301"/>
-      <c r="Y19" s="305" t="str">
+      <c r="V19" s="272"/>
+      <c r="W19" s="268"/>
+      <c r="X19" s="266"/>
+      <c r="Y19" s="263" t="str">
         <f>IF(B19="","",SUM(V19:X19))</f>
         <v/>
       </c>
-      <c r="Z19" s="311" t="str">
+      <c r="Z19" s="259" t="str">
         <f>IF(B19="","",IF(ISBLANK(V19),"",IF(AVERAGE(V19:X19)&lt;10,LEFT(AVERAGE(V19:X19),4),LEFT(AVERAGE(V19:X19),5))))</f>
         <v/>
       </c>
-      <c r="AA19" s="313" t="str">
+      <c r="AA19" s="261" t="str">
         <f>IF(B19="","",IF(Z19="","",IF(LEFT(Z19,1)="0",0,ROUND(Z19,0))))</f>
         <v/>
       </c>
@@ -6263,11 +6256,11 @@
       </c>
     </row>
     <row r="20" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="290"/>
-      <c r="B20" s="273"/>
-      <c r="C20" s="282"/>
-      <c r="D20" s="284"/>
-      <c r="E20" s="284"/>
+      <c r="A20" s="295"/>
+      <c r="B20" s="290"/>
+      <c r="C20" s="276"/>
+      <c r="D20" s="278"/>
+      <c r="E20" s="278"/>
       <c r="F20" s="195"/>
       <c r="G20" s="117"/>
       <c r="H20" s="117"/>
@@ -6296,12 +6289,12 @@
         <f>IF(B19="","",VLOOKUP(T20,'Notenschlüssel SAP'!$A$1:$B$61,2,FALSE))</f>
         <v/>
       </c>
-      <c r="V20" s="300"/>
-      <c r="W20" s="304"/>
-      <c r="X20" s="302"/>
-      <c r="Y20" s="306"/>
-      <c r="Z20" s="312"/>
-      <c r="AA20" s="314"/>
+      <c r="V20" s="274"/>
+      <c r="W20" s="271"/>
+      <c r="X20" s="270"/>
+      <c r="Y20" s="265"/>
+      <c r="Z20" s="260"/>
+      <c r="AA20" s="262"/>
       <c r="AB20" s="152" t="str">
         <f>IF(B19="","",ROUNDUP(AVERAGE(U20,U20,AA19),2))</f>
         <v/>
@@ -6312,23 +6305,23 @@
       </c>
     </row>
     <row r="21" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="278" t="str">
+      <c r="A21" s="292" t="str">
         <f>IF('Eingabe Jahresfortgang'!B13="","",MAX('Eingabe Abitur'!$A$11:'Eingabe Abitur'!A19)+1)</f>
         <v/>
       </c>
-      <c r="B21" s="276" t="str">
+      <c r="B21" s="287" t="str">
         <f>IF('Eingabe Jahresfortgang'!B13="","",'Eingabe Jahresfortgang'!B13)</f>
         <v/>
       </c>
-      <c r="C21" s="287" t="str">
+      <c r="C21" s="279" t="str">
         <f>'Eingabe Jahresfortgang'!Q13</f>
         <v/>
       </c>
-      <c r="D21" s="293" t="str">
+      <c r="D21" s="281" t="str">
         <f>'Eingabe Jahresfortgang'!R13</f>
         <v/>
       </c>
-      <c r="E21" s="293" t="str">
+      <c r="E21" s="281" t="str">
         <f>'Eingabe Jahresfortgang'!S13</f>
         <v/>
       </c>
@@ -6360,18 +6353,18 @@
         <f>IF(B21="","",VLOOKUP(T21,'Notenschlüssel SAP'!$A$1:$B$61,2,FALSE))</f>
         <v/>
       </c>
-      <c r="V21" s="299"/>
-      <c r="W21" s="303"/>
-      <c r="X21" s="301"/>
-      <c r="Y21" s="305" t="str">
+      <c r="V21" s="272"/>
+      <c r="W21" s="268"/>
+      <c r="X21" s="266"/>
+      <c r="Y21" s="263" t="str">
         <f>IF(B21="","",SUM(V21:X21))</f>
         <v/>
       </c>
-      <c r="Z21" s="311" t="str">
+      <c r="Z21" s="259" t="str">
         <f>IF(B21="","",IF(ISBLANK(V21),"",IF(AVERAGE(V21:X21)&lt;10,LEFT(AVERAGE(V21:X21),4),LEFT(AVERAGE(V21:X21),5))))</f>
         <v/>
       </c>
-      <c r="AA21" s="313" t="str">
+      <c r="AA21" s="261" t="str">
         <f>IF(B21="","",IF(Z21="","",IF(LEFT(Z21,1)="0",0,ROUND(Z21,0))))</f>
         <v/>
       </c>
@@ -6385,11 +6378,11 @@
       </c>
     </row>
     <row r="22" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="279"/>
-      <c r="B22" s="277"/>
-      <c r="C22" s="288"/>
-      <c r="D22" s="294"/>
-      <c r="E22" s="294"/>
+      <c r="A22" s="293"/>
+      <c r="B22" s="288"/>
+      <c r="C22" s="283"/>
+      <c r="D22" s="284"/>
+      <c r="E22" s="284"/>
       <c r="F22" s="195"/>
       <c r="G22" s="117"/>
       <c r="H22" s="117"/>
@@ -6418,12 +6411,12 @@
         <f>IF(B21="","",VLOOKUP(T22,'Notenschlüssel SAP'!$A$1:$B$61,2,FALSE))</f>
         <v/>
       </c>
-      <c r="V22" s="300"/>
-      <c r="W22" s="304"/>
-      <c r="X22" s="302"/>
-      <c r="Y22" s="306"/>
-      <c r="Z22" s="312"/>
-      <c r="AA22" s="314"/>
+      <c r="V22" s="274"/>
+      <c r="W22" s="271"/>
+      <c r="X22" s="270"/>
+      <c r="Y22" s="265"/>
+      <c r="Z22" s="260"/>
+      <c r="AA22" s="262"/>
       <c r="AB22" s="152" t="str">
         <f>IF(B21="","",ROUNDUP(AVERAGE(U22,U22,AA21),2))</f>
         <v/>
@@ -6434,23 +6427,23 @@
       </c>
     </row>
     <row r="23" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="289" t="str">
+      <c r="A23" s="294" t="str">
         <f>IF('Eingabe Jahresfortgang'!B14="","",MAX('Eingabe Abitur'!$A$11:'Eingabe Abitur'!A21)+1)</f>
         <v/>
       </c>
-      <c r="B23" s="272" t="str">
+      <c r="B23" s="289" t="str">
         <f>IF('Eingabe Jahresfortgang'!B14="","",'Eingabe Jahresfortgang'!B14)</f>
         <v/>
       </c>
-      <c r="C23" s="281" t="str">
+      <c r="C23" s="275" t="str">
         <f>'Eingabe Jahresfortgang'!Q14</f>
         <v/>
       </c>
-      <c r="D23" s="283" t="str">
+      <c r="D23" s="277" t="str">
         <f>'Eingabe Jahresfortgang'!R14</f>
         <v/>
       </c>
-      <c r="E23" s="283" t="str">
+      <c r="E23" s="277" t="str">
         <f>'Eingabe Jahresfortgang'!S14</f>
         <v/>
       </c>
@@ -6482,18 +6475,18 @@
         <f>IF(B23="","",VLOOKUP(T23,'Notenschlüssel SAP'!$A$1:$B$61,2,FALSE))</f>
         <v/>
       </c>
-      <c r="V23" s="299"/>
-      <c r="W23" s="303"/>
-      <c r="X23" s="301"/>
-      <c r="Y23" s="305" t="str">
+      <c r="V23" s="272"/>
+      <c r="W23" s="268"/>
+      <c r="X23" s="266"/>
+      <c r="Y23" s="263" t="str">
         <f>IF(B23="","",SUM(V23:X23))</f>
         <v/>
       </c>
-      <c r="Z23" s="311" t="str">
+      <c r="Z23" s="259" t="str">
         <f>IF(B23="","",IF(ISBLANK(V23),"",IF(AVERAGE(V23:X23)&lt;10,LEFT(AVERAGE(V23:X23),4),LEFT(AVERAGE(V23:X23),5))))</f>
         <v/>
       </c>
-      <c r="AA23" s="313" t="str">
+      <c r="AA23" s="261" t="str">
         <f>IF(B23="","",IF(Z23="","",IF(LEFT(Z23,1)="0",0,ROUND(Z23,0))))</f>
         <v/>
       </c>
@@ -6507,11 +6500,11 @@
       </c>
     </row>
     <row r="24" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="290"/>
-      <c r="B24" s="273"/>
-      <c r="C24" s="282"/>
-      <c r="D24" s="284"/>
-      <c r="E24" s="284"/>
+      <c r="A24" s="295"/>
+      <c r="B24" s="290"/>
+      <c r="C24" s="276"/>
+      <c r="D24" s="278"/>
+      <c r="E24" s="278"/>
       <c r="F24" s="195"/>
       <c r="G24" s="117"/>
       <c r="H24" s="117"/>
@@ -6540,12 +6533,12 @@
         <f>IF(B23="","",VLOOKUP(T24,'Notenschlüssel SAP'!$A$1:$B$61,2,FALSE))</f>
         <v/>
       </c>
-      <c r="V24" s="300"/>
-      <c r="W24" s="304"/>
-      <c r="X24" s="302"/>
-      <c r="Y24" s="306"/>
-      <c r="Z24" s="312"/>
-      <c r="AA24" s="314"/>
+      <c r="V24" s="274"/>
+      <c r="W24" s="271"/>
+      <c r="X24" s="270"/>
+      <c r="Y24" s="265"/>
+      <c r="Z24" s="260"/>
+      <c r="AA24" s="262"/>
       <c r="AB24" s="152" t="str">
         <f>IF(B23="","",ROUNDUP(AVERAGE(U24,U24,AA23),2))</f>
         <v/>
@@ -6556,23 +6549,23 @@
       </c>
     </row>
     <row r="25" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="278" t="str">
+      <c r="A25" s="292" t="str">
         <f>IF('Eingabe Jahresfortgang'!B15="","",MAX('Eingabe Abitur'!$A$11:'Eingabe Abitur'!A23)+1)</f>
         <v/>
       </c>
-      <c r="B25" s="276" t="str">
+      <c r="B25" s="287" t="str">
         <f>IF('Eingabe Jahresfortgang'!B15="","",'Eingabe Jahresfortgang'!B15)</f>
         <v/>
       </c>
-      <c r="C25" s="287" t="str">
+      <c r="C25" s="279" t="str">
         <f>'Eingabe Jahresfortgang'!Q15</f>
         <v/>
       </c>
-      <c r="D25" s="293" t="str">
+      <c r="D25" s="281" t="str">
         <f>'Eingabe Jahresfortgang'!R15</f>
         <v/>
       </c>
-      <c r="E25" s="293" t="str">
+      <c r="E25" s="281" t="str">
         <f>'Eingabe Jahresfortgang'!S15</f>
         <v/>
       </c>
@@ -6604,18 +6597,18 @@
         <f>IF(B25="","",VLOOKUP(T25,'Notenschlüssel SAP'!$A$1:$B$61,2,FALSE))</f>
         <v/>
       </c>
-      <c r="V25" s="299"/>
-      <c r="W25" s="303"/>
-      <c r="X25" s="301"/>
-      <c r="Y25" s="305" t="str">
+      <c r="V25" s="272"/>
+      <c r="W25" s="268"/>
+      <c r="X25" s="266"/>
+      <c r="Y25" s="263" t="str">
         <f>IF(B25="","",SUM(V25:X25))</f>
         <v/>
       </c>
-      <c r="Z25" s="311" t="str">
+      <c r="Z25" s="259" t="str">
         <f>IF(B25="","",IF(ISBLANK(V25),"",IF(AVERAGE(V25:X25)&lt;10,LEFT(AVERAGE(V25:X25),4),LEFT(AVERAGE(V25:X25),5))))</f>
         <v/>
       </c>
-      <c r="AA25" s="313" t="str">
+      <c r="AA25" s="261" t="str">
         <f>IF(B25="","",IF(Z25="","",IF(LEFT(Z25,1)="0",0,ROUND(Z25,0))))</f>
         <v/>
       </c>
@@ -6629,11 +6622,11 @@
       </c>
     </row>
     <row r="26" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="279"/>
-      <c r="B26" s="277"/>
-      <c r="C26" s="288"/>
-      <c r="D26" s="294"/>
-      <c r="E26" s="294"/>
+      <c r="A26" s="293"/>
+      <c r="B26" s="288"/>
+      <c r="C26" s="283"/>
+      <c r="D26" s="284"/>
+      <c r="E26" s="284"/>
       <c r="F26" s="195"/>
       <c r="G26" s="117"/>
       <c r="H26" s="117"/>
@@ -6662,12 +6655,12 @@
         <f>IF(B25="","",VLOOKUP(T26,'Notenschlüssel SAP'!$A$1:$B$61,2,FALSE))</f>
         <v/>
       </c>
-      <c r="V26" s="300"/>
-      <c r="W26" s="304"/>
-      <c r="X26" s="302"/>
-      <c r="Y26" s="306"/>
-      <c r="Z26" s="312"/>
-      <c r="AA26" s="314"/>
+      <c r="V26" s="274"/>
+      <c r="W26" s="271"/>
+      <c r="X26" s="270"/>
+      <c r="Y26" s="265"/>
+      <c r="Z26" s="260"/>
+      <c r="AA26" s="262"/>
       <c r="AB26" s="152" t="str">
         <f>IF(B25="","",ROUNDUP(AVERAGE(U26,U26,AA25),2))</f>
         <v/>
@@ -6678,23 +6671,23 @@
       </c>
     </row>
     <row r="27" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="289" t="str">
+      <c r="A27" s="294" t="str">
         <f>IF('Eingabe Jahresfortgang'!B16="","",MAX('Eingabe Abitur'!$A$11:'Eingabe Abitur'!A25)+1)</f>
         <v/>
       </c>
-      <c r="B27" s="272" t="str">
+      <c r="B27" s="289" t="str">
         <f>IF('Eingabe Jahresfortgang'!B16="","",'Eingabe Jahresfortgang'!B16)</f>
         <v/>
       </c>
-      <c r="C27" s="281" t="str">
+      <c r="C27" s="275" t="str">
         <f>'Eingabe Jahresfortgang'!Q16</f>
         <v/>
       </c>
-      <c r="D27" s="283" t="str">
+      <c r="D27" s="277" t="str">
         <f>'Eingabe Jahresfortgang'!R16</f>
         <v/>
       </c>
-      <c r="E27" s="283" t="str">
+      <c r="E27" s="277" t="str">
         <f>'Eingabe Jahresfortgang'!S16</f>
         <v/>
       </c>
@@ -6726,18 +6719,18 @@
         <f>IF(B27="","",VLOOKUP(T27,'Notenschlüssel SAP'!$A$1:$B$61,2,FALSE))</f>
         <v/>
       </c>
-      <c r="V27" s="299"/>
-      <c r="W27" s="303"/>
-      <c r="X27" s="301"/>
-      <c r="Y27" s="305" t="str">
+      <c r="V27" s="272"/>
+      <c r="W27" s="268"/>
+      <c r="X27" s="266"/>
+      <c r="Y27" s="263" t="str">
         <f>IF(B27="","",SUM(V27:X27))</f>
         <v/>
       </c>
-      <c r="Z27" s="311" t="str">
+      <c r="Z27" s="259" t="str">
         <f>IF(B27="","",IF(ISBLANK(V27),"",IF(AVERAGE(V27:X27)&lt;10,LEFT(AVERAGE(V27:X27),4),LEFT(AVERAGE(V27:X27),5))))</f>
         <v/>
       </c>
-      <c r="AA27" s="313" t="str">
+      <c r="AA27" s="261" t="str">
         <f>IF(B27="","",IF(Z27="","",IF(LEFT(Z27,1)="0",0,ROUND(Z27,0))))</f>
         <v/>
       </c>
@@ -6751,11 +6744,11 @@
       </c>
     </row>
     <row r="28" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="290"/>
-      <c r="B28" s="273"/>
-      <c r="C28" s="282"/>
-      <c r="D28" s="284"/>
-      <c r="E28" s="284"/>
+      <c r="A28" s="295"/>
+      <c r="B28" s="290"/>
+      <c r="C28" s="276"/>
+      <c r="D28" s="278"/>
+      <c r="E28" s="278"/>
       <c r="F28" s="195"/>
       <c r="G28" s="117"/>
       <c r="H28" s="117"/>
@@ -6784,12 +6777,12 @@
         <f>IF(B27="","",VLOOKUP(T28,'Notenschlüssel SAP'!$A$1:$B$61,2,FALSE))</f>
         <v/>
       </c>
-      <c r="V28" s="300"/>
-      <c r="W28" s="304"/>
-      <c r="X28" s="302"/>
-      <c r="Y28" s="306"/>
-      <c r="Z28" s="312"/>
-      <c r="AA28" s="314"/>
+      <c r="V28" s="274"/>
+      <c r="W28" s="271"/>
+      <c r="X28" s="270"/>
+      <c r="Y28" s="265"/>
+      <c r="Z28" s="260"/>
+      <c r="AA28" s="262"/>
       <c r="AB28" s="152" t="str">
         <f>IF(B27="","",ROUNDUP(AVERAGE(U28,U28,AA27),2))</f>
         <v/>
@@ -6800,23 +6793,23 @@
       </c>
     </row>
     <row r="29" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="278" t="str">
+      <c r="A29" s="292" t="str">
         <f>IF('Eingabe Jahresfortgang'!B17="","",MAX('Eingabe Abitur'!$A$11:'Eingabe Abitur'!A27)+1)</f>
         <v/>
       </c>
-      <c r="B29" s="276" t="str">
+      <c r="B29" s="287" t="str">
         <f>IF('Eingabe Jahresfortgang'!B17="","",'Eingabe Jahresfortgang'!B17)</f>
         <v/>
       </c>
-      <c r="C29" s="287" t="str">
+      <c r="C29" s="279" t="str">
         <f>'Eingabe Jahresfortgang'!Q17</f>
         <v/>
       </c>
-      <c r="D29" s="293" t="str">
+      <c r="D29" s="281" t="str">
         <f>'Eingabe Jahresfortgang'!R17</f>
         <v/>
       </c>
-      <c r="E29" s="293" t="str">
+      <c r="E29" s="281" t="str">
         <f>'Eingabe Jahresfortgang'!S17</f>
         <v/>
       </c>
@@ -6848,18 +6841,18 @@
         <f>IF(B29="","",VLOOKUP(T29,'Notenschlüssel SAP'!$A$1:$B$61,2,FALSE))</f>
         <v/>
       </c>
-      <c r="V29" s="299"/>
-      <c r="W29" s="303"/>
-      <c r="X29" s="301"/>
-      <c r="Y29" s="305" t="str">
+      <c r="V29" s="272"/>
+      <c r="W29" s="268"/>
+      <c r="X29" s="266"/>
+      <c r="Y29" s="263" t="str">
         <f>IF(B29="","",SUM(V29:X29))</f>
         <v/>
       </c>
-      <c r="Z29" s="311" t="str">
+      <c r="Z29" s="259" t="str">
         <f>IF(B29="","",IF(ISBLANK(V29),"",IF(AVERAGE(V29:X29)&lt;10,LEFT(AVERAGE(V29:X29),4),LEFT(AVERAGE(V29:X29),5))))</f>
         <v/>
       </c>
-      <c r="AA29" s="313" t="str">
+      <c r="AA29" s="261" t="str">
         <f>IF(B29="","",IF(Z29="","",IF(LEFT(Z29,1)="0",0,ROUND(Z29,0))))</f>
         <v/>
       </c>
@@ -6873,11 +6866,11 @@
       </c>
     </row>
     <row r="30" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="279"/>
-      <c r="B30" s="277"/>
-      <c r="C30" s="288"/>
-      <c r="D30" s="294"/>
-      <c r="E30" s="294"/>
+      <c r="A30" s="293"/>
+      <c r="B30" s="288"/>
+      <c r="C30" s="283"/>
+      <c r="D30" s="284"/>
+      <c r="E30" s="284"/>
       <c r="F30" s="195"/>
       <c r="G30" s="117"/>
       <c r="H30" s="117"/>
@@ -6906,12 +6899,12 @@
         <f>IF(B29="","",VLOOKUP(T30,'Notenschlüssel SAP'!$A$1:$B$61,2,FALSE))</f>
         <v/>
       </c>
-      <c r="V30" s="300"/>
-      <c r="W30" s="304"/>
-      <c r="X30" s="302"/>
-      <c r="Y30" s="306"/>
-      <c r="Z30" s="312"/>
-      <c r="AA30" s="314"/>
+      <c r="V30" s="274"/>
+      <c r="W30" s="271"/>
+      <c r="X30" s="270"/>
+      <c r="Y30" s="265"/>
+      <c r="Z30" s="260"/>
+      <c r="AA30" s="262"/>
       <c r="AB30" s="152" t="str">
         <f>IF(B29="","",ROUNDUP(AVERAGE(U30,U30,AA29),2))</f>
         <v/>
@@ -6922,23 +6915,23 @@
       </c>
     </row>
     <row r="31" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="289" t="str">
+      <c r="A31" s="294" t="str">
         <f>IF('Eingabe Jahresfortgang'!B18="","",MAX('Eingabe Abitur'!$A$11:'Eingabe Abitur'!A29)+1)</f>
         <v/>
       </c>
-      <c r="B31" s="272" t="str">
+      <c r="B31" s="289" t="str">
         <f>IF('Eingabe Jahresfortgang'!B18="","",'Eingabe Jahresfortgang'!B18)</f>
         <v/>
       </c>
-      <c r="C31" s="281" t="str">
+      <c r="C31" s="275" t="str">
         <f>'Eingabe Jahresfortgang'!Q18</f>
         <v/>
       </c>
-      <c r="D31" s="283" t="str">
+      <c r="D31" s="277" t="str">
         <f>'Eingabe Jahresfortgang'!R18</f>
         <v/>
       </c>
-      <c r="E31" s="283" t="str">
+      <c r="E31" s="277" t="str">
         <f>'Eingabe Jahresfortgang'!S18</f>
         <v/>
       </c>
@@ -6970,18 +6963,18 @@
         <f>IF(B31="","",VLOOKUP(T31,'Notenschlüssel SAP'!$A$1:$B$61,2,FALSE))</f>
         <v/>
       </c>
-      <c r="V31" s="299"/>
-      <c r="W31" s="303"/>
-      <c r="X31" s="301"/>
-      <c r="Y31" s="305" t="str">
+      <c r="V31" s="272"/>
+      <c r="W31" s="268"/>
+      <c r="X31" s="266"/>
+      <c r="Y31" s="263" t="str">
         <f>IF(B31="","",SUM(V31:X31))</f>
         <v/>
       </c>
-      <c r="Z31" s="311" t="str">
+      <c r="Z31" s="259" t="str">
         <f>IF(B31="","",IF(ISBLANK(V31),"",IF(AVERAGE(V31:X31)&lt;10,LEFT(AVERAGE(V31:X31),4),LEFT(AVERAGE(V31:X31),5))))</f>
         <v/>
       </c>
-      <c r="AA31" s="313" t="str">
+      <c r="AA31" s="261" t="str">
         <f>IF(B31="","",IF(Z31="","",IF(LEFT(Z31,1)="0",0,ROUND(Z31,0))))</f>
         <v/>
       </c>
@@ -6995,11 +6988,11 @@
       </c>
     </row>
     <row r="32" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="290"/>
-      <c r="B32" s="273"/>
-      <c r="C32" s="282"/>
-      <c r="D32" s="284"/>
-      <c r="E32" s="284"/>
+      <c r="A32" s="295"/>
+      <c r="B32" s="290"/>
+      <c r="C32" s="276"/>
+      <c r="D32" s="278"/>
+      <c r="E32" s="278"/>
       <c r="F32" s="195"/>
       <c r="G32" s="117"/>
       <c r="H32" s="117"/>
@@ -7028,12 +7021,12 @@
         <f>IF(B31="","",VLOOKUP(T32,'Notenschlüssel SAP'!$A$1:$B$61,2,FALSE))</f>
         <v/>
       </c>
-      <c r="V32" s="300"/>
-      <c r="W32" s="304"/>
-      <c r="X32" s="302"/>
-      <c r="Y32" s="306"/>
-      <c r="Z32" s="312"/>
-      <c r="AA32" s="314"/>
+      <c r="V32" s="274"/>
+      <c r="W32" s="271"/>
+      <c r="X32" s="270"/>
+      <c r="Y32" s="265"/>
+      <c r="Z32" s="260"/>
+      <c r="AA32" s="262"/>
       <c r="AB32" s="152" t="str">
         <f>IF(B31="","",ROUNDUP(AVERAGE(U32,U32,AA31),2))</f>
         <v/>
@@ -7044,23 +7037,23 @@
       </c>
     </row>
     <row r="33" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="278" t="str">
+      <c r="A33" s="292" t="str">
         <f>IF('Eingabe Jahresfortgang'!B19="","",MAX('Eingabe Abitur'!$A$11:'Eingabe Abitur'!A31)+1)</f>
         <v/>
       </c>
-      <c r="B33" s="276" t="str">
+      <c r="B33" s="287" t="str">
         <f>IF('Eingabe Jahresfortgang'!B19="","",'Eingabe Jahresfortgang'!B19)</f>
         <v/>
       </c>
-      <c r="C33" s="287" t="str">
+      <c r="C33" s="279" t="str">
         <f>'Eingabe Jahresfortgang'!Q19</f>
         <v/>
       </c>
-      <c r="D33" s="293" t="str">
+      <c r="D33" s="281" t="str">
         <f>'Eingabe Jahresfortgang'!R19</f>
         <v/>
       </c>
-      <c r="E33" s="293" t="str">
+      <c r="E33" s="281" t="str">
         <f>'Eingabe Jahresfortgang'!S19</f>
         <v/>
       </c>
@@ -7092,18 +7085,18 @@
         <f>IF(B33="","",VLOOKUP(T33,'Notenschlüssel SAP'!$A$1:$B$61,2,FALSE))</f>
         <v/>
       </c>
-      <c r="V33" s="299"/>
-      <c r="W33" s="303"/>
-      <c r="X33" s="301"/>
-      <c r="Y33" s="305" t="str">
+      <c r="V33" s="272"/>
+      <c r="W33" s="268"/>
+      <c r="X33" s="266"/>
+      <c r="Y33" s="263" t="str">
         <f>IF(B33="","",SUM(V33:X33))</f>
         <v/>
       </c>
-      <c r="Z33" s="311" t="str">
+      <c r="Z33" s="259" t="str">
         <f>IF(B33="","",IF(ISBLANK(V33),"",IF(AVERAGE(V33:X33)&lt;10,LEFT(AVERAGE(V33:X33),4),LEFT(AVERAGE(V33:X33),5))))</f>
         <v/>
       </c>
-      <c r="AA33" s="313" t="str">
+      <c r="AA33" s="261" t="str">
         <f>IF(B33="","",IF(Z33="","",IF(LEFT(Z33,1)="0",0,ROUND(Z33,0))))</f>
         <v/>
       </c>
@@ -7117,11 +7110,11 @@
       </c>
     </row>
     <row r="34" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="279"/>
-      <c r="B34" s="277"/>
-      <c r="C34" s="288"/>
-      <c r="D34" s="294"/>
-      <c r="E34" s="294"/>
+      <c r="A34" s="293"/>
+      <c r="B34" s="288"/>
+      <c r="C34" s="283"/>
+      <c r="D34" s="284"/>
+      <c r="E34" s="284"/>
       <c r="F34" s="195"/>
       <c r="G34" s="117"/>
       <c r="H34" s="117"/>
@@ -7150,12 +7143,12 @@
         <f>IF(B33="","",VLOOKUP(T34,'Notenschlüssel SAP'!$A$1:$B$61,2,FALSE))</f>
         <v/>
       </c>
-      <c r="V34" s="300"/>
-      <c r="W34" s="304"/>
-      <c r="X34" s="302"/>
-      <c r="Y34" s="306"/>
-      <c r="Z34" s="312"/>
-      <c r="AA34" s="314"/>
+      <c r="V34" s="274"/>
+      <c r="W34" s="271"/>
+      <c r="X34" s="270"/>
+      <c r="Y34" s="265"/>
+      <c r="Z34" s="260"/>
+      <c r="AA34" s="262"/>
       <c r="AB34" s="152" t="str">
         <f>IF(B33="","",ROUNDUP(AVERAGE(U34,U34,AA33),2))</f>
         <v/>
@@ -7166,23 +7159,23 @@
       </c>
     </row>
     <row r="35" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="289" t="str">
+      <c r="A35" s="294" t="str">
         <f>IF('Eingabe Jahresfortgang'!B20="","",MAX('Eingabe Abitur'!$A$11:'Eingabe Abitur'!A33)+1)</f>
         <v/>
       </c>
-      <c r="B35" s="272" t="str">
+      <c r="B35" s="289" t="str">
         <f>IF('Eingabe Jahresfortgang'!B20="","",'Eingabe Jahresfortgang'!B20)</f>
         <v/>
       </c>
-      <c r="C35" s="281" t="str">
+      <c r="C35" s="275" t="str">
         <f>'Eingabe Jahresfortgang'!Q20</f>
         <v/>
       </c>
-      <c r="D35" s="283" t="str">
+      <c r="D35" s="277" t="str">
         <f>'Eingabe Jahresfortgang'!R20</f>
         <v/>
       </c>
-      <c r="E35" s="283" t="str">
+      <c r="E35" s="277" t="str">
         <f>'Eingabe Jahresfortgang'!S20</f>
         <v/>
       </c>
@@ -7214,18 +7207,18 @@
         <f>IF(B35="","",VLOOKUP(T35,'Notenschlüssel SAP'!$A$1:$B$61,2,FALSE))</f>
         <v/>
       </c>
-      <c r="V35" s="299"/>
-      <c r="W35" s="303"/>
-      <c r="X35" s="301"/>
-      <c r="Y35" s="305" t="str">
+      <c r="V35" s="272"/>
+      <c r="W35" s="268"/>
+      <c r="X35" s="266"/>
+      <c r="Y35" s="263" t="str">
         <f>IF(B35="","",SUM(V35:X35))</f>
         <v/>
       </c>
-      <c r="Z35" s="311" t="str">
+      <c r="Z35" s="259" t="str">
         <f>IF(B35="","",IF(ISBLANK(V35),"",IF(AVERAGE(V35:X35)&lt;10,LEFT(AVERAGE(V35:X35),4),LEFT(AVERAGE(V35:X35),5))))</f>
         <v/>
       </c>
-      <c r="AA35" s="313" t="str">
+      <c r="AA35" s="261" t="str">
         <f>IF(B35="","",IF(Z35="","",IF(LEFT(Z35,1)="0",0,ROUND(Z35,0))))</f>
         <v/>
       </c>
@@ -7239,11 +7232,11 @@
       </c>
     </row>
     <row r="36" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="290"/>
-      <c r="B36" s="273"/>
-      <c r="C36" s="282"/>
-      <c r="D36" s="284"/>
-      <c r="E36" s="284"/>
+      <c r="A36" s="295"/>
+      <c r="B36" s="290"/>
+      <c r="C36" s="276"/>
+      <c r="D36" s="278"/>
+      <c r="E36" s="278"/>
       <c r="F36" s="195"/>
       <c r="G36" s="117"/>
       <c r="H36" s="117"/>
@@ -7272,12 +7265,12 @@
         <f>IF(B35="","",VLOOKUP(T36,'Notenschlüssel SAP'!$A$1:$B$61,2,FALSE))</f>
         <v/>
       </c>
-      <c r="V36" s="300"/>
-      <c r="W36" s="304"/>
-      <c r="X36" s="302"/>
-      <c r="Y36" s="306"/>
-      <c r="Z36" s="312"/>
-      <c r="AA36" s="314"/>
+      <c r="V36" s="274"/>
+      <c r="W36" s="271"/>
+      <c r="X36" s="270"/>
+      <c r="Y36" s="265"/>
+      <c r="Z36" s="260"/>
+      <c r="AA36" s="262"/>
       <c r="AB36" s="152" t="str">
         <f>IF(B35="","",ROUNDUP(AVERAGE(U36,U36,AA35),2))</f>
         <v/>
@@ -7288,23 +7281,23 @@
       </c>
     </row>
     <row r="37" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="278" t="str">
+      <c r="A37" s="292" t="str">
         <f>IF('Eingabe Jahresfortgang'!B21="","",MAX('Eingabe Abitur'!$A$11:'Eingabe Abitur'!A35)+1)</f>
         <v/>
       </c>
-      <c r="B37" s="276" t="str">
+      <c r="B37" s="287" t="str">
         <f>IF('Eingabe Jahresfortgang'!B21="","",'Eingabe Jahresfortgang'!B21)</f>
         <v/>
       </c>
-      <c r="C37" s="287" t="str">
+      <c r="C37" s="279" t="str">
         <f>'Eingabe Jahresfortgang'!Q21</f>
         <v/>
       </c>
-      <c r="D37" s="293" t="str">
+      <c r="D37" s="281" t="str">
         <f>'Eingabe Jahresfortgang'!R21</f>
         <v/>
       </c>
-      <c r="E37" s="293" t="str">
+      <c r="E37" s="281" t="str">
         <f>'Eingabe Jahresfortgang'!S21</f>
         <v/>
       </c>
@@ -7336,18 +7329,18 @@
         <f>IF(B37="","",VLOOKUP(T37,'Notenschlüssel SAP'!$A$1:$B$61,2,FALSE))</f>
         <v/>
       </c>
-      <c r="V37" s="299"/>
-      <c r="W37" s="303"/>
-      <c r="X37" s="301"/>
-      <c r="Y37" s="305" t="str">
+      <c r="V37" s="272"/>
+      <c r="W37" s="268"/>
+      <c r="X37" s="266"/>
+      <c r="Y37" s="263" t="str">
         <f>IF(B37="","",SUM(V37:X37))</f>
         <v/>
       </c>
-      <c r="Z37" s="311" t="str">
+      <c r="Z37" s="259" t="str">
         <f>IF(B37="","",IF(ISBLANK(V37),"",IF(AVERAGE(V37:X37)&lt;10,LEFT(AVERAGE(V37:X37),4),LEFT(AVERAGE(V37:X37),5))))</f>
         <v/>
       </c>
-      <c r="AA37" s="313" t="str">
+      <c r="AA37" s="261" t="str">
         <f>IF(B37="","",IF(Z37="","",IF(LEFT(Z37,1)="0",0,ROUND(Z37,0))))</f>
         <v/>
       </c>
@@ -7361,11 +7354,11 @@
       </c>
     </row>
     <row r="38" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="279"/>
-      <c r="B38" s="277"/>
-      <c r="C38" s="288"/>
-      <c r="D38" s="294"/>
-      <c r="E38" s="294"/>
+      <c r="A38" s="293"/>
+      <c r="B38" s="288"/>
+      <c r="C38" s="283"/>
+      <c r="D38" s="284"/>
+      <c r="E38" s="284"/>
       <c r="F38" s="195"/>
       <c r="G38" s="117"/>
       <c r="H38" s="117"/>
@@ -7394,12 +7387,12 @@
         <f>IF(B37="","",VLOOKUP(T38,'Notenschlüssel SAP'!$A$1:$B$61,2,FALSE))</f>
         <v/>
       </c>
-      <c r="V38" s="300"/>
-      <c r="W38" s="304"/>
-      <c r="X38" s="302"/>
-      <c r="Y38" s="306"/>
-      <c r="Z38" s="312"/>
-      <c r="AA38" s="314"/>
+      <c r="V38" s="274"/>
+      <c r="W38" s="271"/>
+      <c r="X38" s="270"/>
+      <c r="Y38" s="265"/>
+      <c r="Z38" s="260"/>
+      <c r="AA38" s="262"/>
       <c r="AB38" s="152" t="str">
         <f>IF(B37="","",ROUNDUP(AVERAGE(U38,U38,AA37),2))</f>
         <v/>
@@ -7410,23 +7403,23 @@
       </c>
     </row>
     <row r="39" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="289" t="str">
+      <c r="A39" s="294" t="str">
         <f>IF('Eingabe Jahresfortgang'!B22="","",MAX('Eingabe Abitur'!$A$11:'Eingabe Abitur'!A37)+1)</f>
         <v/>
       </c>
-      <c r="B39" s="291" t="str">
+      <c r="B39" s="296" t="str">
         <f>IF('Eingabe Jahresfortgang'!B22="","",'Eingabe Jahresfortgang'!B22)</f>
         <v/>
       </c>
-      <c r="C39" s="295" t="str">
+      <c r="C39" s="285" t="str">
         <f>'Eingabe Jahresfortgang'!Q22</f>
         <v/>
       </c>
-      <c r="D39" s="296" t="str">
+      <c r="D39" s="286" t="str">
         <f>'Eingabe Jahresfortgang'!R22</f>
         <v/>
       </c>
-      <c r="E39" s="296" t="str">
+      <c r="E39" s="286" t="str">
         <f>'Eingabe Jahresfortgang'!S22</f>
         <v/>
       </c>
@@ -7458,18 +7451,18 @@
         <f>IF(B39="","",VLOOKUP(T39,'Notenschlüssel SAP'!$A$1:$B$61,2,FALSE))</f>
         <v/>
       </c>
-      <c r="V39" s="307"/>
-      <c r="W39" s="308"/>
-      <c r="X39" s="309"/>
-      <c r="Y39" s="310" t="str">
+      <c r="V39" s="273"/>
+      <c r="W39" s="269"/>
+      <c r="X39" s="267"/>
+      <c r="Y39" s="264" t="str">
         <f>IF(B39="","",SUM(V39:X39))</f>
         <v/>
       </c>
-      <c r="Z39" s="311" t="str">
+      <c r="Z39" s="259" t="str">
         <f>IF(B39="","",IF(ISBLANK(V39),"",IF(AVERAGE(V39:X39)&lt;10,LEFT(AVERAGE(V39:X39),4),LEFT(AVERAGE(V39:X39),5))))</f>
         <v/>
       </c>
-      <c r="AA39" s="313" t="str">
+      <c r="AA39" s="261" t="str">
         <f>IF(B39="","",IF(Z39="","",IF(LEFT(Z39,1)="0",0,ROUND(Z39,0))))</f>
         <v/>
       </c>
@@ -7483,11 +7476,11 @@
       </c>
     </row>
     <row r="40" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="290"/>
-      <c r="B40" s="273"/>
-      <c r="C40" s="282"/>
-      <c r="D40" s="284"/>
-      <c r="E40" s="284"/>
+      <c r="A40" s="295"/>
+      <c r="B40" s="290"/>
+      <c r="C40" s="276"/>
+      <c r="D40" s="278"/>
+      <c r="E40" s="278"/>
       <c r="F40" s="195"/>
       <c r="G40" s="117"/>
       <c r="H40" s="117"/>
@@ -7516,12 +7509,12 @@
         <f>IF(B39="","",VLOOKUP(T40,'Notenschlüssel SAP'!$A$1:$B$61,2,FALSE))</f>
         <v/>
       </c>
-      <c r="V40" s="300"/>
-      <c r="W40" s="304"/>
-      <c r="X40" s="302"/>
-      <c r="Y40" s="306"/>
-      <c r="Z40" s="312"/>
-      <c r="AA40" s="314"/>
+      <c r="V40" s="274"/>
+      <c r="W40" s="271"/>
+      <c r="X40" s="270"/>
+      <c r="Y40" s="265"/>
+      <c r="Z40" s="260"/>
+      <c r="AA40" s="262"/>
       <c r="AB40" s="152" t="str">
         <f>IF(B39="","",ROUNDUP(AVERAGE(U40,U40,AA39),2))</f>
         <v/>
@@ -7532,23 +7525,23 @@
       </c>
     </row>
     <row r="41" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="278" t="str">
+      <c r="A41" s="292" t="str">
         <f>IF('Eingabe Jahresfortgang'!B23="","",MAX('Eingabe Abitur'!$A$11:'Eingabe Abitur'!A39)+1)</f>
         <v/>
       </c>
-      <c r="B41" s="276" t="str">
+      <c r="B41" s="287" t="str">
         <f>IF('Eingabe Jahresfortgang'!B23="","",'Eingabe Jahresfortgang'!B23)</f>
         <v/>
       </c>
-      <c r="C41" s="287" t="str">
+      <c r="C41" s="279" t="str">
         <f>'Eingabe Jahresfortgang'!Q23</f>
         <v/>
       </c>
-      <c r="D41" s="293" t="str">
+      <c r="D41" s="281" t="str">
         <f>'Eingabe Jahresfortgang'!R23</f>
         <v/>
       </c>
-      <c r="E41" s="293" t="str">
+      <c r="E41" s="281" t="str">
         <f>'Eingabe Jahresfortgang'!S23</f>
         <v/>
       </c>
@@ -7580,18 +7573,18 @@
         <f>IF(B41="","",VLOOKUP(T41,'Notenschlüssel SAP'!$A$1:$B$61,2,FALSE))</f>
         <v/>
       </c>
-      <c r="V41" s="299"/>
-      <c r="W41" s="303"/>
-      <c r="X41" s="301"/>
-      <c r="Y41" s="305" t="str">
+      <c r="V41" s="272"/>
+      <c r="W41" s="268"/>
+      <c r="X41" s="266"/>
+      <c r="Y41" s="263" t="str">
         <f>IF(B41="","",SUM(V41:X41))</f>
         <v/>
       </c>
-      <c r="Z41" s="311" t="str">
+      <c r="Z41" s="259" t="str">
         <f>IF(B41="","",IF(ISBLANK(V41),"",IF(AVERAGE(V41:X41)&lt;10,LEFT(AVERAGE(V41:X41),4),LEFT(AVERAGE(V41:X41),5))))</f>
         <v/>
       </c>
-      <c r="AA41" s="313" t="str">
+      <c r="AA41" s="261" t="str">
         <f>IF(B41="","",IF(Z41="","",IF(LEFT(Z41,1)="0",0,ROUND(Z41,0))))</f>
         <v/>
       </c>
@@ -7605,11 +7598,11 @@
       </c>
     </row>
     <row r="42" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="279"/>
-      <c r="B42" s="277"/>
-      <c r="C42" s="288"/>
-      <c r="D42" s="294"/>
-      <c r="E42" s="294"/>
+      <c r="A42" s="293"/>
+      <c r="B42" s="288"/>
+      <c r="C42" s="283"/>
+      <c r="D42" s="284"/>
+      <c r="E42" s="284"/>
       <c r="F42" s="195"/>
       <c r="G42" s="117"/>
       <c r="H42" s="117"/>
@@ -7638,12 +7631,12 @@
         <f>IF(B41="","",VLOOKUP(T42,'Notenschlüssel SAP'!$A$1:$B$61,2,FALSE))</f>
         <v/>
       </c>
-      <c r="V42" s="300"/>
-      <c r="W42" s="304"/>
-      <c r="X42" s="302"/>
-      <c r="Y42" s="306"/>
-      <c r="Z42" s="312"/>
-      <c r="AA42" s="314"/>
+      <c r="V42" s="274"/>
+      <c r="W42" s="271"/>
+      <c r="X42" s="270"/>
+      <c r="Y42" s="265"/>
+      <c r="Z42" s="260"/>
+      <c r="AA42" s="262"/>
       <c r="AB42" s="152" t="str">
         <f>IF(B41="","",ROUNDUP(AVERAGE(U42,U42,AA41),2))</f>
         <v/>
@@ -7654,23 +7647,23 @@
       </c>
     </row>
     <row r="43" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="289" t="str">
+      <c r="A43" s="294" t="str">
         <f>IF('Eingabe Jahresfortgang'!B24="","",MAX('Eingabe Abitur'!$A$11:'Eingabe Abitur'!A41)+1)</f>
         <v/>
       </c>
-      <c r="B43" s="272" t="str">
+      <c r="B43" s="289" t="str">
         <f>IF('Eingabe Jahresfortgang'!B24="","",'Eingabe Jahresfortgang'!B24)</f>
         <v/>
       </c>
-      <c r="C43" s="281" t="str">
+      <c r="C43" s="275" t="str">
         <f>'Eingabe Jahresfortgang'!Q24</f>
         <v/>
       </c>
-      <c r="D43" s="283" t="str">
+      <c r="D43" s="277" t="str">
         <f>'Eingabe Jahresfortgang'!R24</f>
         <v/>
       </c>
-      <c r="E43" s="283" t="str">
+      <c r="E43" s="277" t="str">
         <f>'Eingabe Jahresfortgang'!S24</f>
         <v/>
       </c>
@@ -7702,18 +7695,18 @@
         <f>IF(B43="","",VLOOKUP(T43,'Notenschlüssel SAP'!$A$1:$B$61,2,FALSE))</f>
         <v/>
       </c>
-      <c r="V43" s="299"/>
-      <c r="W43" s="303"/>
-      <c r="X43" s="301"/>
-      <c r="Y43" s="305" t="str">
+      <c r="V43" s="272"/>
+      <c r="W43" s="268"/>
+      <c r="X43" s="266"/>
+      <c r="Y43" s="263" t="str">
         <f>IF(B43="","",SUM(V43:X43))</f>
         <v/>
       </c>
-      <c r="Z43" s="311" t="str">
+      <c r="Z43" s="259" t="str">
         <f>IF(B43="","",IF(ISBLANK(V43),"",IF(AVERAGE(V43:X43)&lt;10,LEFT(AVERAGE(V43:X43),4),LEFT(AVERAGE(V43:X43),5))))</f>
         <v/>
       </c>
-      <c r="AA43" s="313" t="str">
+      <c r="AA43" s="261" t="str">
         <f>IF(B43="","",IF(Z43="","",IF(LEFT(Z43,1)="0",0,ROUND(Z43,0))))</f>
         <v/>
       </c>
@@ -7727,11 +7720,11 @@
       </c>
     </row>
     <row r="44" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="290"/>
-      <c r="B44" s="273"/>
-      <c r="C44" s="282"/>
-      <c r="D44" s="284"/>
-      <c r="E44" s="284"/>
+      <c r="A44" s="295"/>
+      <c r="B44" s="290"/>
+      <c r="C44" s="276"/>
+      <c r="D44" s="278"/>
+      <c r="E44" s="278"/>
       <c r="F44" s="195"/>
       <c r="G44" s="117"/>
       <c r="H44" s="117"/>
@@ -7760,12 +7753,12 @@
         <f>IF(B43="","",VLOOKUP(T44,'Notenschlüssel SAP'!$A$1:$B$61,2,FALSE))</f>
         <v/>
       </c>
-      <c r="V44" s="300"/>
-      <c r="W44" s="304"/>
-      <c r="X44" s="302"/>
-      <c r="Y44" s="306"/>
-      <c r="Z44" s="312"/>
-      <c r="AA44" s="314"/>
+      <c r="V44" s="274"/>
+      <c r="W44" s="271"/>
+      <c r="X44" s="270"/>
+      <c r="Y44" s="265"/>
+      <c r="Z44" s="260"/>
+      <c r="AA44" s="262"/>
       <c r="AB44" s="152" t="str">
         <f>IF(B43="","",ROUNDUP(AVERAGE(U44,U44,AA43),2))</f>
         <v/>
@@ -7776,23 +7769,23 @@
       </c>
     </row>
     <row r="45" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="278" t="str">
+      <c r="A45" s="292" t="str">
         <f>IF('Eingabe Jahresfortgang'!B25="","",MAX('Eingabe Abitur'!$A$11:'Eingabe Abitur'!A43)+1)</f>
         <v/>
       </c>
-      <c r="B45" s="276" t="str">
+      <c r="B45" s="287" t="str">
         <f>IF('Eingabe Jahresfortgang'!B25="","",'Eingabe Jahresfortgang'!B25)</f>
         <v/>
       </c>
-      <c r="C45" s="287" t="str">
+      <c r="C45" s="279" t="str">
         <f>'Eingabe Jahresfortgang'!Q25</f>
         <v/>
       </c>
-      <c r="D45" s="293" t="str">
+      <c r="D45" s="281" t="str">
         <f>'Eingabe Jahresfortgang'!R25</f>
         <v/>
       </c>
-      <c r="E45" s="293" t="str">
+      <c r="E45" s="281" t="str">
         <f>'Eingabe Jahresfortgang'!S25</f>
         <v/>
       </c>
@@ -7824,18 +7817,18 @@
         <f>IF(B45="","",VLOOKUP(T45,'Notenschlüssel SAP'!$A$1:$B$61,2,FALSE))</f>
         <v/>
       </c>
-      <c r="V45" s="299"/>
-      <c r="W45" s="303"/>
-      <c r="X45" s="301"/>
-      <c r="Y45" s="305" t="str">
+      <c r="V45" s="272"/>
+      <c r="W45" s="268"/>
+      <c r="X45" s="266"/>
+      <c r="Y45" s="263" t="str">
         <f>IF(B45="","",SUM(V45:X45))</f>
         <v/>
       </c>
-      <c r="Z45" s="311" t="str">
+      <c r="Z45" s="259" t="str">
         <f>IF(B45="","",IF(ISBLANK(V45),"",IF(AVERAGE(V45:X45)&lt;10,LEFT(AVERAGE(V45:X45),4),LEFT(AVERAGE(V45:X45),5))))</f>
         <v/>
       </c>
-      <c r="AA45" s="313" t="str">
+      <c r="AA45" s="261" t="str">
         <f>IF(B45="","",IF(Z45="","",IF(LEFT(Z45,1)="0",0,ROUND(Z45,0))))</f>
         <v/>
       </c>
@@ -7849,11 +7842,11 @@
       </c>
     </row>
     <row r="46" spans="1:29" s="156" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="279"/>
-      <c r="B46" s="277"/>
-      <c r="C46" s="288"/>
-      <c r="D46" s="294"/>
-      <c r="E46" s="294"/>
+      <c r="A46" s="293"/>
+      <c r="B46" s="288"/>
+      <c r="C46" s="283"/>
+      <c r="D46" s="284"/>
+      <c r="E46" s="284"/>
       <c r="F46" s="196"/>
       <c r="G46" s="129"/>
       <c r="H46" s="129"/>
@@ -7882,12 +7875,12 @@
         <f>IF(B45="","",VLOOKUP(T46,'Notenschlüssel SAP'!$A$1:$B$61,2,FALSE))</f>
         <v/>
       </c>
-      <c r="V46" s="300"/>
-      <c r="W46" s="304"/>
-      <c r="X46" s="302"/>
-      <c r="Y46" s="306"/>
-      <c r="Z46" s="312"/>
-      <c r="AA46" s="314"/>
+      <c r="V46" s="274"/>
+      <c r="W46" s="271"/>
+      <c r="X46" s="270"/>
+      <c r="Y46" s="265"/>
+      <c r="Z46" s="260"/>
+      <c r="AA46" s="262"/>
       <c r="AB46" s="152" t="str">
         <f>IF(B45="","",ROUNDUP(AVERAGE(U46,U46,AA45),2))</f>
         <v/>
@@ -7898,23 +7891,23 @@
       </c>
     </row>
     <row r="47" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="289" t="str">
+      <c r="A47" s="294" t="str">
         <f>IF('Eingabe Jahresfortgang'!B26="","",MAX('Eingabe Abitur'!$A$11:'Eingabe Abitur'!A45)+1)</f>
         <v/>
       </c>
-      <c r="B47" s="272" t="str">
+      <c r="B47" s="289" t="str">
         <f>IF('Eingabe Jahresfortgang'!B26="","",'Eingabe Jahresfortgang'!B26)</f>
         <v/>
       </c>
-      <c r="C47" s="281" t="str">
+      <c r="C47" s="275" t="str">
         <f>'Eingabe Jahresfortgang'!Q26</f>
         <v/>
       </c>
-      <c r="D47" s="283" t="str">
+      <c r="D47" s="277" t="str">
         <f>'Eingabe Jahresfortgang'!R26</f>
         <v/>
       </c>
-      <c r="E47" s="283" t="str">
+      <c r="E47" s="277" t="str">
         <f>'Eingabe Jahresfortgang'!S26</f>
         <v/>
       </c>
@@ -7946,18 +7939,18 @@
         <f>IF(B47="","",VLOOKUP(T47,'Notenschlüssel SAP'!$A$1:$B$61,2,FALSE))</f>
         <v/>
       </c>
-      <c r="V47" s="299"/>
-      <c r="W47" s="303"/>
-      <c r="X47" s="301"/>
-      <c r="Y47" s="305" t="str">
+      <c r="V47" s="272"/>
+      <c r="W47" s="268"/>
+      <c r="X47" s="266"/>
+      <c r="Y47" s="263" t="str">
         <f>IF(B47="","",SUM(V47:X47))</f>
         <v/>
       </c>
-      <c r="Z47" s="311" t="str">
+      <c r="Z47" s="259" t="str">
         <f>IF(B47="","",IF(ISBLANK(V47),"",IF(AVERAGE(V47:X47)&lt;10,LEFT(AVERAGE(V47:X47),4),LEFT(AVERAGE(V47:X47),5))))</f>
         <v/>
       </c>
-      <c r="AA47" s="313" t="str">
+      <c r="AA47" s="261" t="str">
         <f>IF(B47="","",IF(Z47="","",IF(LEFT(Z47,1)="0",0,ROUND(Z47,0))))</f>
         <v/>
       </c>
@@ -7971,11 +7964,11 @@
       </c>
     </row>
     <row r="48" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="290"/>
-      <c r="B48" s="273"/>
-      <c r="C48" s="282"/>
-      <c r="D48" s="284"/>
-      <c r="E48" s="284"/>
+      <c r="A48" s="295"/>
+      <c r="B48" s="290"/>
+      <c r="C48" s="276"/>
+      <c r="D48" s="278"/>
+      <c r="E48" s="278"/>
       <c r="F48" s="195"/>
       <c r="G48" s="117"/>
       <c r="H48" s="117"/>
@@ -8004,12 +7997,12 @@
         <f>IF(B47="","",VLOOKUP(T48,'Notenschlüssel SAP'!$A$1:$B$61,2,FALSE))</f>
         <v/>
       </c>
-      <c r="V48" s="300"/>
-      <c r="W48" s="304"/>
-      <c r="X48" s="302"/>
-      <c r="Y48" s="306"/>
-      <c r="Z48" s="312"/>
-      <c r="AA48" s="314"/>
+      <c r="V48" s="274"/>
+      <c r="W48" s="271"/>
+      <c r="X48" s="270"/>
+      <c r="Y48" s="265"/>
+      <c r="Z48" s="260"/>
+      <c r="AA48" s="262"/>
       <c r="AB48" s="152" t="str">
         <f>IF(B47="","",ROUNDUP(AVERAGE(U48,U48,AA47),2))</f>
         <v/>
@@ -8020,23 +8013,23 @@
       </c>
     </row>
     <row r="49" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="278" t="str">
+      <c r="A49" s="292" t="str">
         <f>IF('Eingabe Jahresfortgang'!B27="","",MAX('Eingabe Abitur'!$A$11:'Eingabe Abitur'!A47)+1)</f>
         <v/>
       </c>
-      <c r="B49" s="276" t="str">
+      <c r="B49" s="287" t="str">
         <f>IF('Eingabe Jahresfortgang'!B27="","",'Eingabe Jahresfortgang'!B27)</f>
         <v/>
       </c>
-      <c r="C49" s="287" t="str">
+      <c r="C49" s="279" t="str">
         <f>'Eingabe Jahresfortgang'!Q27</f>
         <v/>
       </c>
-      <c r="D49" s="293" t="str">
+      <c r="D49" s="281" t="str">
         <f>'Eingabe Jahresfortgang'!R27</f>
         <v/>
       </c>
-      <c r="E49" s="293" t="str">
+      <c r="E49" s="281" t="str">
         <f>'Eingabe Jahresfortgang'!S27</f>
         <v/>
       </c>
@@ -8068,18 +8061,18 @@
         <f>IF(B49="","",VLOOKUP(T49,'Notenschlüssel SAP'!$A$1:$B$61,2,FALSE))</f>
         <v/>
       </c>
-      <c r="V49" s="299"/>
-      <c r="W49" s="303"/>
-      <c r="X49" s="301"/>
-      <c r="Y49" s="305" t="str">
+      <c r="V49" s="272"/>
+      <c r="W49" s="268"/>
+      <c r="X49" s="266"/>
+      <c r="Y49" s="263" t="str">
         <f>IF(B49="","",SUM(V49:X49))</f>
         <v/>
       </c>
-      <c r="Z49" s="311" t="str">
+      <c r="Z49" s="259" t="str">
         <f>IF(B49="","",IF(ISBLANK(V49),"",IF(AVERAGE(V49:X49)&lt;10,LEFT(AVERAGE(V49:X49),4),LEFT(AVERAGE(V49:X49),5))))</f>
         <v/>
       </c>
-      <c r="AA49" s="313" t="str">
+      <c r="AA49" s="261" t="str">
         <f>IF(B49="","",IF(Z49="","",IF(LEFT(Z49,1)="0",0,ROUND(Z49,0))))</f>
         <v/>
       </c>
@@ -8093,11 +8086,11 @@
       </c>
     </row>
     <row r="50" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="279"/>
-      <c r="B50" s="277"/>
-      <c r="C50" s="288"/>
-      <c r="D50" s="294"/>
-      <c r="E50" s="294"/>
+      <c r="A50" s="293"/>
+      <c r="B50" s="288"/>
+      <c r="C50" s="283"/>
+      <c r="D50" s="284"/>
+      <c r="E50" s="284"/>
       <c r="F50" s="195"/>
       <c r="G50" s="117"/>
       <c r="H50" s="117"/>
@@ -8126,12 +8119,12 @@
         <f>IF(B49="","",VLOOKUP(T50,'Notenschlüssel SAP'!$A$1:$B$61,2,FALSE))</f>
         <v/>
       </c>
-      <c r="V50" s="300"/>
-      <c r="W50" s="304"/>
-      <c r="X50" s="302"/>
-      <c r="Y50" s="306"/>
-      <c r="Z50" s="312"/>
-      <c r="AA50" s="314"/>
+      <c r="V50" s="274"/>
+      <c r="W50" s="271"/>
+      <c r="X50" s="270"/>
+      <c r="Y50" s="265"/>
+      <c r="Z50" s="260"/>
+      <c r="AA50" s="262"/>
       <c r="AB50" s="152" t="str">
         <f>IF(B49="","",ROUNDUP(AVERAGE(U50,U50,AA49),2))</f>
         <v/>
@@ -8142,23 +8135,23 @@
       </c>
     </row>
     <row r="51" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="289" t="str">
+      <c r="A51" s="294" t="str">
         <f>IF('Eingabe Jahresfortgang'!B28="","",MAX('Eingabe Abitur'!$A$11:'Eingabe Abitur'!A49)+1)</f>
         <v/>
       </c>
-      <c r="B51" s="272" t="str">
+      <c r="B51" s="289" t="str">
         <f>IF('Eingabe Jahresfortgang'!B28="","",'Eingabe Jahresfortgang'!B28)</f>
         <v/>
       </c>
-      <c r="C51" s="281" t="str">
+      <c r="C51" s="275" t="str">
         <f>'Eingabe Jahresfortgang'!Q28</f>
         <v/>
       </c>
-      <c r="D51" s="283" t="str">
+      <c r="D51" s="277" t="str">
         <f>'Eingabe Jahresfortgang'!R28</f>
         <v/>
       </c>
-      <c r="E51" s="283" t="str">
+      <c r="E51" s="277" t="str">
         <f>'Eingabe Jahresfortgang'!S28</f>
         <v/>
       </c>
@@ -8190,18 +8183,18 @@
         <f>IF(B51="","",VLOOKUP(T51,'Notenschlüssel SAP'!$A$1:$B$61,2,FALSE))</f>
         <v/>
       </c>
-      <c r="V51" s="299"/>
-      <c r="W51" s="303"/>
-      <c r="X51" s="301"/>
-      <c r="Y51" s="305" t="str">
+      <c r="V51" s="272"/>
+      <c r="W51" s="268"/>
+      <c r="X51" s="266"/>
+      <c r="Y51" s="263" t="str">
         <f>IF(B51="","",SUM(V51:X51))</f>
         <v/>
       </c>
-      <c r="Z51" s="311" t="str">
+      <c r="Z51" s="259" t="str">
         <f>IF(B51="","",IF(ISBLANK(V51),"",IF(AVERAGE(V51:X51)&lt;10,LEFT(AVERAGE(V51:X51),4),LEFT(AVERAGE(V51:X51),5))))</f>
         <v/>
       </c>
-      <c r="AA51" s="313" t="str">
+      <c r="AA51" s="261" t="str">
         <f>IF(B51="","",IF(Z51="","",IF(LEFT(Z51,1)="0",0,ROUND(Z51,0))))</f>
         <v/>
       </c>
@@ -8215,11 +8208,11 @@
       </c>
     </row>
     <row r="52" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="290"/>
-      <c r="B52" s="273"/>
-      <c r="C52" s="282"/>
-      <c r="D52" s="284"/>
-      <c r="E52" s="284"/>
+      <c r="A52" s="295"/>
+      <c r="B52" s="290"/>
+      <c r="C52" s="276"/>
+      <c r="D52" s="278"/>
+      <c r="E52" s="278"/>
       <c r="F52" s="195"/>
       <c r="G52" s="117"/>
       <c r="H52" s="117"/>
@@ -8248,12 +8241,12 @@
         <f>IF(B51="","",VLOOKUP(T52,'Notenschlüssel SAP'!$A$1:$B$61,2,FALSE))</f>
         <v/>
       </c>
-      <c r="V52" s="300"/>
-      <c r="W52" s="304"/>
-      <c r="X52" s="302"/>
-      <c r="Y52" s="306"/>
-      <c r="Z52" s="312"/>
-      <c r="AA52" s="314"/>
+      <c r="V52" s="274"/>
+      <c r="W52" s="271"/>
+      <c r="X52" s="270"/>
+      <c r="Y52" s="265"/>
+      <c r="Z52" s="260"/>
+      <c r="AA52" s="262"/>
       <c r="AB52" s="152" t="str">
         <f>IF(B51="","",ROUNDUP(AVERAGE(U52,U52,AA51),2))</f>
         <v/>
@@ -8264,23 +8257,23 @@
       </c>
     </row>
     <row r="53" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="278" t="str">
+      <c r="A53" s="292" t="str">
         <f>IF('Eingabe Jahresfortgang'!B29="","",MAX('Eingabe Abitur'!$A$11:'Eingabe Abitur'!A51)+1)</f>
         <v/>
       </c>
-      <c r="B53" s="276" t="str">
+      <c r="B53" s="287" t="str">
         <f>IF('Eingabe Jahresfortgang'!B29="","",'Eingabe Jahresfortgang'!B29)</f>
         <v/>
       </c>
-      <c r="C53" s="287" t="str">
+      <c r="C53" s="279" t="str">
         <f>'Eingabe Jahresfortgang'!Q29</f>
         <v/>
       </c>
-      <c r="D53" s="293" t="str">
+      <c r="D53" s="281" t="str">
         <f>'Eingabe Jahresfortgang'!R29</f>
         <v/>
       </c>
-      <c r="E53" s="293" t="str">
+      <c r="E53" s="281" t="str">
         <f>'Eingabe Jahresfortgang'!S29</f>
         <v/>
       </c>
@@ -8312,18 +8305,18 @@
         <f>IF(B53="","",VLOOKUP(T53,'Notenschlüssel SAP'!$A$1:$B$61,2,FALSE))</f>
         <v/>
       </c>
-      <c r="V53" s="299"/>
-      <c r="W53" s="303"/>
-      <c r="X53" s="301"/>
-      <c r="Y53" s="305" t="str">
+      <c r="V53" s="272"/>
+      <c r="W53" s="268"/>
+      <c r="X53" s="266"/>
+      <c r="Y53" s="263" t="str">
         <f>IF(B53="","",SUM(V53:X53))</f>
         <v/>
       </c>
-      <c r="Z53" s="311" t="str">
+      <c r="Z53" s="259" t="str">
         <f>IF(B53="","",IF(ISBLANK(V53),"",IF(AVERAGE(V53:X53)&lt;10,LEFT(AVERAGE(V53:X53),4),LEFT(AVERAGE(V53:X53),5))))</f>
         <v/>
       </c>
-      <c r="AA53" s="313" t="str">
+      <c r="AA53" s="261" t="str">
         <f>IF(B53="","",IF(Z53="","",IF(LEFT(Z53,1)="0",0,ROUND(Z53,0))))</f>
         <v/>
       </c>
@@ -8337,11 +8330,11 @@
       </c>
     </row>
     <row r="54" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="279"/>
-      <c r="B54" s="277"/>
-      <c r="C54" s="288"/>
-      <c r="D54" s="294"/>
-      <c r="E54" s="294"/>
+      <c r="A54" s="293"/>
+      <c r="B54" s="288"/>
+      <c r="C54" s="283"/>
+      <c r="D54" s="284"/>
+      <c r="E54" s="284"/>
       <c r="F54" s="195"/>
       <c r="G54" s="117"/>
       <c r="H54" s="117"/>
@@ -8370,12 +8363,12 @@
         <f>IF(B53="","",VLOOKUP(T54,'Notenschlüssel SAP'!$A$1:$B$61,2,FALSE))</f>
         <v/>
       </c>
-      <c r="V54" s="300"/>
-      <c r="W54" s="304"/>
-      <c r="X54" s="302"/>
-      <c r="Y54" s="306"/>
-      <c r="Z54" s="312"/>
-      <c r="AA54" s="314"/>
+      <c r="V54" s="274"/>
+      <c r="W54" s="271"/>
+      <c r="X54" s="270"/>
+      <c r="Y54" s="265"/>
+      <c r="Z54" s="260"/>
+      <c r="AA54" s="262"/>
       <c r="AB54" s="152" t="str">
         <f>IF(B53="","",ROUNDUP(AVERAGE(U54,U54,AA53),2))</f>
         <v/>
@@ -8386,23 +8379,23 @@
       </c>
     </row>
     <row r="55" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="289" t="str">
+      <c r="A55" s="294" t="str">
         <f>IF('Eingabe Jahresfortgang'!B30="","",MAX('Eingabe Abitur'!$A$11:'Eingabe Abitur'!A53)+1)</f>
         <v/>
       </c>
-      <c r="B55" s="272" t="str">
+      <c r="B55" s="289" t="str">
         <f>IF('Eingabe Jahresfortgang'!B30="","",'Eingabe Jahresfortgang'!B30)</f>
         <v/>
       </c>
-      <c r="C55" s="281" t="str">
+      <c r="C55" s="275" t="str">
         <f>'Eingabe Jahresfortgang'!Q30</f>
         <v/>
       </c>
-      <c r="D55" s="283" t="str">
+      <c r="D55" s="277" t="str">
         <f>'Eingabe Jahresfortgang'!R30</f>
         <v/>
       </c>
-      <c r="E55" s="283" t="str">
+      <c r="E55" s="277" t="str">
         <f>'Eingabe Jahresfortgang'!S30</f>
         <v/>
       </c>
@@ -8434,18 +8427,18 @@
         <f>IF(B55="","",VLOOKUP(T55,'Notenschlüssel SAP'!$A$1:$B$61,2,FALSE))</f>
         <v/>
       </c>
-      <c r="V55" s="299"/>
-      <c r="W55" s="303"/>
-      <c r="X55" s="301"/>
-      <c r="Y55" s="305" t="str">
+      <c r="V55" s="272"/>
+      <c r="W55" s="268"/>
+      <c r="X55" s="266"/>
+      <c r="Y55" s="263" t="str">
         <f>IF(B55="","",SUM(V55:X55))</f>
         <v/>
       </c>
-      <c r="Z55" s="311" t="str">
+      <c r="Z55" s="259" t="str">
         <f>IF(B55="","",IF(ISBLANK(V55),"",IF(AVERAGE(V55:X55)&lt;10,LEFT(AVERAGE(V55:X55),4),LEFT(AVERAGE(V55:X55),5))))</f>
         <v/>
       </c>
-      <c r="AA55" s="313" t="str">
+      <c r="AA55" s="261" t="str">
         <f>IF(B55="","",IF(Z55="","",IF(LEFT(Z55,1)="0",0,ROUND(Z55,0))))</f>
         <v/>
       </c>
@@ -8459,11 +8452,11 @@
       </c>
     </row>
     <row r="56" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="290"/>
-      <c r="B56" s="273"/>
-      <c r="C56" s="282"/>
-      <c r="D56" s="284"/>
-      <c r="E56" s="284"/>
+      <c r="A56" s="295"/>
+      <c r="B56" s="290"/>
+      <c r="C56" s="276"/>
+      <c r="D56" s="278"/>
+      <c r="E56" s="278"/>
       <c r="F56" s="195"/>
       <c r="G56" s="117"/>
       <c r="H56" s="117"/>
@@ -8492,12 +8485,12 @@
         <f>IF(B55="","",VLOOKUP(T56,'Notenschlüssel SAP'!$A$1:$B$61,2,FALSE))</f>
         <v/>
       </c>
-      <c r="V56" s="300"/>
-      <c r="W56" s="304"/>
-      <c r="X56" s="302"/>
-      <c r="Y56" s="306"/>
-      <c r="Z56" s="312"/>
-      <c r="AA56" s="314"/>
+      <c r="V56" s="274"/>
+      <c r="W56" s="271"/>
+      <c r="X56" s="270"/>
+      <c r="Y56" s="265"/>
+      <c r="Z56" s="260"/>
+      <c r="AA56" s="262"/>
       <c r="AB56" s="152" t="str">
         <f>IF(B55="","",ROUNDUP(AVERAGE(U56,U56,AA55),2))</f>
         <v/>
@@ -8508,23 +8501,23 @@
       </c>
     </row>
     <row r="57" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="278" t="str">
+      <c r="A57" s="292" t="str">
         <f>IF('Eingabe Jahresfortgang'!B31="","",MAX('Eingabe Abitur'!$A$11:'Eingabe Abitur'!A55)+1)</f>
         <v/>
       </c>
-      <c r="B57" s="276" t="str">
+      <c r="B57" s="287" t="str">
         <f>IF('Eingabe Jahresfortgang'!B31="","",'Eingabe Jahresfortgang'!B31)</f>
         <v/>
       </c>
-      <c r="C57" s="287" t="str">
+      <c r="C57" s="279" t="str">
         <f>'Eingabe Jahresfortgang'!Q31</f>
         <v/>
       </c>
-      <c r="D57" s="293" t="str">
+      <c r="D57" s="281" t="str">
         <f>'Eingabe Jahresfortgang'!R31</f>
         <v/>
       </c>
-      <c r="E57" s="293" t="str">
+      <c r="E57" s="281" t="str">
         <f>'Eingabe Jahresfortgang'!S31</f>
         <v/>
       </c>
@@ -8556,18 +8549,18 @@
         <f>IF(B57="","",VLOOKUP(T57,'Notenschlüssel SAP'!$A$1:$B$61,2,FALSE))</f>
         <v/>
       </c>
-      <c r="V57" s="299"/>
-      <c r="W57" s="303"/>
-      <c r="X57" s="301"/>
-      <c r="Y57" s="305" t="str">
+      <c r="V57" s="272"/>
+      <c r="W57" s="268"/>
+      <c r="X57" s="266"/>
+      <c r="Y57" s="263" t="str">
         <f>IF(B57="","",SUM(V57:X57))</f>
         <v/>
       </c>
-      <c r="Z57" s="311" t="str">
+      <c r="Z57" s="259" t="str">
         <f>IF(B57="","",IF(ISBLANK(V57),"",IF(AVERAGE(V57:X57)&lt;10,LEFT(AVERAGE(V57:X57),4),LEFT(AVERAGE(V57:X57),5))))</f>
         <v/>
       </c>
-      <c r="AA57" s="313" t="str">
+      <c r="AA57" s="261" t="str">
         <f>IF(B57="","",IF(Z57="","",IF(LEFT(Z57,1)="0",0,ROUND(Z57,0))))</f>
         <v/>
       </c>
@@ -8581,11 +8574,11 @@
       </c>
     </row>
     <row r="58" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="279"/>
-      <c r="B58" s="277"/>
-      <c r="C58" s="288"/>
-      <c r="D58" s="294"/>
-      <c r="E58" s="294"/>
+      <c r="A58" s="293"/>
+      <c r="B58" s="288"/>
+      <c r="C58" s="283"/>
+      <c r="D58" s="284"/>
+      <c r="E58" s="284"/>
       <c r="F58" s="195"/>
       <c r="G58" s="117"/>
       <c r="H58" s="117"/>
@@ -8614,12 +8607,12 @@
         <f>IF(B57="","",VLOOKUP(T58,'Notenschlüssel SAP'!$A$1:$B$61,2,FALSE))</f>
         <v/>
       </c>
-      <c r="V58" s="300"/>
-      <c r="W58" s="304"/>
-      <c r="X58" s="302"/>
-      <c r="Y58" s="306"/>
-      <c r="Z58" s="312"/>
-      <c r="AA58" s="314"/>
+      <c r="V58" s="274"/>
+      <c r="W58" s="271"/>
+      <c r="X58" s="270"/>
+      <c r="Y58" s="265"/>
+      <c r="Z58" s="260"/>
+      <c r="AA58" s="262"/>
       <c r="AB58" s="152" t="str">
         <f>IF(B57="","",ROUNDUP(AVERAGE(U58,U58,AA57),2))</f>
         <v/>
@@ -8630,23 +8623,23 @@
       </c>
     </row>
     <row r="59" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="289" t="str">
+      <c r="A59" s="294" t="str">
         <f>IF('Eingabe Jahresfortgang'!B32="","",MAX('Eingabe Abitur'!$A$11:'Eingabe Abitur'!A57)+1)</f>
         <v/>
       </c>
-      <c r="B59" s="272" t="str">
+      <c r="B59" s="289" t="str">
         <f>IF('Eingabe Jahresfortgang'!B32="","",'Eingabe Jahresfortgang'!B32)</f>
         <v/>
       </c>
-      <c r="C59" s="281" t="str">
+      <c r="C59" s="275" t="str">
         <f>'Eingabe Jahresfortgang'!Q32</f>
         <v/>
       </c>
-      <c r="D59" s="283" t="str">
+      <c r="D59" s="277" t="str">
         <f>'Eingabe Jahresfortgang'!R32</f>
         <v/>
       </c>
-      <c r="E59" s="283" t="str">
+      <c r="E59" s="277" t="str">
         <f>'Eingabe Jahresfortgang'!S32</f>
         <v/>
       </c>
@@ -8678,18 +8671,18 @@
         <f>IF(B59="","",VLOOKUP(T59,'Notenschlüssel SAP'!$A$1:$B$61,2,FALSE))</f>
         <v/>
       </c>
-      <c r="V59" s="299"/>
-      <c r="W59" s="303"/>
-      <c r="X59" s="301"/>
-      <c r="Y59" s="305" t="str">
+      <c r="V59" s="272"/>
+      <c r="W59" s="268"/>
+      <c r="X59" s="266"/>
+      <c r="Y59" s="263" t="str">
         <f>IF(B59="","",SUM(V59:X59))</f>
         <v/>
       </c>
-      <c r="Z59" s="311" t="str">
+      <c r="Z59" s="259" t="str">
         <f>IF(B59="","",IF(ISBLANK(V59),"",IF(AVERAGE(V59:X59)&lt;10,LEFT(AVERAGE(V59:X59),4),LEFT(AVERAGE(V59:X59),5))))</f>
         <v/>
       </c>
-      <c r="AA59" s="313" t="str">
+      <c r="AA59" s="261" t="str">
         <f>IF(B59="","",IF(Z59="","",IF(LEFT(Z59,1)="0",0,ROUND(Z59,0))))</f>
         <v/>
       </c>
@@ -8703,11 +8696,11 @@
       </c>
     </row>
     <row r="60" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="290"/>
-      <c r="B60" s="273"/>
-      <c r="C60" s="282"/>
-      <c r="D60" s="284"/>
-      <c r="E60" s="284"/>
+      <c r="A60" s="295"/>
+      <c r="B60" s="290"/>
+      <c r="C60" s="276"/>
+      <c r="D60" s="278"/>
+      <c r="E60" s="278"/>
       <c r="F60" s="195"/>
       <c r="G60" s="117"/>
       <c r="H60" s="117"/>
@@ -8736,12 +8729,12 @@
         <f>IF(B59="","",VLOOKUP(T60,'Notenschlüssel SAP'!$A$1:$B$61,2,FALSE))</f>
         <v/>
       </c>
-      <c r="V60" s="300"/>
-      <c r="W60" s="304"/>
-      <c r="X60" s="302"/>
-      <c r="Y60" s="306"/>
-      <c r="Z60" s="312"/>
-      <c r="AA60" s="314"/>
+      <c r="V60" s="274"/>
+      <c r="W60" s="271"/>
+      <c r="X60" s="270"/>
+      <c r="Y60" s="265"/>
+      <c r="Z60" s="260"/>
+      <c r="AA60" s="262"/>
       <c r="AB60" s="152" t="str">
         <f>IF(B59="","",ROUNDUP(AVERAGE(U60,U60,AA59),2))</f>
         <v/>
@@ -8752,23 +8745,23 @@
       </c>
     </row>
     <row r="61" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="278" t="str">
+      <c r="A61" s="292" t="str">
         <f>IF('Eingabe Jahresfortgang'!B33="","",MAX('Eingabe Abitur'!$A$11:'Eingabe Abitur'!A59)+1)</f>
         <v/>
       </c>
-      <c r="B61" s="276" t="str">
+      <c r="B61" s="287" t="str">
         <f>IF('Eingabe Jahresfortgang'!B33="","",'Eingabe Jahresfortgang'!B33)</f>
         <v/>
       </c>
-      <c r="C61" s="287" t="str">
+      <c r="C61" s="279" t="str">
         <f>'Eingabe Jahresfortgang'!Q33</f>
         <v/>
       </c>
-      <c r="D61" s="293" t="str">
+      <c r="D61" s="281" t="str">
         <f>'Eingabe Jahresfortgang'!R33</f>
         <v/>
       </c>
-      <c r="E61" s="293" t="str">
+      <c r="E61" s="281" t="str">
         <f>'Eingabe Jahresfortgang'!S33</f>
         <v/>
       </c>
@@ -8800,18 +8793,18 @@
         <f>IF(B61="","",VLOOKUP(T61,'Notenschlüssel SAP'!$A$1:$B$61,2,FALSE))</f>
         <v/>
       </c>
-      <c r="V61" s="299"/>
-      <c r="W61" s="303"/>
-      <c r="X61" s="301"/>
-      <c r="Y61" s="305" t="str">
+      <c r="V61" s="272"/>
+      <c r="W61" s="268"/>
+      <c r="X61" s="266"/>
+      <c r="Y61" s="263" t="str">
         <f>IF(B61="","",SUM(V61:X61))</f>
         <v/>
       </c>
-      <c r="Z61" s="311" t="str">
+      <c r="Z61" s="259" t="str">
         <f>IF(B61="","",IF(ISBLANK(V61),"",IF(AVERAGE(V61:X61)&lt;10,LEFT(AVERAGE(V61:X61),4),LEFT(AVERAGE(V61:X61),5))))</f>
         <v/>
       </c>
-      <c r="AA61" s="313" t="str">
+      <c r="AA61" s="261" t="str">
         <f>IF(B61="","",IF(Z61="","",IF(LEFT(Z61,1)="0",0,ROUND(Z61,0))))</f>
         <v/>
       </c>
@@ -8825,11 +8818,11 @@
       </c>
     </row>
     <row r="62" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="279"/>
-      <c r="B62" s="277"/>
-      <c r="C62" s="288"/>
-      <c r="D62" s="294"/>
-      <c r="E62" s="294"/>
+      <c r="A62" s="293"/>
+      <c r="B62" s="288"/>
+      <c r="C62" s="283"/>
+      <c r="D62" s="284"/>
+      <c r="E62" s="284"/>
       <c r="F62" s="195"/>
       <c r="G62" s="117"/>
       <c r="H62" s="117"/>
@@ -8858,12 +8851,12 @@
         <f>IF(B61="","",VLOOKUP(T62,'Notenschlüssel SAP'!$A$1:$B$61,2,FALSE))</f>
         <v/>
       </c>
-      <c r="V62" s="300"/>
-      <c r="W62" s="304"/>
-      <c r="X62" s="302"/>
-      <c r="Y62" s="306"/>
-      <c r="Z62" s="312"/>
-      <c r="AA62" s="314"/>
+      <c r="V62" s="274"/>
+      <c r="W62" s="271"/>
+      <c r="X62" s="270"/>
+      <c r="Y62" s="265"/>
+      <c r="Z62" s="260"/>
+      <c r="AA62" s="262"/>
       <c r="AB62" s="152" t="str">
         <f>IF(B61="","",ROUNDUP(AVERAGE(U62,U62,AA61),2))</f>
         <v/>
@@ -8874,23 +8867,23 @@
       </c>
     </row>
     <row r="63" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="289" t="str">
+      <c r="A63" s="294" t="str">
         <f>IF('Eingabe Jahresfortgang'!B34="","",MAX('Eingabe Abitur'!$A$11:'Eingabe Abitur'!A61)+1)</f>
         <v/>
       </c>
-      <c r="B63" s="272" t="str">
+      <c r="B63" s="289" t="str">
         <f>IF('Eingabe Jahresfortgang'!B34="","",'Eingabe Jahresfortgang'!B34)</f>
         <v/>
       </c>
-      <c r="C63" s="281" t="str">
+      <c r="C63" s="275" t="str">
         <f>'Eingabe Jahresfortgang'!Q34</f>
         <v/>
       </c>
-      <c r="D63" s="283" t="str">
+      <c r="D63" s="277" t="str">
         <f>'Eingabe Jahresfortgang'!R34</f>
         <v/>
       </c>
-      <c r="E63" s="283" t="str">
+      <c r="E63" s="277" t="str">
         <f>'Eingabe Jahresfortgang'!S34</f>
         <v/>
       </c>
@@ -8922,18 +8915,18 @@
         <f>IF(B63="","",VLOOKUP(T63,'Notenschlüssel SAP'!$A$1:$B$61,2,FALSE))</f>
         <v/>
       </c>
-      <c r="V63" s="299"/>
-      <c r="W63" s="303"/>
-      <c r="X63" s="301"/>
-      <c r="Y63" s="305" t="str">
+      <c r="V63" s="272"/>
+      <c r="W63" s="268"/>
+      <c r="X63" s="266"/>
+      <c r="Y63" s="263" t="str">
         <f>IF(B63="","",SUM(V63:X63))</f>
         <v/>
       </c>
-      <c r="Z63" s="311" t="str">
+      <c r="Z63" s="259" t="str">
         <f>IF(B63="","",IF(ISBLANK(V63),"",IF(AVERAGE(V63:X63)&lt;10,LEFT(AVERAGE(V63:X63),4),LEFT(AVERAGE(V63:X63),5))))</f>
         <v/>
       </c>
-      <c r="AA63" s="313" t="str">
+      <c r="AA63" s="261" t="str">
         <f>IF(B63="","",IF(Z63="","",IF(LEFT(Z63,1)="0",0,ROUND(Z63,0))))</f>
         <v/>
       </c>
@@ -8947,11 +8940,11 @@
       </c>
     </row>
     <row r="64" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="290"/>
-      <c r="B64" s="273"/>
-      <c r="C64" s="282"/>
-      <c r="D64" s="284"/>
-      <c r="E64" s="284"/>
+      <c r="A64" s="295"/>
+      <c r="B64" s="290"/>
+      <c r="C64" s="276"/>
+      <c r="D64" s="278"/>
+      <c r="E64" s="278"/>
       <c r="F64" s="195"/>
       <c r="G64" s="117"/>
       <c r="H64" s="117"/>
@@ -8980,12 +8973,12 @@
         <f>IF(B63="","",VLOOKUP(T64,'Notenschlüssel SAP'!$A$1:$B$61,2,FALSE))</f>
         <v/>
       </c>
-      <c r="V64" s="300"/>
-      <c r="W64" s="304"/>
-      <c r="X64" s="302"/>
-      <c r="Y64" s="306"/>
-      <c r="Z64" s="312"/>
-      <c r="AA64" s="314"/>
+      <c r="V64" s="274"/>
+      <c r="W64" s="271"/>
+      <c r="X64" s="270"/>
+      <c r="Y64" s="265"/>
+      <c r="Z64" s="260"/>
+      <c r="AA64" s="262"/>
       <c r="AB64" s="152" t="str">
         <f>IF(B63="","",ROUNDUP(AVERAGE(U64,U64,AA63),2))</f>
         <v/>
@@ -8996,23 +8989,23 @@
       </c>
     </row>
     <row r="65" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="278" t="str">
+      <c r="A65" s="292" t="str">
         <f>IF('Eingabe Jahresfortgang'!B35="","",MAX('Eingabe Abitur'!$A$11:'Eingabe Abitur'!A63)+1)</f>
         <v/>
       </c>
-      <c r="B65" s="276" t="str">
+      <c r="B65" s="287" t="str">
         <f>IF('Eingabe Jahresfortgang'!B35="","",'Eingabe Jahresfortgang'!B35)</f>
         <v/>
       </c>
-      <c r="C65" s="287" t="str">
+      <c r="C65" s="279" t="str">
         <f>'Eingabe Jahresfortgang'!Q35</f>
         <v/>
       </c>
-      <c r="D65" s="293" t="str">
+      <c r="D65" s="281" t="str">
         <f>'Eingabe Jahresfortgang'!R35</f>
         <v/>
       </c>
-      <c r="E65" s="293" t="str">
+      <c r="E65" s="281" t="str">
         <f>'Eingabe Jahresfortgang'!S35</f>
         <v/>
       </c>
@@ -9044,18 +9037,18 @@
         <f>IF(B65="","",VLOOKUP(T65,'Notenschlüssel SAP'!$A$1:$B$61,2,FALSE))</f>
         <v/>
       </c>
-      <c r="V65" s="299"/>
-      <c r="W65" s="303"/>
-      <c r="X65" s="301"/>
-      <c r="Y65" s="305" t="str">
+      <c r="V65" s="272"/>
+      <c r="W65" s="268"/>
+      <c r="X65" s="266"/>
+      <c r="Y65" s="263" t="str">
         <f>IF(B65="","",SUM(V65:X65))</f>
         <v/>
       </c>
-      <c r="Z65" s="311" t="str">
+      <c r="Z65" s="259" t="str">
         <f>IF(B65="","",IF(ISBLANK(V65),"",IF(AVERAGE(V65:X65)&lt;10,LEFT(AVERAGE(V65:X65),4),LEFT(AVERAGE(V65:X65),5))))</f>
         <v/>
       </c>
-      <c r="AA65" s="313" t="str">
+      <c r="AA65" s="261" t="str">
         <f>IF(B65="","",IF(Z65="","",IF(LEFT(Z65,1)="0",0,ROUND(Z65,0))))</f>
         <v/>
       </c>
@@ -9069,11 +9062,11 @@
       </c>
     </row>
     <row r="66" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="279"/>
-      <c r="B66" s="277"/>
-      <c r="C66" s="288"/>
-      <c r="D66" s="294"/>
-      <c r="E66" s="294"/>
+      <c r="A66" s="293"/>
+      <c r="B66" s="288"/>
+      <c r="C66" s="283"/>
+      <c r="D66" s="284"/>
+      <c r="E66" s="284"/>
       <c r="F66" s="195"/>
       <c r="G66" s="117"/>
       <c r="H66" s="117"/>
@@ -9102,12 +9095,12 @@
         <f>IF(B65="","",VLOOKUP(T66,'Notenschlüssel SAP'!$A$1:$B$61,2,FALSE))</f>
         <v/>
       </c>
-      <c r="V66" s="300"/>
-      <c r="W66" s="304"/>
-      <c r="X66" s="302"/>
-      <c r="Y66" s="306"/>
-      <c r="Z66" s="312"/>
-      <c r="AA66" s="314"/>
+      <c r="V66" s="274"/>
+      <c r="W66" s="271"/>
+      <c r="X66" s="270"/>
+      <c r="Y66" s="265"/>
+      <c r="Z66" s="260"/>
+      <c r="AA66" s="262"/>
       <c r="AB66" s="152" t="str">
         <f>IF(B65="","",ROUNDUP(AVERAGE(U66,U66,AA65),2))</f>
         <v/>
@@ -9118,23 +9111,23 @@
       </c>
     </row>
     <row r="67" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="289" t="str">
+      <c r="A67" s="294" t="str">
         <f>IF('Eingabe Jahresfortgang'!B36="","",MAX('Eingabe Abitur'!$A$11:'Eingabe Abitur'!A65)+1)</f>
         <v/>
       </c>
-      <c r="B67" s="272" t="str">
+      <c r="B67" s="289" t="str">
         <f>IF('Eingabe Jahresfortgang'!B36="","",'Eingabe Jahresfortgang'!B36)</f>
         <v/>
       </c>
-      <c r="C67" s="281" t="str">
+      <c r="C67" s="275" t="str">
         <f>'Eingabe Jahresfortgang'!Q36</f>
         <v/>
       </c>
-      <c r="D67" s="283" t="str">
+      <c r="D67" s="277" t="str">
         <f>'Eingabe Jahresfortgang'!R36</f>
         <v/>
       </c>
-      <c r="E67" s="283" t="str">
+      <c r="E67" s="277" t="str">
         <f>'Eingabe Jahresfortgang'!S36</f>
         <v/>
       </c>
@@ -9166,18 +9159,18 @@
         <f>IF(B67="","",VLOOKUP(T67,'Notenschlüssel SAP'!$A$1:$B$61,2,FALSE))</f>
         <v/>
       </c>
-      <c r="V67" s="299"/>
-      <c r="W67" s="303"/>
-      <c r="X67" s="301"/>
-      <c r="Y67" s="305" t="str">
+      <c r="V67" s="272"/>
+      <c r="W67" s="268"/>
+      <c r="X67" s="266"/>
+      <c r="Y67" s="263" t="str">
         <f>IF(B67="","",SUM(V67:X67))</f>
         <v/>
       </c>
-      <c r="Z67" s="311" t="str">
+      <c r="Z67" s="259" t="str">
         <f>IF(B67="","",IF(ISBLANK(V67),"",IF(AVERAGE(V67:X67)&lt;10,LEFT(AVERAGE(V67:X67),4),LEFT(AVERAGE(V67:X67),5))))</f>
         <v/>
       </c>
-      <c r="AA67" s="313" t="str">
+      <c r="AA67" s="261" t="str">
         <f>IF(B67="","",IF(Z67="","",IF(LEFT(Z67,1)="0",0,ROUND(Z67,0))))</f>
         <v/>
       </c>
@@ -9191,11 +9184,11 @@
       </c>
     </row>
     <row r="68" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="290"/>
-      <c r="B68" s="273"/>
-      <c r="C68" s="282"/>
-      <c r="D68" s="284"/>
-      <c r="E68" s="284"/>
+      <c r="A68" s="295"/>
+      <c r="B68" s="290"/>
+      <c r="C68" s="276"/>
+      <c r="D68" s="278"/>
+      <c r="E68" s="278"/>
       <c r="F68" s="195"/>
       <c r="G68" s="117"/>
       <c r="H68" s="117"/>
@@ -9224,12 +9217,12 @@
         <f>IF(B67="","",VLOOKUP(T68,'Notenschlüssel SAP'!$A$1:$B$61,2,FALSE))</f>
         <v/>
       </c>
-      <c r="V68" s="300"/>
-      <c r="W68" s="304"/>
-      <c r="X68" s="302"/>
-      <c r="Y68" s="306"/>
-      <c r="Z68" s="312"/>
-      <c r="AA68" s="314"/>
+      <c r="V68" s="274"/>
+      <c r="W68" s="271"/>
+      <c r="X68" s="270"/>
+      <c r="Y68" s="265"/>
+      <c r="Z68" s="260"/>
+      <c r="AA68" s="262"/>
       <c r="AB68" s="152" t="str">
         <f>IF(B67="","",ROUNDUP(AVERAGE(U68,U68,AA67),2))</f>
         <v/>
@@ -9240,23 +9233,23 @@
       </c>
     </row>
     <row r="69" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="278" t="str">
+      <c r="A69" s="292" t="str">
         <f>IF('Eingabe Jahresfortgang'!B37="","",MAX('Eingabe Abitur'!$A$11:'Eingabe Abitur'!A67)+1)</f>
         <v/>
       </c>
-      <c r="B69" s="276" t="str">
+      <c r="B69" s="287" t="str">
         <f>IF('Eingabe Jahresfortgang'!B37="","",'Eingabe Jahresfortgang'!B37)</f>
         <v/>
       </c>
-      <c r="C69" s="287" t="str">
+      <c r="C69" s="279" t="str">
         <f>'Eingabe Jahresfortgang'!Q37</f>
         <v/>
       </c>
-      <c r="D69" s="293" t="str">
+      <c r="D69" s="281" t="str">
         <f>'Eingabe Jahresfortgang'!R37</f>
         <v/>
       </c>
-      <c r="E69" s="293" t="str">
+      <c r="E69" s="281" t="str">
         <f>'Eingabe Jahresfortgang'!S37</f>
         <v/>
       </c>
@@ -9288,18 +9281,18 @@
         <f>IF(B69="","",VLOOKUP(T69,'Notenschlüssel SAP'!$A$1:$B$61,2,FALSE))</f>
         <v/>
       </c>
-      <c r="V69" s="299"/>
-      <c r="W69" s="303"/>
-      <c r="X69" s="301"/>
-      <c r="Y69" s="305" t="str">
+      <c r="V69" s="272"/>
+      <c r="W69" s="268"/>
+      <c r="X69" s="266"/>
+      <c r="Y69" s="263" t="str">
         <f>IF(B69="","",SUM(V69:X69))</f>
         <v/>
       </c>
-      <c r="Z69" s="311" t="str">
+      <c r="Z69" s="259" t="str">
         <f>IF(B69="","",IF(ISBLANK(V69),"",IF(AVERAGE(V69:X69)&lt;10,LEFT(AVERAGE(V69:X69),4),LEFT(AVERAGE(V69:X69),5))))</f>
         <v/>
       </c>
-      <c r="AA69" s="313" t="str">
+      <c r="AA69" s="261" t="str">
         <f>IF(B69="","",IF(Z69="","",IF(LEFT(Z69,1)="0",0,ROUND(Z69,0))))</f>
         <v/>
       </c>
@@ -9313,11 +9306,11 @@
       </c>
     </row>
     <row r="70" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="279"/>
-      <c r="B70" s="277"/>
-      <c r="C70" s="288"/>
-      <c r="D70" s="294"/>
-      <c r="E70" s="294"/>
+      <c r="A70" s="293"/>
+      <c r="B70" s="288"/>
+      <c r="C70" s="283"/>
+      <c r="D70" s="284"/>
+      <c r="E70" s="284"/>
       <c r="F70" s="195"/>
       <c r="G70" s="117"/>
       <c r="H70" s="117"/>
@@ -9346,12 +9339,12 @@
         <f>IF(B69="","",VLOOKUP(T70,'Notenschlüssel SAP'!$A$1:$B$61,2,FALSE))</f>
         <v/>
       </c>
-      <c r="V70" s="300"/>
-      <c r="W70" s="304"/>
-      <c r="X70" s="302"/>
-      <c r="Y70" s="306"/>
-      <c r="Z70" s="312"/>
-      <c r="AA70" s="314"/>
+      <c r="V70" s="274"/>
+      <c r="W70" s="271"/>
+      <c r="X70" s="270"/>
+      <c r="Y70" s="265"/>
+      <c r="Z70" s="260"/>
+      <c r="AA70" s="262"/>
       <c r="AB70" s="152" t="str">
         <f>IF(B69="","",ROUNDUP(AVERAGE(U70,U70,AA69),2))</f>
         <v/>
@@ -9362,23 +9355,23 @@
       </c>
     </row>
     <row r="71" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="289" t="str">
+      <c r="A71" s="294" t="str">
         <f>IF('Eingabe Jahresfortgang'!B38="","",MAX('Eingabe Abitur'!$A$11:'Eingabe Abitur'!A69)+1)</f>
         <v/>
       </c>
-      <c r="B71" s="272" t="str">
+      <c r="B71" s="289" t="str">
         <f>IF('Eingabe Jahresfortgang'!B38="","",'Eingabe Jahresfortgang'!B38)</f>
         <v/>
       </c>
-      <c r="C71" s="281" t="str">
+      <c r="C71" s="275" t="str">
         <f>'Eingabe Jahresfortgang'!Q38</f>
         <v/>
       </c>
-      <c r="D71" s="283" t="str">
+      <c r="D71" s="277" t="str">
         <f>'Eingabe Jahresfortgang'!R38</f>
         <v/>
       </c>
-      <c r="E71" s="283" t="str">
+      <c r="E71" s="277" t="str">
         <f>'Eingabe Jahresfortgang'!S38</f>
         <v/>
       </c>
@@ -9410,18 +9403,18 @@
         <f>IF(B71="","",VLOOKUP(T71,'Notenschlüssel SAP'!$A$1:$B$61,2,FALSE))</f>
         <v/>
       </c>
-      <c r="V71" s="299"/>
-      <c r="W71" s="303"/>
-      <c r="X71" s="301"/>
-      <c r="Y71" s="305" t="str">
+      <c r="V71" s="272"/>
+      <c r="W71" s="268"/>
+      <c r="X71" s="266"/>
+      <c r="Y71" s="263" t="str">
         <f>IF(B71="","",SUM(V71:X71))</f>
         <v/>
       </c>
-      <c r="Z71" s="311" t="str">
+      <c r="Z71" s="259" t="str">
         <f>IF(B71="","",IF(ISBLANK(V71),"",IF(AVERAGE(V71:X71)&lt;10,LEFT(AVERAGE(V71:X71),4),LEFT(AVERAGE(V71:X71),5))))</f>
         <v/>
       </c>
-      <c r="AA71" s="313" t="str">
+      <c r="AA71" s="261" t="str">
         <f>IF(B71="","",IF(Z71="","",IF(LEFT(Z71,1)="0",0,ROUND(Z71,0))))</f>
         <v/>
       </c>
@@ -9435,11 +9428,11 @@
       </c>
     </row>
     <row r="72" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="290"/>
-      <c r="B72" s="273"/>
-      <c r="C72" s="282"/>
-      <c r="D72" s="284"/>
-      <c r="E72" s="284"/>
+      <c r="A72" s="295"/>
+      <c r="B72" s="290"/>
+      <c r="C72" s="276"/>
+      <c r="D72" s="278"/>
+      <c r="E72" s="278"/>
       <c r="F72" s="195"/>
       <c r="G72" s="117"/>
       <c r="H72" s="117"/>
@@ -9468,12 +9461,12 @@
         <f>IF(B71="","",VLOOKUP(T72,'Notenschlüssel SAP'!$A$1:$B$61,2,FALSE))</f>
         <v/>
       </c>
-      <c r="V72" s="300"/>
-      <c r="W72" s="304"/>
-      <c r="X72" s="302"/>
-      <c r="Y72" s="306"/>
-      <c r="Z72" s="312"/>
-      <c r="AA72" s="314"/>
+      <c r="V72" s="274"/>
+      <c r="W72" s="271"/>
+      <c r="X72" s="270"/>
+      <c r="Y72" s="265"/>
+      <c r="Z72" s="260"/>
+      <c r="AA72" s="262"/>
       <c r="AB72" s="152" t="str">
         <f>IF(B71="","",ROUNDUP(AVERAGE(U72,U72,AA71),2))</f>
         <v/>
@@ -9484,23 +9477,23 @@
       </c>
     </row>
     <row r="73" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="278" t="str">
+      <c r="A73" s="292" t="str">
         <f>IF('Eingabe Jahresfortgang'!B39="","",MAX('Eingabe Abitur'!$A$11:'Eingabe Abitur'!A71)+1)</f>
         <v/>
       </c>
-      <c r="B73" s="276" t="str">
+      <c r="B73" s="287" t="str">
         <f>IF('Eingabe Jahresfortgang'!B39="","",'Eingabe Jahresfortgang'!B39)</f>
         <v/>
       </c>
-      <c r="C73" s="287" t="str">
+      <c r="C73" s="279" t="str">
         <f>'Eingabe Jahresfortgang'!Q39</f>
         <v/>
       </c>
-      <c r="D73" s="293" t="str">
+      <c r="D73" s="281" t="str">
         <f>'Eingabe Jahresfortgang'!R39</f>
         <v/>
       </c>
-      <c r="E73" s="293" t="str">
+      <c r="E73" s="281" t="str">
         <f>'Eingabe Jahresfortgang'!S39</f>
         <v/>
       </c>
@@ -9532,18 +9525,18 @@
         <f>IF(B73="","",VLOOKUP(T73,'Notenschlüssel SAP'!$A$1:$B$61,2,FALSE))</f>
         <v/>
       </c>
-      <c r="V73" s="299"/>
-      <c r="W73" s="303"/>
-      <c r="X73" s="301"/>
-      <c r="Y73" s="305" t="str">
+      <c r="V73" s="272"/>
+      <c r="W73" s="268"/>
+      <c r="X73" s="266"/>
+      <c r="Y73" s="263" t="str">
         <f>IF(B73="","",SUM(V73:X73))</f>
         <v/>
       </c>
-      <c r="Z73" s="311" t="str">
+      <c r="Z73" s="259" t="str">
         <f>IF(B73="","",IF(ISBLANK(V73),"",IF(AVERAGE(V73:X73)&lt;10,LEFT(AVERAGE(V73:X73),4),LEFT(AVERAGE(V73:X73),5))))</f>
         <v/>
       </c>
-      <c r="AA73" s="313" t="str">
+      <c r="AA73" s="261" t="str">
         <f>IF(B73="","",IF(Z73="","",IF(LEFT(Z73,1)="0",0,ROUND(Z73,0))))</f>
         <v/>
       </c>
@@ -9557,11 +9550,11 @@
       </c>
     </row>
     <row r="74" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="279"/>
-      <c r="B74" s="277"/>
-      <c r="C74" s="288"/>
-      <c r="D74" s="294"/>
-      <c r="E74" s="294"/>
+      <c r="A74" s="293"/>
+      <c r="B74" s="288"/>
+      <c r="C74" s="283"/>
+      <c r="D74" s="284"/>
+      <c r="E74" s="284"/>
       <c r="F74" s="195"/>
       <c r="G74" s="117"/>
       <c r="H74" s="117"/>
@@ -9590,12 +9583,12 @@
         <f>IF(B73="","",VLOOKUP(T74,'Notenschlüssel SAP'!$A$1:$B$61,2,FALSE))</f>
         <v/>
       </c>
-      <c r="V74" s="300"/>
-      <c r="W74" s="304"/>
-      <c r="X74" s="302"/>
-      <c r="Y74" s="306"/>
-      <c r="Z74" s="312"/>
-      <c r="AA74" s="314"/>
+      <c r="V74" s="274"/>
+      <c r="W74" s="271"/>
+      <c r="X74" s="270"/>
+      <c r="Y74" s="265"/>
+      <c r="Z74" s="260"/>
+      <c r="AA74" s="262"/>
       <c r="AB74" s="152" t="str">
         <f>IF(B73="","",ROUNDUP(AVERAGE(U74,U74,AA73),2))</f>
         <v/>
@@ -9606,23 +9599,23 @@
       </c>
     </row>
     <row r="75" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="289" t="str">
+      <c r="A75" s="294" t="str">
         <f>IF('Eingabe Jahresfortgang'!B40="","",MAX('Eingabe Abitur'!$A$11:'Eingabe Abitur'!A73)+1)</f>
         <v/>
       </c>
-      <c r="B75" s="272" t="str">
+      <c r="B75" s="289" t="str">
         <f>IF('Eingabe Jahresfortgang'!B40="","",'Eingabe Jahresfortgang'!B40)</f>
         <v/>
       </c>
-      <c r="C75" s="281" t="str">
+      <c r="C75" s="275" t="str">
         <f>'Eingabe Jahresfortgang'!Q40</f>
         <v/>
       </c>
-      <c r="D75" s="283" t="str">
+      <c r="D75" s="277" t="str">
         <f>'Eingabe Jahresfortgang'!R40</f>
         <v/>
       </c>
-      <c r="E75" s="283" t="str">
+      <c r="E75" s="277" t="str">
         <f>'Eingabe Jahresfortgang'!S40</f>
         <v/>
       </c>
@@ -9654,18 +9647,18 @@
         <f>IF(B75="","",VLOOKUP(T75,'Notenschlüssel SAP'!$A$1:$B$61,2,FALSE))</f>
         <v/>
       </c>
-      <c r="V75" s="299"/>
-      <c r="W75" s="303"/>
-      <c r="X75" s="301"/>
-      <c r="Y75" s="305" t="str">
+      <c r="V75" s="272"/>
+      <c r="W75" s="268"/>
+      <c r="X75" s="266"/>
+      <c r="Y75" s="263" t="str">
         <f>IF(B75="","",SUM(V75:X75))</f>
         <v/>
       </c>
-      <c r="Z75" s="311" t="str">
+      <c r="Z75" s="259" t="str">
         <f>IF(B75="","",IF(ISBLANK(V75),"",IF(AVERAGE(V75:X75)&lt;10,LEFT(AVERAGE(V75:X75),4),LEFT(AVERAGE(V75:X75),5))))</f>
         <v/>
       </c>
-      <c r="AA75" s="313" t="str">
+      <c r="AA75" s="261" t="str">
         <f>IF(B75="","",IF(Z75="","",IF(LEFT(Z75,1)="0",0,ROUND(Z75,0))))</f>
         <v/>
       </c>
@@ -9679,11 +9672,11 @@
       </c>
     </row>
     <row r="76" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="290"/>
-      <c r="B76" s="273"/>
-      <c r="C76" s="282"/>
-      <c r="D76" s="284"/>
-      <c r="E76" s="284"/>
+      <c r="A76" s="295"/>
+      <c r="B76" s="290"/>
+      <c r="C76" s="276"/>
+      <c r="D76" s="278"/>
+      <c r="E76" s="278"/>
       <c r="F76" s="195"/>
       <c r="G76" s="117"/>
       <c r="H76" s="117"/>
@@ -9712,12 +9705,12 @@
         <f>IF(B75="","",VLOOKUP(T76,'Notenschlüssel SAP'!$A$1:$B$61,2,FALSE))</f>
         <v/>
       </c>
-      <c r="V76" s="300"/>
-      <c r="W76" s="304"/>
-      <c r="X76" s="302"/>
-      <c r="Y76" s="306"/>
-      <c r="Z76" s="312"/>
-      <c r="AA76" s="314"/>
+      <c r="V76" s="274"/>
+      <c r="W76" s="271"/>
+      <c r="X76" s="270"/>
+      <c r="Y76" s="265"/>
+      <c r="Z76" s="260"/>
+      <c r="AA76" s="262"/>
       <c r="AB76" s="152" t="str">
         <f>IF(B75="","",ROUNDUP(AVERAGE(U76,U76,AA75),2))</f>
         <v/>
@@ -9728,23 +9721,23 @@
       </c>
     </row>
     <row r="77" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="278" t="str">
+      <c r="A77" s="292" t="str">
         <f>IF('Eingabe Jahresfortgang'!B41="","",MAX('Eingabe Abitur'!$A$11:'Eingabe Abitur'!A75)+1)</f>
         <v/>
       </c>
-      <c r="B77" s="276" t="str">
+      <c r="B77" s="287" t="str">
         <f>IF('Eingabe Jahresfortgang'!B41="","",'Eingabe Jahresfortgang'!B41)</f>
         <v/>
       </c>
-      <c r="C77" s="287" t="str">
+      <c r="C77" s="279" t="str">
         <f>'Eingabe Jahresfortgang'!Q41</f>
         <v/>
       </c>
-      <c r="D77" s="293" t="str">
+      <c r="D77" s="281" t="str">
         <f>'Eingabe Jahresfortgang'!R41</f>
         <v/>
       </c>
-      <c r="E77" s="293" t="str">
+      <c r="E77" s="281" t="str">
         <f>'Eingabe Jahresfortgang'!S41</f>
         <v/>
       </c>
@@ -9776,18 +9769,18 @@
         <f>IF(B77="","",VLOOKUP(T77,'Notenschlüssel SAP'!$A$1:$B$61,2,FALSE))</f>
         <v/>
       </c>
-      <c r="V77" s="299"/>
-      <c r="W77" s="303"/>
-      <c r="X77" s="301"/>
-      <c r="Y77" s="305" t="str">
+      <c r="V77" s="272"/>
+      <c r="W77" s="268"/>
+      <c r="X77" s="266"/>
+      <c r="Y77" s="263" t="str">
         <f>IF(B77="","",SUM(V77:X77))</f>
         <v/>
       </c>
-      <c r="Z77" s="311" t="str">
+      <c r="Z77" s="259" t="str">
         <f>IF(B77="","",IF(ISBLANK(V77),"",IF(AVERAGE(V77:X77)&lt;10,LEFT(AVERAGE(V77:X77),4),LEFT(AVERAGE(V77:X77),5))))</f>
         <v/>
       </c>
-      <c r="AA77" s="313" t="str">
+      <c r="AA77" s="261" t="str">
         <f>IF(B77="","",IF(Z77="","",IF(LEFT(Z77,1)="0",0,ROUND(Z77,0))))</f>
         <v/>
       </c>
@@ -9801,11 +9794,11 @@
       </c>
     </row>
     <row r="78" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="279"/>
-      <c r="B78" s="292"/>
-      <c r="C78" s="297"/>
-      <c r="D78" s="298"/>
-      <c r="E78" s="298"/>
+      <c r="A78" s="293"/>
+      <c r="B78" s="291"/>
+      <c r="C78" s="280"/>
+      <c r="D78" s="282"/>
+      <c r="E78" s="282"/>
       <c r="F78" s="195"/>
       <c r="G78" s="117"/>
       <c r="H78" s="117"/>
@@ -9834,12 +9827,12 @@
         <f>IF(B77="","",VLOOKUP(T78,'Notenschlüssel SAP'!$A$1:$B$61,2,FALSE))</f>
         <v/>
       </c>
-      <c r="V78" s="307"/>
-      <c r="W78" s="308"/>
-      <c r="X78" s="309"/>
-      <c r="Y78" s="310"/>
-      <c r="Z78" s="312"/>
-      <c r="AA78" s="314"/>
+      <c r="V78" s="273"/>
+      <c r="W78" s="269"/>
+      <c r="X78" s="267"/>
+      <c r="Y78" s="264"/>
+      <c r="Z78" s="260"/>
+      <c r="AA78" s="262"/>
       <c r="AB78" s="157" t="str">
         <f>IF(B77="","",ROUNDUP(AVERAGE(U78,U78,AA77),2))</f>
         <v/>
@@ -9850,23 +9843,23 @@
       </c>
     </row>
     <row r="79" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="289" t="str">
+      <c r="A79" s="294" t="str">
         <f>IF('Eingabe Jahresfortgang'!B42="","",MAX('Eingabe Abitur'!$A$11:'Eingabe Abitur'!A77)+1)</f>
         <v/>
       </c>
-      <c r="B79" s="272" t="str">
+      <c r="B79" s="289" t="str">
         <f>IF('Eingabe Jahresfortgang'!B42="","",'Eingabe Jahresfortgang'!B42)</f>
         <v/>
       </c>
-      <c r="C79" s="281" t="str">
+      <c r="C79" s="275" t="str">
         <f>'Eingabe Jahresfortgang'!Q42</f>
         <v/>
       </c>
-      <c r="D79" s="283" t="str">
+      <c r="D79" s="277" t="str">
         <f>'Eingabe Jahresfortgang'!R42</f>
         <v/>
       </c>
-      <c r="E79" s="283" t="str">
+      <c r="E79" s="277" t="str">
         <f>'Eingabe Jahresfortgang'!S42</f>
         <v/>
       </c>
@@ -9898,18 +9891,18 @@
         <f>IF(B79="","",VLOOKUP(T79,'Notenschlüssel SAP'!$A$1:$B$61,2,FALSE))</f>
         <v/>
       </c>
-      <c r="V79" s="299"/>
-      <c r="W79" s="303"/>
-      <c r="X79" s="301"/>
-      <c r="Y79" s="305" t="str">
+      <c r="V79" s="272"/>
+      <c r="W79" s="268"/>
+      <c r="X79" s="266"/>
+      <c r="Y79" s="263" t="str">
         <f>IF(B79="","",SUM(V79:X79))</f>
         <v/>
       </c>
-      <c r="Z79" s="311" t="str">
+      <c r="Z79" s="259" t="str">
         <f>IF(B79="","",IF(ISBLANK(V79),"",IF(AVERAGE(V79:X79)&lt;10,LEFT(AVERAGE(V79:X79),4),LEFT(AVERAGE(V79:X79),5))))</f>
         <v/>
       </c>
-      <c r="AA79" s="313" t="str">
+      <c r="AA79" s="261" t="str">
         <f>IF(B79="","",IF(Z79="","",IF(LEFT(Z79,1)="0",0,ROUND(Z79,0))))</f>
         <v/>
       </c>
@@ -9923,11 +9916,11 @@
       </c>
     </row>
     <row r="80" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="290"/>
-      <c r="B80" s="273"/>
-      <c r="C80" s="282"/>
-      <c r="D80" s="284"/>
-      <c r="E80" s="284"/>
+      <c r="A80" s="295"/>
+      <c r="B80" s="290"/>
+      <c r="C80" s="276"/>
+      <c r="D80" s="278"/>
+      <c r="E80" s="278"/>
       <c r="F80" s="196"/>
       <c r="G80" s="129"/>
       <c r="H80" s="129"/>
@@ -9956,12 +9949,12 @@
         <f>IF(B79="","",VLOOKUP(T80,'Notenschlüssel SAP'!$A$1:$B$61,2,FALSE))</f>
         <v/>
       </c>
-      <c r="V80" s="300"/>
-      <c r="W80" s="304"/>
-      <c r="X80" s="302"/>
-      <c r="Y80" s="306"/>
-      <c r="Z80" s="312"/>
-      <c r="AA80" s="314"/>
+      <c r="V80" s="274"/>
+      <c r="W80" s="271"/>
+      <c r="X80" s="270"/>
+      <c r="Y80" s="265"/>
+      <c r="Z80" s="260"/>
+      <c r="AA80" s="262"/>
       <c r="AB80" s="152" t="str">
         <f>IF(B79="","",ROUNDUP(AVERAGE(U80,U80,AA79),2))</f>
         <v/>
@@ -10061,66 +10054,320 @@
       <c r="AC83" s="161"/>
     </row>
   </sheetData>
-  <sheetProtection password="" sheet="1" selectLockedCells="1"/>
+  <sheetProtection sheet="1" selectLockedCells="1"/>
   <mergeCells count="394">
-    <mergeCell ref="Z79:Z80"/>
-    <mergeCell ref="AA79:AA80"/>
-    <mergeCell ref="Z75:Z76"/>
-    <mergeCell ref="AA75:AA76"/>
-    <mergeCell ref="Z77:Z78"/>
-    <mergeCell ref="AA77:AA78"/>
-    <mergeCell ref="Z71:Z72"/>
-    <mergeCell ref="AA71:AA72"/>
-    <mergeCell ref="Z73:Z74"/>
-    <mergeCell ref="AA73:AA74"/>
-    <mergeCell ref="Z67:Z68"/>
-    <mergeCell ref="AA67:AA68"/>
-    <mergeCell ref="Z69:Z70"/>
-    <mergeCell ref="AA69:AA70"/>
-    <mergeCell ref="Z63:Z64"/>
-    <mergeCell ref="AA63:AA64"/>
-    <mergeCell ref="Z65:Z66"/>
-    <mergeCell ref="AA65:AA66"/>
-    <mergeCell ref="Z59:Z60"/>
-    <mergeCell ref="AA59:AA60"/>
-    <mergeCell ref="Z61:Z62"/>
-    <mergeCell ref="AA61:AA62"/>
-    <mergeCell ref="Z55:Z56"/>
-    <mergeCell ref="AA55:AA56"/>
-    <mergeCell ref="Z57:Z58"/>
-    <mergeCell ref="AA57:AA58"/>
-    <mergeCell ref="Z51:Z52"/>
-    <mergeCell ref="AA51:AA52"/>
-    <mergeCell ref="Z53:Z54"/>
-    <mergeCell ref="AA53:AA54"/>
-    <mergeCell ref="Z47:Z48"/>
-    <mergeCell ref="AA47:AA48"/>
-    <mergeCell ref="Z49:Z50"/>
-    <mergeCell ref="AA49:AA50"/>
-    <mergeCell ref="Z43:Z44"/>
-    <mergeCell ref="AA43:AA44"/>
-    <mergeCell ref="Z45:Z46"/>
-    <mergeCell ref="AA45:AA46"/>
-    <mergeCell ref="Z39:Z40"/>
-    <mergeCell ref="AA39:AA40"/>
-    <mergeCell ref="Z41:Z42"/>
-    <mergeCell ref="AA41:AA42"/>
-    <mergeCell ref="Z35:Z36"/>
-    <mergeCell ref="AA35:AA36"/>
-    <mergeCell ref="Z37:Z38"/>
-    <mergeCell ref="AA37:AA38"/>
-    <mergeCell ref="Z31:Z32"/>
-    <mergeCell ref="AA31:AA32"/>
-    <mergeCell ref="Z33:Z34"/>
-    <mergeCell ref="AA33:AA34"/>
-    <mergeCell ref="Z27:Z28"/>
-    <mergeCell ref="AA27:AA28"/>
-    <mergeCell ref="Z29:Z30"/>
-    <mergeCell ref="AA29:AA30"/>
-    <mergeCell ref="Z23:Z24"/>
-    <mergeCell ref="AA23:AA24"/>
-    <mergeCell ref="Z25:Z26"/>
-    <mergeCell ref="AA25:AA26"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="V6:AA6"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F7:M7"/>
+    <mergeCell ref="N7:S7"/>
+    <mergeCell ref="V7:Y7"/>
+    <mergeCell ref="F6:U6"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="V11:V12"/>
+    <mergeCell ref="V13:V14"/>
+    <mergeCell ref="V15:V16"/>
+    <mergeCell ref="V17:V18"/>
+    <mergeCell ref="V49:V50"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="W21:W22"/>
+    <mergeCell ref="V21:V22"/>
+    <mergeCell ref="V23:V24"/>
+    <mergeCell ref="W23:W24"/>
+    <mergeCell ref="X23:X24"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="X19:X20"/>
+    <mergeCell ref="Y15:Y16"/>
+    <mergeCell ref="Y17:Y18"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="W15:W16"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="W17:W18"/>
+    <mergeCell ref="W11:W12"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="W13:W14"/>
+    <mergeCell ref="W29:W30"/>
+    <mergeCell ref="V31:V32"/>
+    <mergeCell ref="W31:W32"/>
+    <mergeCell ref="X31:X32"/>
+    <mergeCell ref="V29:V30"/>
+    <mergeCell ref="X25:X26"/>
+    <mergeCell ref="W25:W26"/>
+    <mergeCell ref="V25:V26"/>
+    <mergeCell ref="V27:V28"/>
+    <mergeCell ref="W27:W28"/>
+    <mergeCell ref="X27:X28"/>
+    <mergeCell ref="W37:W38"/>
+    <mergeCell ref="V37:V38"/>
+    <mergeCell ref="V39:V40"/>
+    <mergeCell ref="W39:W40"/>
+    <mergeCell ref="X39:X40"/>
+    <mergeCell ref="X33:X34"/>
+    <mergeCell ref="W33:W34"/>
+    <mergeCell ref="V33:V34"/>
+    <mergeCell ref="V35:V36"/>
+    <mergeCell ref="W35:W36"/>
+    <mergeCell ref="X35:X36"/>
+    <mergeCell ref="W45:W46"/>
+    <mergeCell ref="V45:V46"/>
+    <mergeCell ref="V47:V48"/>
+    <mergeCell ref="X47:X48"/>
+    <mergeCell ref="W47:W48"/>
+    <mergeCell ref="X41:X42"/>
+    <mergeCell ref="W41:W42"/>
+    <mergeCell ref="V41:V42"/>
+    <mergeCell ref="V43:V44"/>
+    <mergeCell ref="W43:W44"/>
+    <mergeCell ref="X43:X44"/>
+    <mergeCell ref="W53:W54"/>
+    <mergeCell ref="V53:V54"/>
+    <mergeCell ref="V55:V56"/>
+    <mergeCell ref="W55:W56"/>
+    <mergeCell ref="X55:X56"/>
+    <mergeCell ref="W49:W50"/>
+    <mergeCell ref="X49:X50"/>
+    <mergeCell ref="V51:V52"/>
+    <mergeCell ref="W51:W52"/>
+    <mergeCell ref="X51:X52"/>
+    <mergeCell ref="V61:V62"/>
+    <mergeCell ref="V63:V64"/>
+    <mergeCell ref="W63:W64"/>
+    <mergeCell ref="X63:X64"/>
+    <mergeCell ref="X57:X58"/>
+    <mergeCell ref="W57:W58"/>
+    <mergeCell ref="V57:V58"/>
+    <mergeCell ref="V59:V60"/>
+    <mergeCell ref="W59:W60"/>
+    <mergeCell ref="X59:X60"/>
+    <mergeCell ref="W77:W78"/>
+    <mergeCell ref="X69:X70"/>
+    <mergeCell ref="W69:W70"/>
+    <mergeCell ref="X61:X62"/>
+    <mergeCell ref="W61:W62"/>
+    <mergeCell ref="V77:V78"/>
+    <mergeCell ref="V79:V80"/>
+    <mergeCell ref="W79:W80"/>
+    <mergeCell ref="X79:X80"/>
+    <mergeCell ref="X73:X74"/>
+    <mergeCell ref="W73:W74"/>
+    <mergeCell ref="V73:V74"/>
+    <mergeCell ref="V75:V76"/>
+    <mergeCell ref="W75:W76"/>
+    <mergeCell ref="X75:X76"/>
+    <mergeCell ref="V69:V70"/>
+    <mergeCell ref="V71:V72"/>
+    <mergeCell ref="W71:W72"/>
+    <mergeCell ref="X71:X72"/>
+    <mergeCell ref="X65:X66"/>
+    <mergeCell ref="W65:W66"/>
+    <mergeCell ref="V65:V66"/>
+    <mergeCell ref="V67:V68"/>
+    <mergeCell ref="W67:W68"/>
+    <mergeCell ref="Y29:Y30"/>
+    <mergeCell ref="Y31:Y32"/>
+    <mergeCell ref="Y33:Y34"/>
+    <mergeCell ref="Y35:Y36"/>
+    <mergeCell ref="Y21:Y22"/>
+    <mergeCell ref="Y23:Y24"/>
+    <mergeCell ref="Y25:Y26"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="X77:X78"/>
+    <mergeCell ref="X67:X68"/>
+    <mergeCell ref="X53:X54"/>
+    <mergeCell ref="X45:X46"/>
+    <mergeCell ref="X37:X38"/>
+    <mergeCell ref="X29:X30"/>
+    <mergeCell ref="X21:X22"/>
+    <mergeCell ref="Y57:Y58"/>
+    <mergeCell ref="Y59:Y60"/>
+    <mergeCell ref="Y45:Y46"/>
+    <mergeCell ref="Y47:Y48"/>
+    <mergeCell ref="Y49:Y50"/>
+    <mergeCell ref="Y51:Y52"/>
+    <mergeCell ref="Y37:Y38"/>
+    <mergeCell ref="Y39:Y40"/>
+    <mergeCell ref="Y41:Y42"/>
+    <mergeCell ref="Y43:Y44"/>
     <mergeCell ref="Z19:Z20"/>
     <mergeCell ref="AA19:AA20"/>
     <mergeCell ref="Z21:Z22"/>
@@ -10145,318 +10392,64 @@
     <mergeCell ref="Y67:Y68"/>
     <mergeCell ref="Y53:Y54"/>
     <mergeCell ref="Y55:Y56"/>
-    <mergeCell ref="Y57:Y58"/>
-    <mergeCell ref="Y59:Y60"/>
-    <mergeCell ref="Y45:Y46"/>
-    <mergeCell ref="Y47:Y48"/>
-    <mergeCell ref="Y49:Y50"/>
-    <mergeCell ref="Y51:Y52"/>
-    <mergeCell ref="Y37:Y38"/>
-    <mergeCell ref="Y39:Y40"/>
-    <mergeCell ref="Y41:Y42"/>
-    <mergeCell ref="Y43:Y44"/>
-    <mergeCell ref="Y29:Y30"/>
-    <mergeCell ref="Y31:Y32"/>
-    <mergeCell ref="Y33:Y34"/>
-    <mergeCell ref="Y35:Y36"/>
-    <mergeCell ref="Y21:Y22"/>
-    <mergeCell ref="Y23:Y24"/>
-    <mergeCell ref="Y25:Y26"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="X77:X78"/>
-    <mergeCell ref="W77:W78"/>
-    <mergeCell ref="X69:X70"/>
-    <mergeCell ref="W69:W70"/>
-    <mergeCell ref="X61:X62"/>
-    <mergeCell ref="W61:W62"/>
-    <mergeCell ref="V77:V78"/>
-    <mergeCell ref="V79:V80"/>
-    <mergeCell ref="W79:W80"/>
-    <mergeCell ref="X79:X80"/>
-    <mergeCell ref="X73:X74"/>
-    <mergeCell ref="W73:W74"/>
-    <mergeCell ref="V73:V74"/>
-    <mergeCell ref="V75:V76"/>
-    <mergeCell ref="W75:W76"/>
-    <mergeCell ref="X75:X76"/>
-    <mergeCell ref="V69:V70"/>
-    <mergeCell ref="V71:V72"/>
-    <mergeCell ref="W71:W72"/>
-    <mergeCell ref="X71:X72"/>
-    <mergeCell ref="X65:X66"/>
-    <mergeCell ref="W65:W66"/>
-    <mergeCell ref="V65:V66"/>
-    <mergeCell ref="V67:V68"/>
-    <mergeCell ref="W67:W68"/>
-    <mergeCell ref="X67:X68"/>
-    <mergeCell ref="V61:V62"/>
-    <mergeCell ref="V63:V64"/>
-    <mergeCell ref="W63:W64"/>
-    <mergeCell ref="X63:X64"/>
-    <mergeCell ref="X57:X58"/>
-    <mergeCell ref="W57:W58"/>
-    <mergeCell ref="V57:V58"/>
-    <mergeCell ref="V59:V60"/>
-    <mergeCell ref="W59:W60"/>
-    <mergeCell ref="X59:X60"/>
-    <mergeCell ref="X53:X54"/>
-    <mergeCell ref="W53:W54"/>
-    <mergeCell ref="V53:V54"/>
-    <mergeCell ref="V55:V56"/>
-    <mergeCell ref="W55:W56"/>
-    <mergeCell ref="X55:X56"/>
-    <mergeCell ref="W49:W50"/>
-    <mergeCell ref="X49:X50"/>
-    <mergeCell ref="V51:V52"/>
-    <mergeCell ref="W51:W52"/>
-    <mergeCell ref="X51:X52"/>
-    <mergeCell ref="X45:X46"/>
-    <mergeCell ref="W45:W46"/>
-    <mergeCell ref="V45:V46"/>
-    <mergeCell ref="V47:V48"/>
-    <mergeCell ref="X47:X48"/>
-    <mergeCell ref="W47:W48"/>
-    <mergeCell ref="X41:X42"/>
-    <mergeCell ref="W41:W42"/>
-    <mergeCell ref="V41:V42"/>
-    <mergeCell ref="V43:V44"/>
-    <mergeCell ref="W43:W44"/>
-    <mergeCell ref="X43:X44"/>
-    <mergeCell ref="X37:X38"/>
-    <mergeCell ref="W37:W38"/>
-    <mergeCell ref="V37:V38"/>
-    <mergeCell ref="V39:V40"/>
-    <mergeCell ref="W39:W40"/>
-    <mergeCell ref="X39:X40"/>
-    <mergeCell ref="X33:X34"/>
-    <mergeCell ref="W33:W34"/>
-    <mergeCell ref="V33:V34"/>
-    <mergeCell ref="V35:V36"/>
-    <mergeCell ref="W35:W36"/>
-    <mergeCell ref="X35:X36"/>
-    <mergeCell ref="X29:X30"/>
-    <mergeCell ref="W29:W30"/>
-    <mergeCell ref="V31:V32"/>
-    <mergeCell ref="W31:W32"/>
-    <mergeCell ref="X31:X32"/>
-    <mergeCell ref="V29:V30"/>
-    <mergeCell ref="X25:X26"/>
-    <mergeCell ref="W25:W26"/>
-    <mergeCell ref="V25:V26"/>
-    <mergeCell ref="V27:V28"/>
-    <mergeCell ref="W27:W28"/>
-    <mergeCell ref="X27:X28"/>
-    <mergeCell ref="X21:X22"/>
-    <mergeCell ref="W21:W22"/>
-    <mergeCell ref="V21:V22"/>
-    <mergeCell ref="V23:V24"/>
-    <mergeCell ref="W23:W24"/>
-    <mergeCell ref="X23:X24"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="X19:X20"/>
-    <mergeCell ref="Y15:Y16"/>
-    <mergeCell ref="Y17:Y18"/>
-    <mergeCell ref="Y19:Y20"/>
-    <mergeCell ref="W15:W16"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="W17:W18"/>
-    <mergeCell ref="W11:W12"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="W13:W14"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="V11:V12"/>
-    <mergeCell ref="V13:V14"/>
-    <mergeCell ref="V15:V16"/>
-    <mergeCell ref="V17:V18"/>
-    <mergeCell ref="V49:V50"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="V6:AA6"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F7:M7"/>
-    <mergeCell ref="N7:S7"/>
-    <mergeCell ref="V7:Y7"/>
-    <mergeCell ref="F6:U6"/>
+    <mergeCell ref="Z31:Z32"/>
+    <mergeCell ref="AA31:AA32"/>
+    <mergeCell ref="Z33:Z34"/>
+    <mergeCell ref="AA33:AA34"/>
+    <mergeCell ref="Z27:Z28"/>
+    <mergeCell ref="AA27:AA28"/>
+    <mergeCell ref="Z29:Z30"/>
+    <mergeCell ref="AA29:AA30"/>
+    <mergeCell ref="Z23:Z24"/>
+    <mergeCell ref="AA23:AA24"/>
+    <mergeCell ref="Z25:Z26"/>
+    <mergeCell ref="AA25:AA26"/>
+    <mergeCell ref="Z43:Z44"/>
+    <mergeCell ref="AA43:AA44"/>
+    <mergeCell ref="Z45:Z46"/>
+    <mergeCell ref="AA45:AA46"/>
+    <mergeCell ref="Z39:Z40"/>
+    <mergeCell ref="AA39:AA40"/>
+    <mergeCell ref="Z41:Z42"/>
+    <mergeCell ref="AA41:AA42"/>
+    <mergeCell ref="Z35:Z36"/>
+    <mergeCell ref="AA35:AA36"/>
+    <mergeCell ref="Z37:Z38"/>
+    <mergeCell ref="AA37:AA38"/>
+    <mergeCell ref="Z55:Z56"/>
+    <mergeCell ref="AA55:AA56"/>
+    <mergeCell ref="Z57:Z58"/>
+    <mergeCell ref="AA57:AA58"/>
+    <mergeCell ref="Z51:Z52"/>
+    <mergeCell ref="AA51:AA52"/>
+    <mergeCell ref="Z53:Z54"/>
+    <mergeCell ref="AA53:AA54"/>
+    <mergeCell ref="Z47:Z48"/>
+    <mergeCell ref="AA47:AA48"/>
+    <mergeCell ref="Z49:Z50"/>
+    <mergeCell ref="AA49:AA50"/>
+    <mergeCell ref="Z67:Z68"/>
+    <mergeCell ref="AA67:AA68"/>
+    <mergeCell ref="Z69:Z70"/>
+    <mergeCell ref="AA69:AA70"/>
+    <mergeCell ref="Z63:Z64"/>
+    <mergeCell ref="AA63:AA64"/>
+    <mergeCell ref="Z65:Z66"/>
+    <mergeCell ref="AA65:AA66"/>
+    <mergeCell ref="Z59:Z60"/>
+    <mergeCell ref="AA59:AA60"/>
+    <mergeCell ref="Z61:Z62"/>
+    <mergeCell ref="AA61:AA62"/>
+    <mergeCell ref="Z79:Z80"/>
+    <mergeCell ref="AA79:AA80"/>
+    <mergeCell ref="Z75:Z76"/>
+    <mergeCell ref="AA75:AA76"/>
+    <mergeCell ref="Z77:Z78"/>
+    <mergeCell ref="AA77:AA78"/>
+    <mergeCell ref="Z71:Z72"/>
+    <mergeCell ref="AA71:AA72"/>
+    <mergeCell ref="Z73:Z74"/>
+    <mergeCell ref="AA73:AA74"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="F65 F67 F69 F71 F73 F75 F77 F79 F59 F61 F63 F21 F23 F25 F27 F29 F31 F33 F35 F37 F39 F41 F43 F45 F47 F49 F57 F13 F15 F17 F19 F51 F53 F55 F11">
@@ -10718,50 +10711,50 @@
     </row>
     <row r="6" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="15"/>
-      <c r="C6" s="321" t="s">
+      <c r="C6" s="339" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="322"/>
-      <c r="E6" s="322"/>
-      <c r="F6" s="322"/>
-      <c r="G6" s="322"/>
-      <c r="H6" s="322"/>
-      <c r="I6" s="322"/>
-      <c r="J6" s="322"/>
-      <c r="K6" s="322"/>
-      <c r="L6" s="323"/>
+      <c r="D6" s="340"/>
+      <c r="E6" s="340"/>
+      <c r="F6" s="340"/>
+      <c r="G6" s="340"/>
+      <c r="H6" s="340"/>
+      <c r="I6" s="340"/>
+      <c r="J6" s="340"/>
+      <c r="K6" s="340"/>
+      <c r="L6" s="341"/>
     </row>
     <row r="7" spans="1:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="42"/>
-      <c r="C7" s="324"/>
-      <c r="D7" s="325"/>
-      <c r="E7" s="325"/>
-      <c r="F7" s="325"/>
-      <c r="G7" s="325"/>
-      <c r="H7" s="325"/>
-      <c r="I7" s="325"/>
-      <c r="J7" s="325"/>
-      <c r="K7" s="325"/>
-      <c r="L7" s="325"/>
+      <c r="C7" s="342"/>
+      <c r="D7" s="343"/>
+      <c r="E7" s="343"/>
+      <c r="F7" s="343"/>
+      <c r="G7" s="343"/>
+      <c r="H7" s="343"/>
+      <c r="I7" s="343"/>
+      <c r="J7" s="343"/>
+      <c r="K7" s="343"/>
+      <c r="L7" s="343"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" s="37"/>
-      <c r="C8" s="259" t="s">
+      <c r="C8" s="306" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="260"/>
-      <c r="E8" s="260"/>
-      <c r="F8" s="261"/>
-      <c r="G8" s="326" t="s">
+      <c r="D8" s="307"/>
+      <c r="E8" s="307"/>
+      <c r="F8" s="308"/>
+      <c r="G8" s="344" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="327"/>
-      <c r="I8" s="328"/>
-      <c r="J8" s="329"/>
-      <c r="K8" s="330" t="s">
+      <c r="H8" s="345"/>
+      <c r="I8" s="346"/>
+      <c r="J8" s="347"/>
+      <c r="K8" s="348" t="s">
         <v>82</v>
       </c>
-      <c r="L8" s="331"/>
+      <c r="L8" s="349"/>
     </row>
     <row r="9" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
@@ -10800,109 +10793,109 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="332">
+      <c r="A10" s="323" t="str">
         <f>'Eingabe Abitur'!A11</f>
-        <v>1</v>
-      </c>
-      <c r="B10" s="272" t="str">
+        <v/>
+      </c>
+      <c r="B10" s="289" t="str">
         <f>IF('Eingabe Jahresfortgang'!B8="","",'Eingabe Jahresfortgang'!B8)</f>
-        <v xml:space="preserve">Siegel, Markus </v>
-      </c>
-      <c r="C10" s="342" t="str">
+        <v/>
+      </c>
+      <c r="C10" s="333" t="str">
         <f>IF('Eingabe Jahresfortgang'!Q8="","",'Eingabe Jahresfortgang'!Q8)</f>
         <v/>
       </c>
-      <c r="D10" s="344" t="str">
+      <c r="D10" s="335" t="str">
         <f>'Eingabe Jahresfortgang'!R8</f>
         <v/>
       </c>
-      <c r="E10" s="315">
+      <c r="E10" s="321">
         <f>'Eingabe Jahresfortgang'!S8</f>
-        <v>13.33</v>
-      </c>
-      <c r="F10" s="317">
+        <v>0</v>
+      </c>
+      <c r="F10" s="319" t="str">
         <f>'Eingabe Jahresfortgang'!U8</f>
-        <v>13</v>
-      </c>
-      <c r="G10" s="114">
+        <v/>
+      </c>
+      <c r="G10" s="114" t="str">
         <f>'Eingabe Abitur'!U11</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="319" t="str">
+        <v/>
+      </c>
+      <c r="H10" s="337" t="str">
         <f>'Eingabe Abitur'!AA11</f>
         <v/>
       </c>
-      <c r="I10" s="122">
+      <c r="I10" s="122" t="str">
         <f>'Eingabe Abitur'!AB11</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="123">
+        <v/>
+      </c>
+      <c r="J10" s="123" t="str">
         <f>'Eingabe Abitur'!AC11</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="245">
+        <v/>
+      </c>
+      <c r="K10" s="245" t="str">
         <f>IF(B10="","",ROUNDUP(AVERAGE(E10,I10),2))</f>
-        <v>6.67</v>
-      </c>
-      <c r="L10" s="126">
+        <v/>
+      </c>
+      <c r="L10" s="126" t="str">
         <f>IF(B10="","",IF(K10&lt;1,0,ROUND(K10,0)))</f>
-        <v>7</v>
+        <v/>
       </c>
       <c r="M10" s="184"/>
       <c r="N10" s="128"/>
     </row>
     <row r="11" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="333"/>
-      <c r="B11" s="273"/>
-      <c r="C11" s="343"/>
-      <c r="D11" s="345"/>
-      <c r="E11" s="316"/>
-      <c r="F11" s="318"/>
-      <c r="G11" s="115">
+      <c r="A11" s="324"/>
+      <c r="B11" s="290"/>
+      <c r="C11" s="334"/>
+      <c r="D11" s="336"/>
+      <c r="E11" s="322"/>
+      <c r="F11" s="320"/>
+      <c r="G11" s="115" t="str">
         <f>'Eingabe Abitur'!U12</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="320"/>
-      <c r="I11" s="124">
+        <v/>
+      </c>
+      <c r="H11" s="338"/>
+      <c r="I11" s="124" t="str">
         <f>'Eingabe Abitur'!AB12</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="125">
+        <v/>
+      </c>
+      <c r="J11" s="125" t="str">
         <f>'Eingabe Abitur'!AC12</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="244">
+        <v/>
+      </c>
+      <c r="K11" s="244" t="str">
         <f>IF(B10="","",ROUNDUP(AVERAGE(E10,I11),2))</f>
-        <v>6.67</v>
-      </c>
-      <c r="L11" s="127">
+        <v/>
+      </c>
+      <c r="L11" s="127" t="str">
         <f>IF(B10="","",IF(K11&lt;1,0,ROUND(K11,0)))</f>
-        <v>7</v>
+        <v/>
       </c>
       <c r="M11" s="184"/>
     </row>
     <row r="12" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="334" t="str">
+      <c r="A12" s="325" t="str">
         <f>'Eingabe Abitur'!A13</f>
         <v/>
       </c>
-      <c r="B12" s="336" t="str">
+      <c r="B12" s="327" t="str">
         <f>IF('Eingabe Jahresfortgang'!B9="","",'Eingabe Jahresfortgang'!B9)</f>
         <v/>
       </c>
-      <c r="C12" s="338" t="str">
+      <c r="C12" s="315" t="str">
         <f>'Eingabe Jahresfortgang'!Q9</f>
         <v/>
       </c>
-      <c r="D12" s="340" t="str">
+      <c r="D12" s="329" t="str">
         <f>'Eingabe Jahresfortgang'!R9</f>
         <v/>
       </c>
-      <c r="E12" s="315" t="str">
+      <c r="E12" s="321" t="str">
         <f>'Eingabe Jahresfortgang'!S9</f>
         <v/>
       </c>
-      <c r="F12" s="317" t="str">
+      <c r="F12" s="319" t="str">
         <f>'Eingabe Jahresfortgang'!U9</f>
         <v/>
       </c>
@@ -10910,7 +10903,7 @@
         <f>'Eingabe Abitur'!U13</f>
         <v/>
       </c>
-      <c r="H12" s="346" t="str">
+      <c r="H12" s="331" t="str">
         <f>'Eingabe Abitur'!AA13</f>
         <v/>
       </c>
@@ -10933,17 +10926,17 @@
       <c r="M12" s="184"/>
     </row>
     <row r="13" spans="1:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="335"/>
-      <c r="B13" s="337"/>
-      <c r="C13" s="339"/>
-      <c r="D13" s="341"/>
-      <c r="E13" s="316"/>
-      <c r="F13" s="318"/>
+      <c r="A13" s="326"/>
+      <c r="B13" s="328"/>
+      <c r="C13" s="316"/>
+      <c r="D13" s="330"/>
+      <c r="E13" s="322"/>
+      <c r="F13" s="320"/>
       <c r="G13" s="53" t="str">
         <f>'Eingabe Abitur'!U14</f>
         <v/>
       </c>
-      <c r="H13" s="347"/>
+      <c r="H13" s="332"/>
       <c r="I13" s="108" t="str">
         <f>'Eingabe Abitur'!AB14</f>
         <v/>
@@ -10963,27 +10956,27 @@
       <c r="M13" s="184"/>
     </row>
     <row r="14" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="332" t="str">
+      <c r="A14" s="323" t="str">
         <f>'Eingabe Abitur'!A15</f>
         <v/>
       </c>
-      <c r="B14" s="272" t="str">
+      <c r="B14" s="289" t="str">
         <f>IF('Eingabe Jahresfortgang'!B10="","",'Eingabe Jahresfortgang'!B10)</f>
         <v/>
       </c>
-      <c r="C14" s="338" t="str">
+      <c r="C14" s="315" t="str">
         <f>'Eingabe Jahresfortgang'!Q10</f>
         <v/>
       </c>
-      <c r="D14" s="340" t="str">
+      <c r="D14" s="329" t="str">
         <f>'Eingabe Jahresfortgang'!R10</f>
         <v/>
       </c>
-      <c r="E14" s="315" t="str">
+      <c r="E14" s="321" t="str">
         <f>'Eingabe Jahresfortgang'!S10</f>
         <v/>
       </c>
-      <c r="F14" s="317" t="str">
+      <c r="F14" s="319" t="str">
         <f>'Eingabe Jahresfortgang'!U10</f>
         <v/>
       </c>
@@ -10991,7 +10984,7 @@
         <f>'Eingabe Abitur'!U15</f>
         <v/>
       </c>
-      <c r="H14" s="346" t="str">
+      <c r="H14" s="331" t="str">
         <f>'Eingabe Abitur'!AA15</f>
         <v/>
       </c>
@@ -11014,17 +11007,17 @@
       <c r="M14" s="184"/>
     </row>
     <row r="15" spans="1:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="333"/>
-      <c r="B15" s="273"/>
-      <c r="C15" s="339"/>
-      <c r="D15" s="341"/>
-      <c r="E15" s="316"/>
-      <c r="F15" s="318"/>
+      <c r="A15" s="324"/>
+      <c r="B15" s="290"/>
+      <c r="C15" s="316"/>
+      <c r="D15" s="330"/>
+      <c r="E15" s="322"/>
+      <c r="F15" s="320"/>
       <c r="G15" s="53" t="str">
         <f>'Eingabe Abitur'!U16</f>
         <v/>
       </c>
-      <c r="H15" s="347"/>
+      <c r="H15" s="332"/>
       <c r="I15" s="108" t="str">
         <f>'Eingabe Abitur'!AB16</f>
         <v/>
@@ -11044,27 +11037,27 @@
       <c r="M15" s="184"/>
     </row>
     <row r="16" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="334" t="str">
+      <c r="A16" s="325" t="str">
         <f>'Eingabe Abitur'!A17</f>
         <v/>
       </c>
-      <c r="B16" s="336" t="str">
+      <c r="B16" s="327" t="str">
         <f>IF('Eingabe Jahresfortgang'!B11="","",'Eingabe Jahresfortgang'!B11)</f>
         <v/>
       </c>
-      <c r="C16" s="338" t="str">
+      <c r="C16" s="315" t="str">
         <f>'Eingabe Jahresfortgang'!Q11</f>
         <v/>
       </c>
-      <c r="D16" s="340" t="str">
+      <c r="D16" s="329" t="str">
         <f>'Eingabe Jahresfortgang'!R11</f>
         <v/>
       </c>
-      <c r="E16" s="315" t="str">
+      <c r="E16" s="321" t="str">
         <f>'Eingabe Jahresfortgang'!S11</f>
         <v/>
       </c>
-      <c r="F16" s="317" t="str">
+      <c r="F16" s="319" t="str">
         <f>'Eingabe Jahresfortgang'!U11</f>
         <v/>
       </c>
@@ -11072,7 +11065,7 @@
         <f>'Eingabe Abitur'!U17</f>
         <v/>
       </c>
-      <c r="H16" s="346" t="str">
+      <c r="H16" s="331" t="str">
         <f>'Eingabe Abitur'!AA17</f>
         <v/>
       </c>
@@ -11095,17 +11088,17 @@
       <c r="M16" s="184"/>
     </row>
     <row r="17" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="335"/>
-      <c r="B17" s="337"/>
-      <c r="C17" s="339"/>
-      <c r="D17" s="341"/>
-      <c r="E17" s="316"/>
-      <c r="F17" s="318"/>
+      <c r="A17" s="326"/>
+      <c r="B17" s="328"/>
+      <c r="C17" s="316"/>
+      <c r="D17" s="330"/>
+      <c r="E17" s="322"/>
+      <c r="F17" s="320"/>
       <c r="G17" s="53" t="str">
         <f>'Eingabe Abitur'!U18</f>
         <v/>
       </c>
-      <c r="H17" s="347"/>
+      <c r="H17" s="332"/>
       <c r="I17" s="108" t="str">
         <f>'Eingabe Abitur'!AB18</f>
         <v/>
@@ -11125,27 +11118,27 @@
       <c r="M17" s="184"/>
     </row>
     <row r="18" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="332" t="str">
+      <c r="A18" s="323" t="str">
         <f>'Eingabe Abitur'!A19</f>
         <v/>
       </c>
-      <c r="B18" s="272" t="str">
+      <c r="B18" s="289" t="str">
         <f>IF('Eingabe Jahresfortgang'!B12="","",'Eingabe Jahresfortgang'!B12)</f>
         <v/>
       </c>
-      <c r="C18" s="338" t="str">
+      <c r="C18" s="315" t="str">
         <f>'Eingabe Jahresfortgang'!Q12</f>
         <v/>
       </c>
-      <c r="D18" s="340" t="str">
+      <c r="D18" s="329" t="str">
         <f>'Eingabe Jahresfortgang'!R12</f>
         <v/>
       </c>
-      <c r="E18" s="315" t="str">
+      <c r="E18" s="321" t="str">
         <f>'Eingabe Jahresfortgang'!S12</f>
         <v/>
       </c>
-      <c r="F18" s="317" t="str">
+      <c r="F18" s="319" t="str">
         <f>'Eingabe Jahresfortgang'!U12</f>
         <v/>
       </c>
@@ -11153,7 +11146,7 @@
         <f>'Eingabe Abitur'!U19</f>
         <v/>
       </c>
-      <c r="H18" s="346" t="str">
+      <c r="H18" s="331" t="str">
         <f>'Eingabe Abitur'!AA19</f>
         <v/>
       </c>
@@ -11175,17 +11168,17 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="333"/>
-      <c r="B19" s="273"/>
-      <c r="C19" s="339"/>
-      <c r="D19" s="341"/>
-      <c r="E19" s="316"/>
-      <c r="F19" s="318"/>
+      <c r="A19" s="324"/>
+      <c r="B19" s="290"/>
+      <c r="C19" s="316"/>
+      <c r="D19" s="330"/>
+      <c r="E19" s="322"/>
+      <c r="F19" s="320"/>
       <c r="G19" s="68" t="str">
         <f>'Eingabe Abitur'!U20</f>
         <v/>
       </c>
-      <c r="H19" s="347"/>
+      <c r="H19" s="332"/>
       <c r="I19" s="110" t="str">
         <f>'Eingabe Abitur'!AB20</f>
         <v/>
@@ -11204,27 +11197,27 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="334" t="str">
+      <c r="A20" s="325" t="str">
         <f>'Eingabe Abitur'!A21</f>
         <v/>
       </c>
-      <c r="B20" s="336" t="str">
+      <c r="B20" s="327" t="str">
         <f>IF('Eingabe Jahresfortgang'!B13="","",'Eingabe Jahresfortgang'!B13)</f>
         <v/>
       </c>
-      <c r="C20" s="338" t="str">
+      <c r="C20" s="315" t="str">
         <f>'Eingabe Jahresfortgang'!Q13</f>
         <v/>
       </c>
-      <c r="D20" s="340" t="str">
+      <c r="D20" s="329" t="str">
         <f>'Eingabe Jahresfortgang'!R13</f>
         <v/>
       </c>
-      <c r="E20" s="315" t="str">
+      <c r="E20" s="321" t="str">
         <f>'Eingabe Jahresfortgang'!S13</f>
         <v/>
       </c>
-      <c r="F20" s="317" t="str">
+      <c r="F20" s="319" t="str">
         <f>'Eingabe Jahresfortgang'!U13</f>
         <v/>
       </c>
@@ -11232,7 +11225,7 @@
         <f>'Eingabe Abitur'!U21</f>
         <v/>
       </c>
-      <c r="H20" s="346" t="str">
+      <c r="H20" s="331" t="str">
         <f>'Eingabe Abitur'!AA21</f>
         <v/>
       </c>
@@ -11254,17 +11247,17 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="335"/>
-      <c r="B21" s="337"/>
-      <c r="C21" s="339"/>
-      <c r="D21" s="341"/>
-      <c r="E21" s="316"/>
-      <c r="F21" s="318"/>
+      <c r="A21" s="326"/>
+      <c r="B21" s="328"/>
+      <c r="C21" s="316"/>
+      <c r="D21" s="330"/>
+      <c r="E21" s="322"/>
+      <c r="F21" s="320"/>
       <c r="G21" s="53" t="str">
         <f>'Eingabe Abitur'!U22</f>
         <v/>
       </c>
-      <c r="H21" s="347"/>
+      <c r="H21" s="332"/>
       <c r="I21" s="108" t="str">
         <f>'Eingabe Abitur'!AB22</f>
         <v/>
@@ -11283,27 +11276,27 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="332" t="str">
+      <c r="A22" s="323" t="str">
         <f>'Eingabe Abitur'!A23</f>
         <v/>
       </c>
-      <c r="B22" s="272" t="str">
+      <c r="B22" s="289" t="str">
         <f>IF('Eingabe Jahresfortgang'!B14="","",'Eingabe Jahresfortgang'!B14)</f>
         <v/>
       </c>
-      <c r="C22" s="338" t="str">
+      <c r="C22" s="315" t="str">
         <f>'Eingabe Jahresfortgang'!Q14</f>
         <v/>
       </c>
-      <c r="D22" s="340" t="str">
+      <c r="D22" s="329" t="str">
         <f>'Eingabe Jahresfortgang'!R14</f>
         <v/>
       </c>
-      <c r="E22" s="315" t="str">
+      <c r="E22" s="321" t="str">
         <f>'Eingabe Jahresfortgang'!S14</f>
         <v/>
       </c>
-      <c r="F22" s="317" t="str">
+      <c r="F22" s="319" t="str">
         <f>'Eingabe Jahresfortgang'!U14</f>
         <v/>
       </c>
@@ -11311,7 +11304,7 @@
         <f>'Eingabe Abitur'!U23</f>
         <v/>
       </c>
-      <c r="H22" s="346" t="str">
+      <c r="H22" s="331" t="str">
         <f>'Eingabe Abitur'!AA23</f>
         <v/>
       </c>
@@ -11333,17 +11326,17 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="333"/>
-      <c r="B23" s="273"/>
-      <c r="C23" s="339"/>
-      <c r="D23" s="341"/>
-      <c r="E23" s="316"/>
-      <c r="F23" s="318"/>
+      <c r="A23" s="324"/>
+      <c r="B23" s="290"/>
+      <c r="C23" s="316"/>
+      <c r="D23" s="330"/>
+      <c r="E23" s="322"/>
+      <c r="F23" s="320"/>
       <c r="G23" s="53" t="str">
         <f>'Eingabe Abitur'!U24</f>
         <v/>
       </c>
-      <c r="H23" s="347"/>
+      <c r="H23" s="332"/>
       <c r="I23" s="108" t="str">
         <f>'Eingabe Abitur'!AB24</f>
         <v/>
@@ -11363,27 +11356,27 @@
       <c r="M23"/>
     </row>
     <row r="24" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="334" t="str">
+      <c r="A24" s="325" t="str">
         <f>'Eingabe Abitur'!A25</f>
         <v/>
       </c>
-      <c r="B24" s="336" t="str">
+      <c r="B24" s="327" t="str">
         <f>IF('Eingabe Jahresfortgang'!B15="","",'Eingabe Jahresfortgang'!B15)</f>
         <v/>
       </c>
-      <c r="C24" s="338" t="str">
+      <c r="C24" s="315" t="str">
         <f>'Eingabe Jahresfortgang'!Q15</f>
         <v/>
       </c>
-      <c r="D24" s="340" t="str">
+      <c r="D24" s="329" t="str">
         <f>'Eingabe Jahresfortgang'!R15</f>
         <v/>
       </c>
-      <c r="E24" s="315" t="str">
+      <c r="E24" s="321" t="str">
         <f>'Eingabe Jahresfortgang'!S15</f>
         <v/>
       </c>
-      <c r="F24" s="317" t="str">
+      <c r="F24" s="319" t="str">
         <f>'Eingabe Jahresfortgang'!U15</f>
         <v/>
       </c>
@@ -11391,7 +11384,7 @@
         <f>'Eingabe Abitur'!U25</f>
         <v/>
       </c>
-      <c r="H24" s="346" t="str">
+      <c r="H24" s="331" t="str">
         <f>'Eingabe Abitur'!AA25</f>
         <v/>
       </c>
@@ -11413,17 +11406,17 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="335"/>
-      <c r="B25" s="337"/>
-      <c r="C25" s="339"/>
-      <c r="D25" s="341"/>
-      <c r="E25" s="316"/>
-      <c r="F25" s="318"/>
+      <c r="A25" s="326"/>
+      <c r="B25" s="328"/>
+      <c r="C25" s="316"/>
+      <c r="D25" s="330"/>
+      <c r="E25" s="322"/>
+      <c r="F25" s="320"/>
       <c r="G25" s="53" t="str">
         <f>'Eingabe Abitur'!U26</f>
         <v/>
       </c>
-      <c r="H25" s="347"/>
+      <c r="H25" s="332"/>
       <c r="I25" s="108" t="str">
         <f>'Eingabe Abitur'!AB26</f>
         <v/>
@@ -11442,27 +11435,27 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="332" t="str">
+      <c r="A26" s="323" t="str">
         <f>'Eingabe Abitur'!A27</f>
         <v/>
       </c>
-      <c r="B26" s="272" t="str">
+      <c r="B26" s="289" t="str">
         <f>IF('Eingabe Jahresfortgang'!B16="","",'Eingabe Jahresfortgang'!B16)</f>
         <v/>
       </c>
-      <c r="C26" s="338" t="str">
+      <c r="C26" s="315" t="str">
         <f>'Eingabe Jahresfortgang'!Q16</f>
         <v/>
       </c>
-      <c r="D26" s="340" t="str">
+      <c r="D26" s="329" t="str">
         <f>'Eingabe Jahresfortgang'!R16</f>
         <v/>
       </c>
-      <c r="E26" s="315" t="str">
+      <c r="E26" s="321" t="str">
         <f>'Eingabe Jahresfortgang'!S16</f>
         <v/>
       </c>
-      <c r="F26" s="317" t="str">
+      <c r="F26" s="319" t="str">
         <f>'Eingabe Jahresfortgang'!U16</f>
         <v/>
       </c>
@@ -11470,7 +11463,7 @@
         <f>'Eingabe Abitur'!U27</f>
         <v/>
       </c>
-      <c r="H26" s="346" t="str">
+      <c r="H26" s="331" t="str">
         <f>'Eingabe Abitur'!AA27</f>
         <v/>
       </c>
@@ -11492,17 +11485,17 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="333"/>
-      <c r="B27" s="273"/>
-      <c r="C27" s="339"/>
-      <c r="D27" s="341"/>
-      <c r="E27" s="316"/>
-      <c r="F27" s="318"/>
+      <c r="A27" s="324"/>
+      <c r="B27" s="290"/>
+      <c r="C27" s="316"/>
+      <c r="D27" s="330"/>
+      <c r="E27" s="322"/>
+      <c r="F27" s="320"/>
       <c r="G27" s="53" t="str">
         <f>'Eingabe Abitur'!U28</f>
         <v/>
       </c>
-      <c r="H27" s="347"/>
+      <c r="H27" s="332"/>
       <c r="I27" s="108" t="str">
         <f>'Eingabe Abitur'!AB28</f>
         <v/>
@@ -11521,27 +11514,27 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="334" t="str">
+      <c r="A28" s="325" t="str">
         <f>'Eingabe Abitur'!A29</f>
         <v/>
       </c>
-      <c r="B28" s="336" t="str">
+      <c r="B28" s="327" t="str">
         <f>IF('Eingabe Jahresfortgang'!B17="","",'Eingabe Jahresfortgang'!B17)</f>
         <v/>
       </c>
-      <c r="C28" s="338" t="str">
+      <c r="C28" s="315" t="str">
         <f>'Eingabe Jahresfortgang'!Q17</f>
         <v/>
       </c>
-      <c r="D28" s="340" t="str">
+      <c r="D28" s="329" t="str">
         <f>'Eingabe Jahresfortgang'!R17</f>
         <v/>
       </c>
-      <c r="E28" s="315" t="str">
+      <c r="E28" s="321" t="str">
         <f>'Eingabe Jahresfortgang'!S17</f>
         <v/>
       </c>
-      <c r="F28" s="317" t="str">
+      <c r="F28" s="319" t="str">
         <f>'Eingabe Jahresfortgang'!U17</f>
         <v/>
       </c>
@@ -11549,7 +11542,7 @@
         <f>'Eingabe Abitur'!U29</f>
         <v/>
       </c>
-      <c r="H28" s="346" t="str">
+      <c r="H28" s="331" t="str">
         <f>'Eingabe Abitur'!AA29</f>
         <v/>
       </c>
@@ -11571,17 +11564,17 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="335"/>
-      <c r="B29" s="337"/>
-      <c r="C29" s="339"/>
-      <c r="D29" s="341"/>
-      <c r="E29" s="316"/>
-      <c r="F29" s="318"/>
+      <c r="A29" s="326"/>
+      <c r="B29" s="328"/>
+      <c r="C29" s="316"/>
+      <c r="D29" s="330"/>
+      <c r="E29" s="322"/>
+      <c r="F29" s="320"/>
       <c r="G29" s="53" t="str">
         <f>'Eingabe Abitur'!U30</f>
         <v/>
       </c>
-      <c r="H29" s="347"/>
+      <c r="H29" s="332"/>
       <c r="I29" s="108" t="str">
         <f>'Eingabe Abitur'!AB30</f>
         <v/>
@@ -11600,27 +11593,27 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="332" t="str">
+      <c r="A30" s="323" t="str">
         <f>'Eingabe Abitur'!A31</f>
         <v/>
       </c>
-      <c r="B30" s="272" t="str">
+      <c r="B30" s="289" t="str">
         <f>IF('Eingabe Jahresfortgang'!B18="","",'Eingabe Jahresfortgang'!B18)</f>
         <v/>
       </c>
-      <c r="C30" s="338" t="str">
+      <c r="C30" s="315" t="str">
         <f>'Eingabe Jahresfortgang'!Q18</f>
         <v/>
       </c>
-      <c r="D30" s="340" t="str">
+      <c r="D30" s="329" t="str">
         <f>'Eingabe Jahresfortgang'!R18</f>
         <v/>
       </c>
-      <c r="E30" s="315" t="str">
+      <c r="E30" s="321" t="str">
         <f>'Eingabe Jahresfortgang'!S18</f>
         <v/>
       </c>
-      <c r="F30" s="317" t="str">
+      <c r="F30" s="319" t="str">
         <f>'Eingabe Jahresfortgang'!U18</f>
         <v/>
       </c>
@@ -11628,7 +11621,7 @@
         <f>'Eingabe Abitur'!U31</f>
         <v/>
       </c>
-      <c r="H30" s="346" t="str">
+      <c r="H30" s="331" t="str">
         <f>'Eingabe Abitur'!AA31</f>
         <v/>
       </c>
@@ -11650,17 +11643,17 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="333"/>
-      <c r="B31" s="273"/>
-      <c r="C31" s="339"/>
-      <c r="D31" s="341"/>
-      <c r="E31" s="316"/>
-      <c r="F31" s="318"/>
+      <c r="A31" s="324"/>
+      <c r="B31" s="290"/>
+      <c r="C31" s="316"/>
+      <c r="D31" s="330"/>
+      <c r="E31" s="322"/>
+      <c r="F31" s="320"/>
       <c r="G31" s="53" t="str">
         <f>'Eingabe Abitur'!U32</f>
         <v/>
       </c>
-      <c r="H31" s="347"/>
+      <c r="H31" s="332"/>
       <c r="I31" s="108" t="str">
         <f>'Eingabe Abitur'!AB32</f>
         <v/>
@@ -11679,27 +11672,27 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="334" t="str">
+      <c r="A32" s="325" t="str">
         <f>'Eingabe Abitur'!A33</f>
         <v/>
       </c>
-      <c r="B32" s="336" t="str">
+      <c r="B32" s="327" t="str">
         <f>IF('Eingabe Jahresfortgang'!B19="","",'Eingabe Jahresfortgang'!B19)</f>
         <v/>
       </c>
-      <c r="C32" s="338" t="str">
+      <c r="C32" s="315" t="str">
         <f>'Eingabe Jahresfortgang'!Q19</f>
         <v/>
       </c>
-      <c r="D32" s="340" t="str">
+      <c r="D32" s="329" t="str">
         <f>'Eingabe Jahresfortgang'!R19</f>
         <v/>
       </c>
-      <c r="E32" s="315" t="str">
+      <c r="E32" s="321" t="str">
         <f>'Eingabe Jahresfortgang'!S19</f>
         <v/>
       </c>
-      <c r="F32" s="317" t="str">
+      <c r="F32" s="319" t="str">
         <f>'Eingabe Jahresfortgang'!U19</f>
         <v/>
       </c>
@@ -11707,7 +11700,7 @@
         <f>'Eingabe Abitur'!U33</f>
         <v/>
       </c>
-      <c r="H32" s="346" t="str">
+      <c r="H32" s="331" t="str">
         <f>'Eingabe Abitur'!AA33</f>
         <v/>
       </c>
@@ -11729,17 +11722,17 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="335"/>
-      <c r="B33" s="337"/>
-      <c r="C33" s="339"/>
-      <c r="D33" s="341"/>
-      <c r="E33" s="316"/>
-      <c r="F33" s="318"/>
+      <c r="A33" s="326"/>
+      <c r="B33" s="328"/>
+      <c r="C33" s="316"/>
+      <c r="D33" s="330"/>
+      <c r="E33" s="322"/>
+      <c r="F33" s="320"/>
       <c r="G33" s="53" t="str">
         <f>'Eingabe Abitur'!U34</f>
         <v/>
       </c>
-      <c r="H33" s="347"/>
+      <c r="H33" s="332"/>
       <c r="I33" s="108" t="str">
         <f>'Eingabe Abitur'!AB34</f>
         <v/>
@@ -11758,27 +11751,27 @@
       </c>
     </row>
     <row r="34" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="332" t="str">
+      <c r="A34" s="323" t="str">
         <f>'Eingabe Abitur'!A35</f>
         <v/>
       </c>
-      <c r="B34" s="272" t="str">
+      <c r="B34" s="289" t="str">
         <f>IF('Eingabe Jahresfortgang'!B20="","",'Eingabe Jahresfortgang'!B20)</f>
         <v/>
       </c>
-      <c r="C34" s="338" t="str">
+      <c r="C34" s="315" t="str">
         <f>'Eingabe Jahresfortgang'!Q20</f>
         <v/>
       </c>
-      <c r="D34" s="340" t="str">
+      <c r="D34" s="329" t="str">
         <f>'Eingabe Jahresfortgang'!R20</f>
         <v/>
       </c>
-      <c r="E34" s="315" t="str">
+      <c r="E34" s="321" t="str">
         <f>'Eingabe Jahresfortgang'!S20</f>
         <v/>
       </c>
-      <c r="F34" s="317" t="str">
+      <c r="F34" s="319" t="str">
         <f>'Eingabe Jahresfortgang'!U20</f>
         <v/>
       </c>
@@ -11786,7 +11779,7 @@
         <f>'Eingabe Abitur'!U35</f>
         <v/>
       </c>
-      <c r="H34" s="346" t="str">
+      <c r="H34" s="331" t="str">
         <f>'Eingabe Abitur'!AA35</f>
         <v/>
       </c>
@@ -11808,17 +11801,17 @@
       </c>
     </row>
     <row r="35" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="333"/>
-      <c r="B35" s="273"/>
-      <c r="C35" s="339"/>
-      <c r="D35" s="341"/>
-      <c r="E35" s="316"/>
-      <c r="F35" s="318"/>
+      <c r="A35" s="324"/>
+      <c r="B35" s="290"/>
+      <c r="C35" s="316"/>
+      <c r="D35" s="330"/>
+      <c r="E35" s="322"/>
+      <c r="F35" s="320"/>
       <c r="G35" s="53" t="str">
         <f>'Eingabe Abitur'!U36</f>
         <v/>
       </c>
-      <c r="H35" s="347"/>
+      <c r="H35" s="332"/>
       <c r="I35" s="108" t="str">
         <f>'Eingabe Abitur'!AB36</f>
         <v/>
@@ -11837,27 +11830,27 @@
       </c>
     </row>
     <row r="36" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="334" t="str">
+      <c r="A36" s="325" t="str">
         <f>'Eingabe Abitur'!A37</f>
         <v/>
       </c>
-      <c r="B36" s="336" t="str">
+      <c r="B36" s="327" t="str">
         <f>IF('Eingabe Jahresfortgang'!B21="","",'Eingabe Jahresfortgang'!B21)</f>
         <v/>
       </c>
-      <c r="C36" s="338" t="str">
+      <c r="C36" s="315" t="str">
         <f>'Eingabe Jahresfortgang'!Q21</f>
         <v/>
       </c>
-      <c r="D36" s="340" t="str">
+      <c r="D36" s="329" t="str">
         <f>'Eingabe Jahresfortgang'!R21</f>
         <v/>
       </c>
-      <c r="E36" s="315" t="str">
+      <c r="E36" s="321" t="str">
         <f>'Eingabe Jahresfortgang'!S21</f>
         <v/>
       </c>
-      <c r="F36" s="317" t="str">
+      <c r="F36" s="319" t="str">
         <f>'Eingabe Jahresfortgang'!U21</f>
         <v/>
       </c>
@@ -11865,7 +11858,7 @@
         <f>'Eingabe Abitur'!U37</f>
         <v/>
       </c>
-      <c r="H36" s="346" t="str">
+      <c r="H36" s="331" t="str">
         <f>'Eingabe Abitur'!AA37</f>
         <v/>
       </c>
@@ -11887,17 +11880,17 @@
       </c>
     </row>
     <row r="37" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="335"/>
-      <c r="B37" s="337"/>
-      <c r="C37" s="339"/>
-      <c r="D37" s="341"/>
-      <c r="E37" s="316"/>
-      <c r="F37" s="318"/>
+      <c r="A37" s="326"/>
+      <c r="B37" s="328"/>
+      <c r="C37" s="316"/>
+      <c r="D37" s="330"/>
+      <c r="E37" s="322"/>
+      <c r="F37" s="320"/>
       <c r="G37" s="53" t="str">
         <f>'Eingabe Abitur'!U38</f>
         <v/>
       </c>
-      <c r="H37" s="347"/>
+      <c r="H37" s="332"/>
       <c r="I37" s="108" t="str">
         <f>'Eingabe Abitur'!AB38</f>
         <v/>
@@ -11916,27 +11909,27 @@
       </c>
     </row>
     <row r="38" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="332" t="str">
+      <c r="A38" s="323" t="str">
         <f>'Eingabe Abitur'!A39</f>
         <v/>
       </c>
-      <c r="B38" s="272" t="str">
+      <c r="B38" s="289" t="str">
         <f>IF('Eingabe Jahresfortgang'!B22="","",'Eingabe Jahresfortgang'!B22)</f>
         <v/>
       </c>
-      <c r="C38" s="338" t="str">
+      <c r="C38" s="315" t="str">
         <f>'Eingabe Jahresfortgang'!Q22</f>
         <v/>
       </c>
-      <c r="D38" s="340" t="str">
+      <c r="D38" s="329" t="str">
         <f>'Eingabe Jahresfortgang'!R22</f>
         <v/>
       </c>
-      <c r="E38" s="315" t="str">
+      <c r="E38" s="321" t="str">
         <f>'Eingabe Jahresfortgang'!S22</f>
         <v/>
       </c>
-      <c r="F38" s="317" t="str">
+      <c r="F38" s="319" t="str">
         <f>'Eingabe Jahresfortgang'!U22</f>
         <v/>
       </c>
@@ -11944,7 +11937,7 @@
         <f>'Eingabe Abitur'!U39</f>
         <v/>
       </c>
-      <c r="H38" s="346" t="str">
+      <c r="H38" s="331" t="str">
         <f>'Eingabe Abitur'!AA39</f>
         <v/>
       </c>
@@ -11966,17 +11959,17 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="333"/>
-      <c r="B39" s="273"/>
-      <c r="C39" s="339"/>
-      <c r="D39" s="341"/>
-      <c r="E39" s="316"/>
-      <c r="F39" s="318"/>
+      <c r="A39" s="324"/>
+      <c r="B39" s="290"/>
+      <c r="C39" s="316"/>
+      <c r="D39" s="330"/>
+      <c r="E39" s="322"/>
+      <c r="F39" s="320"/>
       <c r="G39" s="53" t="str">
         <f>'Eingabe Abitur'!U40</f>
         <v/>
       </c>
-      <c r="H39" s="347"/>
+      <c r="H39" s="332"/>
       <c r="I39" s="108" t="str">
         <f>'Eingabe Abitur'!AB40</f>
         <v/>
@@ -11995,27 +11988,27 @@
       </c>
     </row>
     <row r="40" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="334" t="str">
+      <c r="A40" s="325" t="str">
         <f>'Eingabe Abitur'!A41</f>
         <v/>
       </c>
-      <c r="B40" s="336" t="str">
+      <c r="B40" s="327" t="str">
         <f>IF('Eingabe Jahresfortgang'!B23="","",'Eingabe Jahresfortgang'!B23)</f>
         <v/>
       </c>
-      <c r="C40" s="338" t="str">
+      <c r="C40" s="315" t="str">
         <f>'Eingabe Jahresfortgang'!Q23</f>
         <v/>
       </c>
-      <c r="D40" s="340" t="str">
+      <c r="D40" s="329" t="str">
         <f>'Eingabe Jahresfortgang'!R23</f>
         <v/>
       </c>
-      <c r="E40" s="315" t="str">
+      <c r="E40" s="321" t="str">
         <f>'Eingabe Jahresfortgang'!S23</f>
         <v/>
       </c>
-      <c r="F40" s="317" t="str">
+      <c r="F40" s="319" t="str">
         <f>'Eingabe Jahresfortgang'!U23</f>
         <v/>
       </c>
@@ -12023,7 +12016,7 @@
         <f>'Eingabe Abitur'!U41</f>
         <v/>
       </c>
-      <c r="H40" s="346" t="str">
+      <c r="H40" s="331" t="str">
         <f>'Eingabe Abitur'!AA41</f>
         <v/>
       </c>
@@ -12045,17 +12038,17 @@
       </c>
     </row>
     <row r="41" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="335"/>
-      <c r="B41" s="337"/>
-      <c r="C41" s="339"/>
-      <c r="D41" s="341"/>
-      <c r="E41" s="316"/>
-      <c r="F41" s="318"/>
+      <c r="A41" s="326"/>
+      <c r="B41" s="328"/>
+      <c r="C41" s="316"/>
+      <c r="D41" s="330"/>
+      <c r="E41" s="322"/>
+      <c r="F41" s="320"/>
       <c r="G41" s="68" t="str">
         <f>'Eingabe Abitur'!U42</f>
         <v/>
       </c>
-      <c r="H41" s="347"/>
+      <c r="H41" s="332"/>
       <c r="I41" s="110" t="str">
         <f>'Eingabe Abitur'!AB42</f>
         <v/>
@@ -12074,27 +12067,27 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="332" t="str">
+      <c r="A42" s="323" t="str">
         <f>'Eingabe Abitur'!A43</f>
         <v/>
       </c>
-      <c r="B42" s="272" t="str">
+      <c r="B42" s="289" t="str">
         <f>IF('Eingabe Jahresfortgang'!B24="","",'Eingabe Jahresfortgang'!B24)</f>
         <v/>
       </c>
-      <c r="C42" s="338" t="str">
+      <c r="C42" s="315" t="str">
         <f>'Eingabe Jahresfortgang'!Q24</f>
         <v/>
       </c>
-      <c r="D42" s="340" t="str">
+      <c r="D42" s="329" t="str">
         <f>'Eingabe Jahresfortgang'!R24</f>
         <v/>
       </c>
-      <c r="E42" s="315" t="str">
+      <c r="E42" s="321" t="str">
         <f>'Eingabe Jahresfortgang'!S24</f>
         <v/>
       </c>
-      <c r="F42" s="317" t="str">
+      <c r="F42" s="319" t="str">
         <f>'Eingabe Jahresfortgang'!U24</f>
         <v/>
       </c>
@@ -12102,7 +12095,7 @@
         <f>'Eingabe Abitur'!U43</f>
         <v/>
       </c>
-      <c r="H42" s="346" t="str">
+      <c r="H42" s="331" t="str">
         <f>'Eingabe Abitur'!AA43</f>
         <v/>
       </c>
@@ -12124,17 +12117,17 @@
       </c>
     </row>
     <row r="43" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="333"/>
-      <c r="B43" s="273"/>
-      <c r="C43" s="339"/>
-      <c r="D43" s="341"/>
-      <c r="E43" s="316"/>
-      <c r="F43" s="318"/>
+      <c r="A43" s="324"/>
+      <c r="B43" s="290"/>
+      <c r="C43" s="316"/>
+      <c r="D43" s="330"/>
+      <c r="E43" s="322"/>
+      <c r="F43" s="320"/>
       <c r="G43" s="53" t="str">
         <f>'Eingabe Abitur'!U44</f>
         <v/>
       </c>
-      <c r="H43" s="347"/>
+      <c r="H43" s="332"/>
       <c r="I43" s="108" t="str">
         <f>'Eingabe Abitur'!AB44</f>
         <v/>
@@ -12153,27 +12146,27 @@
       </c>
     </row>
     <row r="44" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="334" t="str">
+      <c r="A44" s="325" t="str">
         <f>'Eingabe Abitur'!A45</f>
         <v/>
       </c>
-      <c r="B44" s="336" t="str">
+      <c r="B44" s="327" t="str">
         <f>IF('Eingabe Jahresfortgang'!B25="","",'Eingabe Jahresfortgang'!B25)</f>
         <v/>
       </c>
-      <c r="C44" s="338" t="str">
+      <c r="C44" s="315" t="str">
         <f>'Eingabe Jahresfortgang'!Q25</f>
         <v/>
       </c>
-      <c r="D44" s="340" t="str">
+      <c r="D44" s="329" t="str">
         <f>'Eingabe Jahresfortgang'!R25</f>
         <v/>
       </c>
-      <c r="E44" s="315" t="str">
+      <c r="E44" s="321" t="str">
         <f>'Eingabe Jahresfortgang'!S25</f>
         <v/>
       </c>
-      <c r="F44" s="317" t="str">
+      <c r="F44" s="319" t="str">
         <f>'Eingabe Jahresfortgang'!U25</f>
         <v/>
       </c>
@@ -12181,7 +12174,7 @@
         <f>'Eingabe Abitur'!U45</f>
         <v/>
       </c>
-      <c r="H44" s="346" t="str">
+      <c r="H44" s="331" t="str">
         <f>'Eingabe Abitur'!AA45</f>
         <v/>
       </c>
@@ -12203,17 +12196,17 @@
       </c>
     </row>
     <row r="45" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="335"/>
-      <c r="B45" s="337"/>
-      <c r="C45" s="339"/>
-      <c r="D45" s="341"/>
-      <c r="E45" s="316"/>
-      <c r="F45" s="318"/>
+      <c r="A45" s="326"/>
+      <c r="B45" s="328"/>
+      <c r="C45" s="316"/>
+      <c r="D45" s="330"/>
+      <c r="E45" s="322"/>
+      <c r="F45" s="320"/>
       <c r="G45" s="53" t="str">
         <f>'Eingabe Abitur'!U46</f>
         <v/>
       </c>
-      <c r="H45" s="347"/>
+      <c r="H45" s="332"/>
       <c r="I45" s="108" t="str">
         <f>'Eingabe Abitur'!AB46</f>
         <v/>
@@ -12232,27 +12225,27 @@
       </c>
     </row>
     <row r="46" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="332" t="str">
+      <c r="A46" s="323" t="str">
         <f>'Eingabe Abitur'!A47</f>
         <v/>
       </c>
-      <c r="B46" s="272" t="str">
+      <c r="B46" s="289" t="str">
         <f>IF('Eingabe Jahresfortgang'!B26="","",'Eingabe Jahresfortgang'!B26)</f>
         <v/>
       </c>
-      <c r="C46" s="338" t="str">
+      <c r="C46" s="315" t="str">
         <f>'Eingabe Jahresfortgang'!Q26</f>
         <v/>
       </c>
-      <c r="D46" s="340" t="str">
+      <c r="D46" s="329" t="str">
         <f>'Eingabe Jahresfortgang'!R26</f>
         <v/>
       </c>
-      <c r="E46" s="315" t="str">
+      <c r="E46" s="321" t="str">
         <f>'Eingabe Jahresfortgang'!S26</f>
         <v/>
       </c>
-      <c r="F46" s="317" t="str">
+      <c r="F46" s="319" t="str">
         <f>'Eingabe Jahresfortgang'!U26</f>
         <v/>
       </c>
@@ -12260,7 +12253,7 @@
         <f>'Eingabe Abitur'!U47</f>
         <v/>
       </c>
-      <c r="H46" s="346" t="str">
+      <c r="H46" s="331" t="str">
         <f>'Eingabe Abitur'!AA47</f>
         <v/>
       </c>
@@ -12282,17 +12275,17 @@
       </c>
     </row>
     <row r="47" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="333"/>
-      <c r="B47" s="273"/>
-      <c r="C47" s="339"/>
-      <c r="D47" s="341"/>
-      <c r="E47" s="316"/>
-      <c r="F47" s="318"/>
+      <c r="A47" s="324"/>
+      <c r="B47" s="290"/>
+      <c r="C47" s="316"/>
+      <c r="D47" s="330"/>
+      <c r="E47" s="322"/>
+      <c r="F47" s="320"/>
       <c r="G47" s="53" t="str">
         <f>'Eingabe Abitur'!U48</f>
         <v/>
       </c>
-      <c r="H47" s="347"/>
+      <c r="H47" s="332"/>
       <c r="I47" s="108" t="str">
         <f>'Eingabe Abitur'!AB48</f>
         <v/>
@@ -12311,27 +12304,27 @@
       </c>
     </row>
     <row r="48" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="334" t="str">
+      <c r="A48" s="325" t="str">
         <f>'Eingabe Abitur'!A49</f>
         <v/>
       </c>
-      <c r="B48" s="336" t="str">
+      <c r="B48" s="327" t="str">
         <f>IF('Eingabe Jahresfortgang'!B27="","",'Eingabe Jahresfortgang'!B27)</f>
         <v/>
       </c>
-      <c r="C48" s="338" t="str">
+      <c r="C48" s="315" t="str">
         <f>'Eingabe Jahresfortgang'!Q27</f>
         <v/>
       </c>
-      <c r="D48" s="348" t="str">
+      <c r="D48" s="317" t="str">
         <f>'Eingabe Jahresfortgang'!R27</f>
         <v/>
       </c>
-      <c r="E48" s="315" t="str">
+      <c r="E48" s="321" t="str">
         <f>'Eingabe Jahresfortgang'!S27</f>
         <v/>
       </c>
-      <c r="F48" s="317" t="str">
+      <c r="F48" s="319" t="str">
         <f>'Eingabe Jahresfortgang'!U27</f>
         <v/>
       </c>
@@ -12339,7 +12332,7 @@
         <f>'Eingabe Abitur'!U49</f>
         <v/>
       </c>
-      <c r="H48" s="346" t="str">
+      <c r="H48" s="331" t="str">
         <f>'Eingabe Abitur'!AA49</f>
         <v/>
       </c>
@@ -12361,17 +12354,17 @@
       </c>
     </row>
     <row r="49" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="335"/>
-      <c r="B49" s="337"/>
-      <c r="C49" s="339"/>
-      <c r="D49" s="349"/>
-      <c r="E49" s="316"/>
-      <c r="F49" s="318"/>
+      <c r="A49" s="326"/>
+      <c r="B49" s="328"/>
+      <c r="C49" s="316"/>
+      <c r="D49" s="318"/>
+      <c r="E49" s="322"/>
+      <c r="F49" s="320"/>
       <c r="G49" s="53" t="str">
         <f>'Eingabe Abitur'!U50</f>
         <v/>
       </c>
-      <c r="H49" s="347"/>
+      <c r="H49" s="332"/>
       <c r="I49" s="108" t="str">
         <f>'Eingabe Abitur'!AB50</f>
         <v/>
@@ -12390,27 +12383,27 @@
       </c>
     </row>
     <row r="50" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="332" t="str">
+      <c r="A50" s="323" t="str">
         <f>'Eingabe Abitur'!A51</f>
         <v/>
       </c>
-      <c r="B50" s="272" t="str">
+      <c r="B50" s="289" t="str">
         <f>IF('Eingabe Jahresfortgang'!B28="","",'Eingabe Jahresfortgang'!B28)</f>
         <v/>
       </c>
-      <c r="C50" s="338" t="str">
+      <c r="C50" s="315" t="str">
         <f>'Eingabe Jahresfortgang'!Q28</f>
         <v/>
       </c>
-      <c r="D50" s="348" t="str">
+      <c r="D50" s="317" t="str">
         <f>'Eingabe Jahresfortgang'!R28</f>
         <v/>
       </c>
-      <c r="E50" s="315" t="str">
+      <c r="E50" s="321" t="str">
         <f>'Eingabe Jahresfortgang'!S28</f>
         <v/>
       </c>
-      <c r="F50" s="317" t="str">
+      <c r="F50" s="319" t="str">
         <f>'Eingabe Jahresfortgang'!U28</f>
         <v/>
       </c>
@@ -12418,7 +12411,7 @@
         <f>'Eingabe Abitur'!U51</f>
         <v/>
       </c>
-      <c r="H50" s="346" t="str">
+      <c r="H50" s="331" t="str">
         <f>'Eingabe Abitur'!AA51</f>
         <v/>
       </c>
@@ -12440,17 +12433,17 @@
       </c>
     </row>
     <row r="51" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="333"/>
-      <c r="B51" s="273"/>
-      <c r="C51" s="339"/>
-      <c r="D51" s="349"/>
-      <c r="E51" s="316"/>
-      <c r="F51" s="318"/>
+      <c r="A51" s="324"/>
+      <c r="B51" s="290"/>
+      <c r="C51" s="316"/>
+      <c r="D51" s="318"/>
+      <c r="E51" s="322"/>
+      <c r="F51" s="320"/>
       <c r="G51" s="53" t="str">
         <f>'Eingabe Abitur'!U52</f>
         <v/>
       </c>
-      <c r="H51" s="347"/>
+      <c r="H51" s="332"/>
       <c r="I51" s="108" t="str">
         <f>'Eingabe Abitur'!AB52</f>
         <v/>
@@ -12469,27 +12462,27 @@
       </c>
     </row>
     <row r="52" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="334" t="str">
+      <c r="A52" s="325" t="str">
         <f>'Eingabe Abitur'!A53</f>
         <v/>
       </c>
-      <c r="B52" s="336" t="str">
+      <c r="B52" s="327" t="str">
         <f>IF('Eingabe Jahresfortgang'!B29="","",'Eingabe Jahresfortgang'!B29)</f>
         <v/>
       </c>
-      <c r="C52" s="338" t="str">
+      <c r="C52" s="315" t="str">
         <f>'Eingabe Jahresfortgang'!Q29</f>
         <v/>
       </c>
-      <c r="D52" s="348" t="str">
+      <c r="D52" s="317" t="str">
         <f>'Eingabe Jahresfortgang'!R29</f>
         <v/>
       </c>
-      <c r="E52" s="315" t="str">
+      <c r="E52" s="321" t="str">
         <f>'Eingabe Jahresfortgang'!S29</f>
         <v/>
       </c>
-      <c r="F52" s="317" t="str">
+      <c r="F52" s="319" t="str">
         <f>'Eingabe Jahresfortgang'!U29</f>
         <v/>
       </c>
@@ -12497,7 +12490,7 @@
         <f>'Eingabe Abitur'!U53</f>
         <v/>
       </c>
-      <c r="H52" s="346" t="str">
+      <c r="H52" s="331" t="str">
         <f>'Eingabe Abitur'!AA53</f>
         <v/>
       </c>
@@ -12519,17 +12512,17 @@
       </c>
     </row>
     <row r="53" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="335"/>
-      <c r="B53" s="337"/>
-      <c r="C53" s="339"/>
-      <c r="D53" s="349"/>
-      <c r="E53" s="316"/>
-      <c r="F53" s="318"/>
+      <c r="A53" s="326"/>
+      <c r="B53" s="328"/>
+      <c r="C53" s="316"/>
+      <c r="D53" s="318"/>
+      <c r="E53" s="322"/>
+      <c r="F53" s="320"/>
       <c r="G53" s="53" t="str">
         <f>'Eingabe Abitur'!U54</f>
         <v/>
       </c>
-      <c r="H53" s="347"/>
+      <c r="H53" s="332"/>
       <c r="I53" s="108" t="str">
         <f>'Eingabe Abitur'!AB54</f>
         <v/>
@@ -12548,27 +12541,27 @@
       </c>
     </row>
     <row r="54" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="332" t="str">
+      <c r="A54" s="323" t="str">
         <f>'Eingabe Abitur'!A55</f>
         <v/>
       </c>
-      <c r="B54" s="272" t="str">
+      <c r="B54" s="289" t="str">
         <f>IF('Eingabe Jahresfortgang'!B30="","",'Eingabe Jahresfortgang'!B30)</f>
         <v/>
       </c>
-      <c r="C54" s="338" t="str">
+      <c r="C54" s="315" t="str">
         <f>'Eingabe Jahresfortgang'!Q30</f>
         <v/>
       </c>
-      <c r="D54" s="348" t="str">
+      <c r="D54" s="317" t="str">
         <f>'Eingabe Jahresfortgang'!R30</f>
         <v/>
       </c>
-      <c r="E54" s="315" t="str">
+      <c r="E54" s="321" t="str">
         <f>'Eingabe Jahresfortgang'!S30</f>
         <v/>
       </c>
-      <c r="F54" s="317" t="str">
+      <c r="F54" s="319" t="str">
         <f>'Eingabe Jahresfortgang'!U30</f>
         <v/>
       </c>
@@ -12576,7 +12569,7 @@
         <f>'Eingabe Abitur'!U55</f>
         <v/>
       </c>
-      <c r="H54" s="346" t="str">
+      <c r="H54" s="331" t="str">
         <f>'Eingabe Abitur'!AA55</f>
         <v/>
       </c>
@@ -12598,17 +12591,17 @@
       </c>
     </row>
     <row r="55" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="333"/>
-      <c r="B55" s="273"/>
-      <c r="C55" s="339"/>
-      <c r="D55" s="349"/>
-      <c r="E55" s="316"/>
-      <c r="F55" s="318"/>
+      <c r="A55" s="324"/>
+      <c r="B55" s="290"/>
+      <c r="C55" s="316"/>
+      <c r="D55" s="318"/>
+      <c r="E55" s="322"/>
+      <c r="F55" s="320"/>
       <c r="G55" s="53" t="str">
         <f>'Eingabe Abitur'!U56</f>
         <v/>
       </c>
-      <c r="H55" s="347"/>
+      <c r="H55" s="332"/>
       <c r="I55" s="108" t="str">
         <f>'Eingabe Abitur'!AB56</f>
         <v/>
@@ -12627,27 +12620,27 @@
       </c>
     </row>
     <row r="56" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="334" t="str">
+      <c r="A56" s="325" t="str">
         <f>'Eingabe Abitur'!A57</f>
         <v/>
       </c>
-      <c r="B56" s="336" t="str">
+      <c r="B56" s="327" t="str">
         <f>IF('Eingabe Jahresfortgang'!B31="","",'Eingabe Jahresfortgang'!B31)</f>
         <v/>
       </c>
-      <c r="C56" s="338" t="str">
+      <c r="C56" s="315" t="str">
         <f>'Eingabe Jahresfortgang'!Q31</f>
         <v/>
       </c>
-      <c r="D56" s="348" t="str">
+      <c r="D56" s="317" t="str">
         <f>'Eingabe Jahresfortgang'!R31</f>
         <v/>
       </c>
-      <c r="E56" s="315" t="str">
+      <c r="E56" s="321" t="str">
         <f>'Eingabe Jahresfortgang'!S31</f>
         <v/>
       </c>
-      <c r="F56" s="317" t="str">
+      <c r="F56" s="319" t="str">
         <f>'Eingabe Jahresfortgang'!U31</f>
         <v/>
       </c>
@@ -12655,7 +12648,7 @@
         <f>'Eingabe Abitur'!U57</f>
         <v/>
       </c>
-      <c r="H56" s="346" t="str">
+      <c r="H56" s="331" t="str">
         <f>'Eingabe Abitur'!AA57</f>
         <v/>
       </c>
@@ -12677,17 +12670,17 @@
       </c>
     </row>
     <row r="57" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="335"/>
-      <c r="B57" s="337"/>
-      <c r="C57" s="339"/>
-      <c r="D57" s="349"/>
-      <c r="E57" s="316"/>
-      <c r="F57" s="318"/>
+      <c r="A57" s="326"/>
+      <c r="B57" s="328"/>
+      <c r="C57" s="316"/>
+      <c r="D57" s="318"/>
+      <c r="E57" s="322"/>
+      <c r="F57" s="320"/>
       <c r="G57" s="53" t="str">
         <f>'Eingabe Abitur'!U58</f>
         <v/>
       </c>
-      <c r="H57" s="347"/>
+      <c r="H57" s="332"/>
       <c r="I57" s="108" t="str">
         <f>'Eingabe Abitur'!AB58</f>
         <v/>
@@ -12706,27 +12699,27 @@
       </c>
     </row>
     <row r="58" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="332" t="str">
+      <c r="A58" s="323" t="str">
         <f>'Eingabe Abitur'!A59</f>
         <v/>
       </c>
-      <c r="B58" s="272" t="str">
+      <c r="B58" s="289" t="str">
         <f>IF('Eingabe Jahresfortgang'!B32="","",'Eingabe Jahresfortgang'!B32)</f>
         <v/>
       </c>
-      <c r="C58" s="338" t="str">
+      <c r="C58" s="315" t="str">
         <f>'Eingabe Jahresfortgang'!Q32</f>
         <v/>
       </c>
-      <c r="D58" s="348" t="str">
+      <c r="D58" s="317" t="str">
         <f>'Eingabe Jahresfortgang'!R32</f>
         <v/>
       </c>
-      <c r="E58" s="315" t="str">
+      <c r="E58" s="321" t="str">
         <f>'Eingabe Jahresfortgang'!S32</f>
         <v/>
       </c>
-      <c r="F58" s="317" t="str">
+      <c r="F58" s="319" t="str">
         <f>'Eingabe Jahresfortgang'!U32</f>
         <v/>
       </c>
@@ -12734,7 +12727,7 @@
         <f>'Eingabe Abitur'!U59</f>
         <v/>
       </c>
-      <c r="H58" s="346" t="str">
+      <c r="H58" s="331" t="str">
         <f>'Eingabe Abitur'!AA59</f>
         <v/>
       </c>
@@ -12756,17 +12749,17 @@
       </c>
     </row>
     <row r="59" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="333"/>
-      <c r="B59" s="273"/>
-      <c r="C59" s="339"/>
-      <c r="D59" s="349"/>
-      <c r="E59" s="316"/>
-      <c r="F59" s="318"/>
+      <c r="A59" s="324"/>
+      <c r="B59" s="290"/>
+      <c r="C59" s="316"/>
+      <c r="D59" s="318"/>
+      <c r="E59" s="322"/>
+      <c r="F59" s="320"/>
       <c r="G59" s="53" t="str">
         <f>'Eingabe Abitur'!U60</f>
         <v/>
       </c>
-      <c r="H59" s="347"/>
+      <c r="H59" s="332"/>
       <c r="I59" s="108" t="str">
         <f>'Eingabe Abitur'!AB60</f>
         <v/>
@@ -12785,27 +12778,27 @@
       </c>
     </row>
     <row r="60" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="334" t="str">
+      <c r="A60" s="325" t="str">
         <f>'Eingabe Abitur'!A61</f>
         <v/>
       </c>
-      <c r="B60" s="336" t="str">
+      <c r="B60" s="327" t="str">
         <f>IF('Eingabe Jahresfortgang'!B33="","",'Eingabe Jahresfortgang'!B33)</f>
         <v/>
       </c>
-      <c r="C60" s="338" t="str">
+      <c r="C60" s="315" t="str">
         <f>'Eingabe Jahresfortgang'!Q33</f>
         <v/>
       </c>
-      <c r="D60" s="348" t="str">
+      <c r="D60" s="317" t="str">
         <f>'Eingabe Jahresfortgang'!R33</f>
         <v/>
       </c>
-      <c r="E60" s="315" t="str">
+      <c r="E60" s="321" t="str">
         <f>'Eingabe Jahresfortgang'!S33</f>
         <v/>
       </c>
-      <c r="F60" s="317" t="str">
+      <c r="F60" s="319" t="str">
         <f>'Eingabe Jahresfortgang'!U33</f>
         <v/>
       </c>
@@ -12813,7 +12806,7 @@
         <f>'Eingabe Abitur'!U61</f>
         <v/>
       </c>
-      <c r="H60" s="346" t="str">
+      <c r="H60" s="331" t="str">
         <f>'Eingabe Abitur'!AA61</f>
         <v/>
       </c>
@@ -12835,17 +12828,17 @@
       </c>
     </row>
     <row r="61" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="335"/>
-      <c r="B61" s="337"/>
-      <c r="C61" s="339"/>
-      <c r="D61" s="349"/>
-      <c r="E61" s="316"/>
-      <c r="F61" s="318"/>
+      <c r="A61" s="326"/>
+      <c r="B61" s="328"/>
+      <c r="C61" s="316"/>
+      <c r="D61" s="318"/>
+      <c r="E61" s="322"/>
+      <c r="F61" s="320"/>
       <c r="G61" s="53" t="str">
         <f>'Eingabe Abitur'!U62</f>
         <v/>
       </c>
-      <c r="H61" s="347"/>
+      <c r="H61" s="332"/>
       <c r="I61" s="108" t="str">
         <f>'Eingabe Abitur'!AB62</f>
         <v/>
@@ -12864,27 +12857,27 @@
       </c>
     </row>
     <row r="62" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="332" t="str">
+      <c r="A62" s="323" t="str">
         <f>'Eingabe Abitur'!A63</f>
         <v/>
       </c>
-      <c r="B62" s="272" t="str">
+      <c r="B62" s="289" t="str">
         <f>IF('Eingabe Jahresfortgang'!B34="","",'Eingabe Jahresfortgang'!B34)</f>
         <v/>
       </c>
-      <c r="C62" s="338" t="str">
+      <c r="C62" s="315" t="str">
         <f>'Eingabe Jahresfortgang'!Q34</f>
         <v/>
       </c>
-      <c r="D62" s="348" t="str">
+      <c r="D62" s="317" t="str">
         <f>'Eingabe Jahresfortgang'!R34</f>
         <v/>
       </c>
-      <c r="E62" s="315" t="str">
+      <c r="E62" s="321" t="str">
         <f>'Eingabe Jahresfortgang'!S34</f>
         <v/>
       </c>
-      <c r="F62" s="317" t="str">
+      <c r="F62" s="319" t="str">
         <f>'Eingabe Jahresfortgang'!U34</f>
         <v/>
       </c>
@@ -12892,7 +12885,7 @@
         <f>'Eingabe Abitur'!U63</f>
         <v/>
       </c>
-      <c r="H62" s="346" t="str">
+      <c r="H62" s="331" t="str">
         <f>'Eingabe Abitur'!AA63</f>
         <v/>
       </c>
@@ -12914,17 +12907,17 @@
       </c>
     </row>
     <row r="63" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="333"/>
-      <c r="B63" s="273"/>
-      <c r="C63" s="339"/>
-      <c r="D63" s="349"/>
-      <c r="E63" s="316"/>
-      <c r="F63" s="318"/>
+      <c r="A63" s="324"/>
+      <c r="B63" s="290"/>
+      <c r="C63" s="316"/>
+      <c r="D63" s="318"/>
+      <c r="E63" s="322"/>
+      <c r="F63" s="320"/>
       <c r="G63" s="53" t="str">
         <f>'Eingabe Abitur'!U64</f>
         <v/>
       </c>
-      <c r="H63" s="347"/>
+      <c r="H63" s="332"/>
       <c r="I63" s="108" t="str">
         <f>'Eingabe Abitur'!AB64</f>
         <v/>
@@ -12943,27 +12936,27 @@
       </c>
     </row>
     <row r="64" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="334" t="str">
+      <c r="A64" s="325" t="str">
         <f>'Eingabe Abitur'!A65</f>
         <v/>
       </c>
-      <c r="B64" s="336" t="str">
+      <c r="B64" s="327" t="str">
         <f>IF('Eingabe Jahresfortgang'!B35="","",'Eingabe Jahresfortgang'!B35)</f>
         <v/>
       </c>
-      <c r="C64" s="338" t="str">
+      <c r="C64" s="315" t="str">
         <f>'Eingabe Jahresfortgang'!Q35</f>
         <v/>
       </c>
-      <c r="D64" s="348" t="str">
+      <c r="D64" s="317" t="str">
         <f>'Eingabe Jahresfortgang'!R35</f>
         <v/>
       </c>
-      <c r="E64" s="315" t="str">
+      <c r="E64" s="321" t="str">
         <f>'Eingabe Jahresfortgang'!S35</f>
         <v/>
       </c>
-      <c r="F64" s="317" t="str">
+      <c r="F64" s="319" t="str">
         <f>'Eingabe Jahresfortgang'!U35</f>
         <v/>
       </c>
@@ -12971,7 +12964,7 @@
         <f>'Eingabe Abitur'!U65</f>
         <v/>
       </c>
-      <c r="H64" s="346" t="str">
+      <c r="H64" s="331" t="str">
         <f>'Eingabe Abitur'!AA65</f>
         <v/>
       </c>
@@ -12993,17 +12986,17 @@
       </c>
     </row>
     <row r="65" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="335"/>
-      <c r="B65" s="337"/>
-      <c r="C65" s="339"/>
-      <c r="D65" s="349"/>
-      <c r="E65" s="316"/>
-      <c r="F65" s="318"/>
+      <c r="A65" s="326"/>
+      <c r="B65" s="328"/>
+      <c r="C65" s="316"/>
+      <c r="D65" s="318"/>
+      <c r="E65" s="322"/>
+      <c r="F65" s="320"/>
       <c r="G65" s="68" t="str">
         <f>'Eingabe Abitur'!U66</f>
         <v/>
       </c>
-      <c r="H65" s="347"/>
+      <c r="H65" s="332"/>
       <c r="I65" s="110" t="str">
         <f>'Eingabe Abitur'!AB66</f>
         <v/>
@@ -13022,27 +13015,27 @@
       </c>
     </row>
     <row r="66" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="332" t="str">
+      <c r="A66" s="323" t="str">
         <f>'Eingabe Abitur'!A67</f>
         <v/>
       </c>
-      <c r="B66" s="272" t="str">
+      <c r="B66" s="289" t="str">
         <f>IF('Eingabe Jahresfortgang'!B36="","",'Eingabe Jahresfortgang'!B36)</f>
         <v/>
       </c>
-      <c r="C66" s="338" t="str">
+      <c r="C66" s="315" t="str">
         <f>'Eingabe Jahresfortgang'!Q36</f>
         <v/>
       </c>
-      <c r="D66" s="348" t="str">
+      <c r="D66" s="317" t="str">
         <f>'Eingabe Jahresfortgang'!R36</f>
         <v/>
       </c>
-      <c r="E66" s="315" t="str">
+      <c r="E66" s="321" t="str">
         <f>'Eingabe Jahresfortgang'!S36</f>
         <v/>
       </c>
-      <c r="F66" s="317" t="str">
+      <c r="F66" s="319" t="str">
         <f>'Eingabe Jahresfortgang'!U36</f>
         <v/>
       </c>
@@ -13050,7 +13043,7 @@
         <f>'Eingabe Abitur'!U67</f>
         <v/>
       </c>
-      <c r="H66" s="346" t="str">
+      <c r="H66" s="331" t="str">
         <f>'Eingabe Abitur'!AA67</f>
         <v/>
       </c>
@@ -13072,17 +13065,17 @@
       </c>
     </row>
     <row r="67" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="333"/>
-      <c r="B67" s="273"/>
-      <c r="C67" s="339"/>
-      <c r="D67" s="349"/>
-      <c r="E67" s="316"/>
-      <c r="F67" s="318"/>
+      <c r="A67" s="324"/>
+      <c r="B67" s="290"/>
+      <c r="C67" s="316"/>
+      <c r="D67" s="318"/>
+      <c r="E67" s="322"/>
+      <c r="F67" s="320"/>
       <c r="G67" s="53" t="str">
         <f>'Eingabe Abitur'!U68</f>
         <v/>
       </c>
-      <c r="H67" s="347"/>
+      <c r="H67" s="332"/>
       <c r="I67" s="108" t="str">
         <f>'Eingabe Abitur'!AB68</f>
         <v/>
@@ -13101,27 +13094,27 @@
       </c>
     </row>
     <row r="68" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="334" t="str">
+      <c r="A68" s="325" t="str">
         <f>'Eingabe Abitur'!A69</f>
         <v/>
       </c>
-      <c r="B68" s="336" t="str">
+      <c r="B68" s="327" t="str">
         <f>IF('Eingabe Jahresfortgang'!B37="","",'Eingabe Jahresfortgang'!B37)</f>
         <v/>
       </c>
-      <c r="C68" s="338" t="str">
+      <c r="C68" s="315" t="str">
         <f>'Eingabe Jahresfortgang'!Q37</f>
         <v/>
       </c>
-      <c r="D68" s="348" t="str">
+      <c r="D68" s="317" t="str">
         <f>'Eingabe Jahresfortgang'!R37</f>
         <v/>
       </c>
-      <c r="E68" s="315" t="str">
+      <c r="E68" s="321" t="str">
         <f>'Eingabe Jahresfortgang'!S37</f>
         <v/>
       </c>
-      <c r="F68" s="317" t="str">
+      <c r="F68" s="319" t="str">
         <f>'Eingabe Jahresfortgang'!U37</f>
         <v/>
       </c>
@@ -13129,7 +13122,7 @@
         <f>'Eingabe Abitur'!U69</f>
         <v/>
       </c>
-      <c r="H68" s="346" t="str">
+      <c r="H68" s="331" t="str">
         <f>'Eingabe Abitur'!AA69</f>
         <v/>
       </c>
@@ -13151,17 +13144,17 @@
       </c>
     </row>
     <row r="69" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="335"/>
-      <c r="B69" s="337"/>
-      <c r="C69" s="339"/>
-      <c r="D69" s="349"/>
-      <c r="E69" s="316"/>
-      <c r="F69" s="318"/>
+      <c r="A69" s="326"/>
+      <c r="B69" s="328"/>
+      <c r="C69" s="316"/>
+      <c r="D69" s="318"/>
+      <c r="E69" s="322"/>
+      <c r="F69" s="320"/>
       <c r="G69" s="53" t="str">
         <f>'Eingabe Abitur'!U70</f>
         <v/>
       </c>
-      <c r="H69" s="347"/>
+      <c r="H69" s="332"/>
       <c r="I69" s="108" t="str">
         <f>'Eingabe Abitur'!AB70</f>
         <v/>
@@ -13180,27 +13173,27 @@
       </c>
     </row>
     <row r="70" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="332" t="str">
+      <c r="A70" s="323" t="str">
         <f>'Eingabe Abitur'!A71</f>
         <v/>
       </c>
-      <c r="B70" s="272" t="str">
+      <c r="B70" s="289" t="str">
         <f>IF('Eingabe Jahresfortgang'!B38="","",'Eingabe Jahresfortgang'!B38)</f>
         <v/>
       </c>
-      <c r="C70" s="338" t="str">
+      <c r="C70" s="315" t="str">
         <f>'Eingabe Jahresfortgang'!Q38</f>
         <v/>
       </c>
-      <c r="D70" s="348" t="str">
+      <c r="D70" s="317" t="str">
         <f>'Eingabe Jahresfortgang'!R38</f>
         <v/>
       </c>
-      <c r="E70" s="315" t="str">
+      <c r="E70" s="321" t="str">
         <f>'Eingabe Jahresfortgang'!S38</f>
         <v/>
       </c>
-      <c r="F70" s="317" t="str">
+      <c r="F70" s="319" t="str">
         <f>'Eingabe Jahresfortgang'!U38</f>
         <v/>
       </c>
@@ -13208,7 +13201,7 @@
         <f>'Eingabe Abitur'!U71</f>
         <v/>
       </c>
-      <c r="H70" s="346" t="str">
+      <c r="H70" s="331" t="str">
         <f>'Eingabe Abitur'!AA71</f>
         <v/>
       </c>
@@ -13230,17 +13223,17 @@
       </c>
     </row>
     <row r="71" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="333"/>
-      <c r="B71" s="273"/>
-      <c r="C71" s="339"/>
-      <c r="D71" s="349"/>
-      <c r="E71" s="316"/>
-      <c r="F71" s="318"/>
+      <c r="A71" s="324"/>
+      <c r="B71" s="290"/>
+      <c r="C71" s="316"/>
+      <c r="D71" s="318"/>
+      <c r="E71" s="322"/>
+      <c r="F71" s="320"/>
       <c r="G71" s="53" t="str">
         <f>'Eingabe Abitur'!U72</f>
         <v/>
       </c>
-      <c r="H71" s="347"/>
+      <c r="H71" s="332"/>
       <c r="I71" s="108" t="str">
         <f>'Eingabe Abitur'!AB72</f>
         <v/>
@@ -13259,27 +13252,27 @@
       </c>
     </row>
     <row r="72" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="334" t="str">
+      <c r="A72" s="325" t="str">
         <f>'Eingabe Abitur'!A73</f>
         <v/>
       </c>
-      <c r="B72" s="336" t="str">
+      <c r="B72" s="327" t="str">
         <f>IF('Eingabe Jahresfortgang'!B39="","",'Eingabe Jahresfortgang'!B39)</f>
         <v/>
       </c>
-      <c r="C72" s="338" t="str">
+      <c r="C72" s="315" t="str">
         <f>'Eingabe Jahresfortgang'!Q39</f>
         <v/>
       </c>
-      <c r="D72" s="348" t="str">
+      <c r="D72" s="317" t="str">
         <f>'Eingabe Jahresfortgang'!R39</f>
         <v/>
       </c>
-      <c r="E72" s="315" t="str">
+      <c r="E72" s="321" t="str">
         <f>'Eingabe Jahresfortgang'!S39</f>
         <v/>
       </c>
-      <c r="F72" s="317" t="str">
+      <c r="F72" s="319" t="str">
         <f>'Eingabe Jahresfortgang'!U39</f>
         <v/>
       </c>
@@ -13287,7 +13280,7 @@
         <f>'Eingabe Abitur'!U73</f>
         <v/>
       </c>
-      <c r="H72" s="346" t="str">
+      <c r="H72" s="331" t="str">
         <f>'Eingabe Abitur'!AA73</f>
         <v/>
       </c>
@@ -13309,17 +13302,17 @@
       </c>
     </row>
     <row r="73" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="335"/>
-      <c r="B73" s="337"/>
-      <c r="C73" s="339"/>
-      <c r="D73" s="349"/>
-      <c r="E73" s="316"/>
-      <c r="F73" s="318"/>
+      <c r="A73" s="326"/>
+      <c r="B73" s="328"/>
+      <c r="C73" s="316"/>
+      <c r="D73" s="318"/>
+      <c r="E73" s="322"/>
+      <c r="F73" s="320"/>
       <c r="G73" s="53" t="str">
         <f>'Eingabe Abitur'!U74</f>
         <v/>
       </c>
-      <c r="H73" s="347"/>
+      <c r="H73" s="332"/>
       <c r="I73" s="108" t="str">
         <f>'Eingabe Abitur'!AB74</f>
         <v/>
@@ -13338,27 +13331,27 @@
       </c>
     </row>
     <row r="74" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="332" t="str">
+      <c r="A74" s="323" t="str">
         <f>'Eingabe Abitur'!A75</f>
         <v/>
       </c>
-      <c r="B74" s="272" t="str">
+      <c r="B74" s="289" t="str">
         <f>IF('Eingabe Jahresfortgang'!B40="","",'Eingabe Jahresfortgang'!B40)</f>
         <v/>
       </c>
-      <c r="C74" s="338" t="str">
+      <c r="C74" s="315" t="str">
         <f>'Eingabe Jahresfortgang'!Q40</f>
         <v/>
       </c>
-      <c r="D74" s="348" t="str">
+      <c r="D74" s="317" t="str">
         <f>'Eingabe Jahresfortgang'!R40</f>
         <v/>
       </c>
-      <c r="E74" s="315" t="str">
+      <c r="E74" s="321" t="str">
         <f>'Eingabe Jahresfortgang'!S40</f>
         <v/>
       </c>
-      <c r="F74" s="317" t="str">
+      <c r="F74" s="319" t="str">
         <f>'Eingabe Jahresfortgang'!U40</f>
         <v/>
       </c>
@@ -13366,7 +13359,7 @@
         <f>'Eingabe Abitur'!U75</f>
         <v/>
       </c>
-      <c r="H74" s="346" t="str">
+      <c r="H74" s="331" t="str">
         <f>'Eingabe Abitur'!AA75</f>
         <v/>
       </c>
@@ -13388,17 +13381,17 @@
       </c>
     </row>
     <row r="75" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="333"/>
-      <c r="B75" s="273"/>
-      <c r="C75" s="339"/>
-      <c r="D75" s="349"/>
-      <c r="E75" s="316"/>
-      <c r="F75" s="318"/>
+      <c r="A75" s="324"/>
+      <c r="B75" s="290"/>
+      <c r="C75" s="316"/>
+      <c r="D75" s="318"/>
+      <c r="E75" s="322"/>
+      <c r="F75" s="320"/>
       <c r="G75" s="53" t="str">
         <f>'Eingabe Abitur'!U76</f>
         <v/>
       </c>
-      <c r="H75" s="347"/>
+      <c r="H75" s="332"/>
       <c r="I75" s="108" t="str">
         <f>'Eingabe Abitur'!AB76</f>
         <v/>
@@ -13417,27 +13410,27 @@
       </c>
     </row>
     <row r="76" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="334" t="str">
+      <c r="A76" s="325" t="str">
         <f>'Eingabe Abitur'!A77</f>
         <v/>
       </c>
-      <c r="B76" s="336" t="str">
+      <c r="B76" s="327" t="str">
         <f>IF('Eingabe Jahresfortgang'!B41="","",'Eingabe Jahresfortgang'!B41)</f>
         <v/>
       </c>
-      <c r="C76" s="338" t="str">
+      <c r="C76" s="315" t="str">
         <f>'Eingabe Jahresfortgang'!Q41</f>
         <v/>
       </c>
-      <c r="D76" s="348" t="str">
+      <c r="D76" s="317" t="str">
         <f>'Eingabe Jahresfortgang'!R41</f>
         <v/>
       </c>
-      <c r="E76" s="315" t="str">
+      <c r="E76" s="321" t="str">
         <f>'Eingabe Jahresfortgang'!S41</f>
         <v/>
       </c>
-      <c r="F76" s="317" t="str">
+      <c r="F76" s="319" t="str">
         <f>'Eingabe Jahresfortgang'!U41</f>
         <v/>
       </c>
@@ -13445,7 +13438,7 @@
         <f>'Eingabe Abitur'!U77</f>
         <v/>
       </c>
-      <c r="H76" s="346" t="str">
+      <c r="H76" s="331" t="str">
         <f>'Eingabe Abitur'!AA77</f>
         <v/>
       </c>
@@ -13467,17 +13460,17 @@
       </c>
     </row>
     <row r="77" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="335"/>
-      <c r="B77" s="337"/>
-      <c r="C77" s="339"/>
-      <c r="D77" s="349"/>
-      <c r="E77" s="316"/>
-      <c r="F77" s="318"/>
+      <c r="A77" s="326"/>
+      <c r="B77" s="328"/>
+      <c r="C77" s="316"/>
+      <c r="D77" s="318"/>
+      <c r="E77" s="322"/>
+      <c r="F77" s="320"/>
       <c r="G77" s="53" t="str">
         <f>'Eingabe Abitur'!U78</f>
         <v/>
       </c>
-      <c r="H77" s="347"/>
+      <c r="H77" s="332"/>
       <c r="I77" s="108" t="str">
         <f>'Eingabe Abitur'!AB78</f>
         <v/>
@@ -13496,27 +13489,27 @@
       </c>
     </row>
     <row r="78" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="332" t="str">
+      <c r="A78" s="323" t="str">
         <f>'Eingabe Abitur'!A79</f>
         <v/>
       </c>
-      <c r="B78" s="272" t="str">
+      <c r="B78" s="289" t="str">
         <f>IF('Eingabe Jahresfortgang'!B42="","",'Eingabe Jahresfortgang'!B42)</f>
         <v/>
       </c>
-      <c r="C78" s="338" t="str">
+      <c r="C78" s="315" t="str">
         <f>'Eingabe Jahresfortgang'!Q42</f>
         <v/>
       </c>
-      <c r="D78" s="348" t="str">
+      <c r="D78" s="317" t="str">
         <f>'Eingabe Jahresfortgang'!R42</f>
         <v/>
       </c>
-      <c r="E78" s="315" t="str">
+      <c r="E78" s="321" t="str">
         <f>'Eingabe Jahresfortgang'!S42</f>
         <v/>
       </c>
-      <c r="F78" s="317" t="str">
+      <c r="F78" s="319" t="str">
         <f>'Eingabe Jahresfortgang'!U42</f>
         <v/>
       </c>
@@ -13524,7 +13517,7 @@
         <f>'Eingabe Abitur'!U79</f>
         <v/>
       </c>
-      <c r="H78" s="346" t="str">
+      <c r="H78" s="331" t="str">
         <f>'Eingabe Abitur'!AA79</f>
         <v/>
       </c>
@@ -13546,17 +13539,17 @@
       </c>
     </row>
     <row r="79" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="333"/>
-      <c r="B79" s="273"/>
-      <c r="C79" s="339"/>
-      <c r="D79" s="349"/>
-      <c r="E79" s="316"/>
-      <c r="F79" s="318"/>
+      <c r="A79" s="324"/>
+      <c r="B79" s="290"/>
+      <c r="C79" s="316"/>
+      <c r="D79" s="318"/>
+      <c r="E79" s="322"/>
+      <c r="F79" s="320"/>
       <c r="G79" s="53" t="str">
         <f>'Eingabe Abitur'!U80</f>
         <v/>
       </c>
-      <c r="H79" s="347"/>
+      <c r="H79" s="332"/>
       <c r="I79" s="108" t="str">
         <f>'Eingabe Abitur'!AB80</f>
         <v/>
@@ -13585,236 +13578,64 @@
       </c>
       <c r="E80" s="239">
         <f t="shared" si="0"/>
-        <v>13.33</v>
-      </c>
-      <c r="F80" s="238">
+        <v>0</v>
+      </c>
+      <c r="F80" s="238" t="str">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="G80" s="179">
+        <v/>
+      </c>
+      <c r="G80" s="179" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="H80" s="239" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I80" s="239">
+      <c r="I80" s="239" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J80" s="238">
+        <v/>
+      </c>
+      <c r="J80" s="238" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K80" s="179">
+        <v/>
+      </c>
+      <c r="K80" s="179" t="str">
         <f t="shared" si="0"/>
-        <v>6.67</v>
-      </c>
-      <c r="L80" s="238">
+        <v/>
+      </c>
+      <c r="L80" s="238" t="str">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v/>
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="" sheet="1" selectLockedCells="1"/>
+  <sheetProtection sheet="1" selectLockedCells="1"/>
   <mergeCells count="250">
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="H76:H77"/>
-    <mergeCell ref="H78:H79"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="C6:L6"/>
+    <mergeCell ref="C7:L7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="H10:H11"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:C15"/>
@@ -13839,36 +13660,208 @@
     <mergeCell ref="H42:H43"/>
     <mergeCell ref="H28:H29"/>
     <mergeCell ref="H30:H31"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="H78:H79"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="H74:H75"/>
     <mergeCell ref="H32:H33"/>
     <mergeCell ref="H34:H35"/>
     <mergeCell ref="H20:H21"/>
     <mergeCell ref="H22:H23"/>
     <mergeCell ref="H24:H25"/>
     <mergeCell ref="H26:H27"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="C6:L6"/>
-    <mergeCell ref="C7:L7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="C62:C63"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -13947,15 +13940,15 @@
       <c r="G5" s="85"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="350" t="s">
+      <c r="A7" s="364" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="351"/>
-      <c r="C7" s="351"/>
-      <c r="D7" s="351"/>
-      <c r="E7" s="351"/>
-      <c r="F7" s="351"/>
-      <c r="G7" s="352"/>
+      <c r="B7" s="365"/>
+      <c r="C7" s="365"/>
+      <c r="D7" s="365"/>
+      <c r="E7" s="365"/>
+      <c r="F7" s="365"/>
+      <c r="G7" s="366"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="86"/>
@@ -13971,10 +13964,10 @@
       <c r="B9" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="353" t="s">
+      <c r="C9" s="367" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="353"/>
+      <c r="D9" s="367"/>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="79"/>
@@ -13995,25 +13988,25 @@
       <c r="G10" s="79"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="81">
+      <c r="A11" s="81" t="str">
         <f>'Eingabe Jahresfortgang'!A8</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="B11" s="74" t="str">
         <f>IF(A11="","",'Eingabe Jahresfortgang'!B8)</f>
-        <v xml:space="preserve">Siegel, Markus </v>
-      </c>
-      <c r="C11" s="75">
+        <v/>
+      </c>
+      <c r="C11" s="75" t="str">
         <f>'Eingabe Abitur'!T11</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="75">
+        <v/>
+      </c>
+      <c r="D11" s="75" t="str">
         <f>'Eingabe Abitur'!T12</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="75">
+        <v/>
+      </c>
+      <c r="E11" s="75" t="str">
         <f>IF('Eingabe Abitur'!U11='Eingabe Abitur'!U12,'Eingabe Abitur'!U11,"Keine Einigung!")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="79"/>
@@ -14835,8 +14828,8 @@
       <c r="G45" s="85"/>
     </row>
     <row r="47" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="354"/>
-      <c r="B47" s="354"/>
+      <c r="A47" s="368"/>
+      <c r="B47" s="368"/>
       <c r="C47" s="103" t="s">
         <v>64</v>
       </c>
@@ -14852,10 +14845,10 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="355">
+      <c r="A48" s="359">
         <v>15</v>
       </c>
-      <c r="B48" s="356"/>
+      <c r="B48" s="360"/>
       <c r="C48" s="101" t="s">
         <v>65</v>
       </c>
@@ -14875,10 +14868,10 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="355">
+      <c r="A49" s="359">
         <v>14</v>
       </c>
-      <c r="B49" s="356"/>
+      <c r="B49" s="360"/>
       <c r="C49" s="101" t="s">
         <v>66</v>
       </c>
@@ -14898,10 +14891,10 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="355">
+      <c r="A50" s="359">
         <v>13</v>
       </c>
-      <c r="B50" s="356"/>
+      <c r="B50" s="360"/>
       <c r="C50" s="101" t="s">
         <v>67</v>
       </c>
@@ -14921,10 +14914,10 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="355">
+      <c r="A51" s="359">
         <v>12</v>
       </c>
-      <c r="B51" s="356"/>
+      <c r="B51" s="360"/>
       <c r="C51" s="101" t="s">
         <v>68</v>
       </c>
@@ -14944,10 +14937,10 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="355">
+      <c r="A52" s="359">
         <v>11</v>
       </c>
-      <c r="B52" s="356"/>
+      <c r="B52" s="360"/>
       <c r="C52" s="101" t="s">
         <v>69</v>
       </c>
@@ -14967,10 +14960,10 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="355">
+      <c r="A53" s="359">
         <v>10</v>
       </c>
-      <c r="B53" s="356"/>
+      <c r="B53" s="360"/>
       <c r="C53" s="101" t="s">
         <v>70</v>
       </c>
@@ -14990,10 +14983,10 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="355">
+      <c r="A54" s="359">
         <v>9</v>
       </c>
-      <c r="B54" s="356"/>
+      <c r="B54" s="360"/>
       <c r="C54" s="101" t="s">
         <v>71</v>
       </c>
@@ -15013,10 +15006,10 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="355">
+      <c r="A55" s="359">
         <v>8</v>
       </c>
-      <c r="B55" s="356"/>
+      <c r="B55" s="360"/>
       <c r="C55" s="101" t="s">
         <v>72</v>
       </c>
@@ -15032,7 +15025,7 @@
       </c>
       <c r="G55" s="101">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -15045,82 +15038,82 @@
       <c r="G56" s="79"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="357" t="s">
+      <c r="A57" s="361" t="s">
         <v>53</v>
       </c>
-      <c r="B57" s="358"/>
-      <c r="C57" s="358"/>
-      <c r="D57" s="358"/>
-      <c r="E57" s="358"/>
-      <c r="F57" s="358"/>
-      <c r="G57" s="359"/>
+      <c r="B57" s="362"/>
+      <c r="C57" s="362"/>
+      <c r="D57" s="362"/>
+      <c r="E57" s="362"/>
+      <c r="F57" s="362"/>
+      <c r="G57" s="363"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="360">
+      <c r="A58" s="350" t="e">
         <f>AVERAGE(E11:E45)</f>
-        <v>0</v>
-      </c>
-      <c r="B58" s="361"/>
-      <c r="C58" s="361"/>
-      <c r="D58" s="361"/>
-      <c r="E58" s="361"/>
-      <c r="F58" s="361"/>
-      <c r="G58" s="362"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="B58" s="351"/>
+      <c r="C58" s="351"/>
+      <c r="D58" s="351"/>
+      <c r="E58" s="351"/>
+      <c r="F58" s="351"/>
+      <c r="G58" s="352"/>
     </row>
     <row r="60" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="366" t="s">
+      <c r="A60" s="356" t="s">
         <v>58</v>
       </c>
-      <c r="B60" s="367"/>
-      <c r="C60" s="367"/>
-      <c r="D60" s="367"/>
-      <c r="E60" s="367"/>
-      <c r="F60" s="367"/>
-      <c r="G60" s="368"/>
+      <c r="B60" s="357"/>
+      <c r="C60" s="357"/>
+      <c r="D60" s="357"/>
+      <c r="E60" s="357"/>
+      <c r="F60" s="357"/>
+      <c r="G60" s="358"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="95"/>
-      <c r="B65" s="365"/>
-      <c r="C65" s="365"/>
+      <c r="B65" s="355"/>
+      <c r="C65" s="355"/>
       <c r="D65" s="13"/>
       <c r="E65" s="13"/>
-      <c r="F65" s="364"/>
-      <c r="G65" s="364"/>
+      <c r="F65" s="354"/>
+      <c r="G65" s="354"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="13"/>
-      <c r="B66" s="363" t="s">
+      <c r="B66" s="353" t="s">
         <v>59</v>
       </c>
-      <c r="C66" s="363"/>
+      <c r="C66" s="353"/>
       <c r="D66" s="13"/>
       <c r="E66" s="23"/>
-      <c r="F66" s="363" t="s">
+      <c r="F66" s="353" t="s">
         <v>60</v>
       </c>
-      <c r="G66" s="363"/>
+      <c r="G66" s="353"/>
     </row>
   </sheetData>
-  <sheetProtection password="" sheet="1" selectLockedCells="1"/>
+  <sheetProtection sheet="1" selectLockedCells="1"/>
   <mergeCells count="18">
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A57:G57"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A54:B54"/>
     <mergeCell ref="A58:G58"/>
     <mergeCell ref="F66:G66"/>
     <mergeCell ref="F65:G65"/>
     <mergeCell ref="B66:C66"/>
     <mergeCell ref="B65:C65"/>
     <mergeCell ref="A60:G60"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A57:G57"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -15199,15 +15192,15 @@
       <c r="G5" s="85"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="350" t="s">
+      <c r="A7" s="364" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="351"/>
-      <c r="C7" s="351"/>
-      <c r="D7" s="351"/>
-      <c r="E7" s="351"/>
-      <c r="F7" s="351"/>
-      <c r="G7" s="352"/>
+      <c r="B7" s="365"/>
+      <c r="C7" s="365"/>
+      <c r="D7" s="365"/>
+      <c r="E7" s="365"/>
+      <c r="F7" s="365"/>
+      <c r="G7" s="366"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="78"/>
@@ -15232,13 +15225,13 @@
       <c r="G9" s="79"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="81">
+      <c r="A10" s="81" t="str">
         <f>'Eingabe Jahresfortgang'!A8</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="B10" s="74" t="str">
         <f>IF(A10="","",'Eingabe Jahresfortgang'!B8)</f>
-        <v xml:space="preserve">Siegel, Markus </v>
+        <v/>
       </c>
       <c r="C10" s="75" t="str">
         <f>'Eingabe Abitur'!AA11</f>
@@ -16039,35 +16032,35 @@
       <c r="A56" s="78"/>
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
-      <c r="D56" s="357" t="s">
+      <c r="D56" s="361" t="s">
         <v>53</v>
       </c>
-      <c r="E56" s="358"/>
-      <c r="F56" s="358"/>
-      <c r="G56" s="359"/>
+      <c r="E56" s="362"/>
+      <c r="F56" s="362"/>
+      <c r="G56" s="363"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="89"/>
       <c r="B57" s="84"/>
       <c r="C57" s="84"/>
-      <c r="D57" s="360" t="str">
+      <c r="D57" s="350" t="str">
         <f>IF(SUM(C10:C44)=0,"",AVERAGE(C10:C44))</f>
         <v/>
       </c>
-      <c r="E57" s="361"/>
-      <c r="F57" s="361"/>
-      <c r="G57" s="362"/>
+      <c r="E57" s="351"/>
+      <c r="F57" s="351"/>
+      <c r="G57" s="352"/>
     </row>
     <row r="58" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="366" t="s">
+      <c r="A58" s="356" t="s">
         <v>81</v>
       </c>
-      <c r="B58" s="367"/>
-      <c r="C58" s="367"/>
-      <c r="D58" s="367"/>
-      <c r="E58" s="367"/>
-      <c r="F58" s="367"/>
-      <c r="G58" s="368"/>
+      <c r="B58" s="357"/>
+      <c r="C58" s="357"/>
+      <c r="D58" s="357"/>
+      <c r="E58" s="357"/>
+      <c r="F58" s="357"/>
+      <c r="G58" s="358"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="369"/>
@@ -16083,15 +16076,15 @@
         <v>59</v>
       </c>
       <c r="C61" s="13"/>
-      <c r="D61" s="363" t="s">
+      <c r="D61" s="353" t="s">
         <v>60</v>
       </c>
-      <c r="E61" s="363"/>
-      <c r="F61" s="363"/>
-      <c r="G61" s="363"/>
+      <c r="E61" s="353"/>
+      <c r="F61" s="353"/>
+      <c r="G61" s="353"/>
     </row>
   </sheetData>
-  <sheetProtection password="" sheet="1" selectLockedCells="1"/>
+  <sheetProtection sheet="1" selectLockedCells="1"/>
   <mergeCells count="6">
     <mergeCell ref="A58:G58"/>
     <mergeCell ref="D61:G61"/>
